--- a/Daten/zf_geburtenrate/variable_hauptsprache_pro_kanton/rohdaten/je-d-01.08.01.02.xlsx
+++ b/Daten/zf_geburtenrate/variable_hauptsprache_pro_kanton/rohdaten/je-d-01.08.01.02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolarohner/Documents/GitHub/omc-WER/Daten/variable_hauptsprache_pro_kanton/rohdaten/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/578e02158c832d3f/Dokumente/GitHub/omc-WER/Daten/zf_geburtenrate/variable_hauptsprache_pro_kanton/rohdaten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69471A00-EC57-A148-BADD-803279D48EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{69471A00-EC57-A148-BADD-803279D48EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E70817A9-922F-4F45-8B24-B82F361B9426}"/>
   <bookViews>
-    <workbookView xWindow="6160" yWindow="520" windowWidth="28800" windowHeight="16320" tabRatio="752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="3900" windowWidth="21600" windowHeight="11295" tabRatio="752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="24" r:id="rId1"/>
@@ -37,7 +37,19 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2019'!$A$2:$AA$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2020'!$A$2:$AA$45</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -554,21 +566,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="13">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="\ 0;;;\ @"/>
-    <numFmt numFmtId="166" formatCode="\ \ 0;;;\ \ @"/>
-    <numFmt numFmtId="167" formatCode="#,###,##0__;\-#,###,##0__;\-__;@__\ "/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="\(#,###,##0\)__;\-\(#,###,##0\)__;0__;@__\ "/>
-    <numFmt numFmtId="170" formatCode="\(0\)"/>
-    <numFmt numFmtId="171" formatCode="\(0.0\)"/>
-    <numFmt numFmtId="172" formatCode="* #,###"/>
-    <numFmt numFmtId="173" formatCode="#\'###\'##0"/>
-    <numFmt numFmtId="174" formatCode="#\'##0"/>
-    <numFmt numFmtId="175" formatCode="\(##0\)"/>
-    <numFmt numFmtId="176" formatCode="\(#\'##0\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="\ 0;;;\ @"/>
+    <numFmt numFmtId="165" formatCode="\ \ 0;;;\ \ @"/>
+    <numFmt numFmtId="166" formatCode="#,###,##0__;\-#,###,##0__;\-__;@__\ "/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="\(#,###,##0\)__;\-\(#,###,##0\)__;0__;@__\ "/>
+    <numFmt numFmtId="169" formatCode="\(0\)"/>
+    <numFmt numFmtId="170" formatCode="\(0.0\)"/>
+    <numFmt numFmtId="171" formatCode="* #,###"/>
+    <numFmt numFmtId="172" formatCode="#\'###\'##0"/>
+    <numFmt numFmtId="173" formatCode="#\'##0"/>
+    <numFmt numFmtId="174" formatCode="\(##0\)"/>
+    <numFmt numFmtId="175" formatCode="\(#\'##0\)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="8.5"/>
       <name val="Helvetica"/>
@@ -790,16 +802,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -807,7 +819,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -822,7 +834,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -832,13 +844,13 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="6" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="171" fontId="6" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -850,13 +862,13 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="10" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="10" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -871,7 +883,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -880,10 +892,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="10" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -895,10 +907,10 @@
     <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="10" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="11" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -907,25 +919,25 @@
     <xf numFmtId="3" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -934,91 +946,91 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="172" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="173" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="174" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="175" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="173" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="174" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="7" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="7" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="7" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="7" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="173" fontId="6" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="6" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="6" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="6" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="173" fontId="6" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="174" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="175" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1042,19 +1054,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1432,25 +1444,25 @@
   <dimension ref="A1:AP89"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.3984375" defaultRowHeight="12.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" style="33" customWidth="1"/>
-    <col min="3" max="25" width="12.19921875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="9.3984375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="12.19921875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="10.59765625" style="1" customWidth="1"/>
-    <col min="29" max="42" width="12.3984375" style="1" customWidth="1"/>
-    <col min="43" max="16384" width="9.3984375" style="1"/>
+    <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="33" customWidth="1"/>
+    <col min="3" max="25" width="12.1640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9.33203125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.1640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10.6640625" style="1" customWidth="1"/>
+    <col min="29" max="42" width="12.33203125" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="20" customHeight="1">
+    <row r="1" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
         <v>63</v>
       </c>
@@ -1458,7 +1470,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="2" spans="1:29" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
         <v>52</v>
       </c>
@@ -1467,7 +1479,7 @@
       <c r="O2" s="13"/>
       <c r="X2" s="14"/>
     </row>
-    <row r="3" spans="1:29" ht="50" customHeight="1">
+    <row r="3" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="50" t="s">
         <v>51</v>
@@ -1517,7 +1529,7 @@
       </c>
       <c r="X3" s="100"/>
     </row>
-    <row r="4" spans="1:29" s="9" customFormat="1" ht="44.25" customHeight="1">
+    <row r="4" spans="1:29" s="9" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="93"/>
       <c r="B4" s="28"/>
       <c r="C4" s="29" t="s">
@@ -1587,7 +1599,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="5" spans="1:29" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="71" t="s">
         <v>1</v>
       </c>
@@ -1666,7 +1678,7 @@
       <c r="AB5" s="8"/>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="6" spans="1:29" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>23</v>
       </c>
@@ -1745,7 +1757,7 @@
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
     </row>
-    <row r="7" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="7" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
         <v>26</v>
       </c>
@@ -1824,7 +1836,7 @@
       <c r="AB7" s="8"/>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="8" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
         <v>25</v>
       </c>
@@ -1903,7 +1915,7 @@
       <c r="AB8" s="8"/>
       <c r="AC8" s="8"/>
     </row>
-    <row r="9" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="9" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
         <v>24</v>
       </c>
@@ -1982,7 +1994,7 @@
       <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="10" spans="1:29" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>19</v>
       </c>
@@ -2061,7 +2073,7 @@
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
     </row>
-    <row r="11" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="11" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>3</v>
       </c>
@@ -2140,7 +2152,7 @@
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="12" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>27</v>
       </c>
@@ -2219,7 +2231,7 @@
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
     </row>
-    <row r="13" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="13" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>11</v>
       </c>
@@ -2298,7 +2310,7 @@
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="14" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>28</v>
       </c>
@@ -2377,7 +2389,7 @@
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
     </row>
-    <row r="15" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="15" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>18</v>
       </c>
@@ -2456,7 +2468,7 @@
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="16" spans="1:29" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>20</v>
       </c>
@@ -2535,7 +2547,7 @@
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
     </row>
-    <row r="17" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="17" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>12</v>
       </c>
@@ -2614,7 +2626,7 @@
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="18" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
         <v>13</v>
       </c>
@@ -2693,7 +2705,7 @@
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
     </row>
-    <row r="19" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="19" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
         <v>16</v>
       </c>
@@ -2772,7 +2784,7 @@
       <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="20" spans="1:29" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
         <v>2</v>
       </c>
@@ -2851,7 +2863,7 @@
       <c r="AB20" s="8"/>
       <c r="AC20" s="8"/>
     </row>
-    <row r="21" spans="1:29" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="21" spans="1:29" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
         <v>21</v>
       </c>
@@ -2930,7 +2942,7 @@
       <c r="AB21" s="8"/>
       <c r="AC21" s="8"/>
     </row>
-    <row r="22" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="22" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37" t="s">
         <v>9</v>
       </c>
@@ -3009,7 +3021,7 @@
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
     </row>
-    <row r="23" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="23" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="37" t="s">
         <v>14</v>
       </c>
@@ -3088,7 +3100,7 @@
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="24" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="37" t="s">
         <v>30</v>
       </c>
@@ -3167,7 +3179,7 @@
       <c r="AB24" s="8"/>
       <c r="AC24" s="8"/>
     </row>
-    <row r="25" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="25" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37" t="s">
         <v>31</v>
       </c>
@@ -3246,7 +3258,7 @@
       <c r="AB25" s="8"/>
       <c r="AC25" s="8"/>
     </row>
-    <row r="26" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="26" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="37" t="s">
         <v>32</v>
       </c>
@@ -3325,7 +3337,7 @@
       <c r="AB26" s="8"/>
       <c r="AC26" s="8"/>
     </row>
-    <row r="27" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="27" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="37" t="s">
         <v>15</v>
       </c>
@@ -3404,7 +3416,7 @@
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
     </row>
-    <row r="28" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="28" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="37" t="s">
         <v>17</v>
       </c>
@@ -3483,7 +3495,7 @@
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
     </row>
-    <row r="29" spans="1:29" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="29" spans="1:29" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="37" t="s">
         <v>22</v>
       </c>
@@ -3562,7 +3574,7 @@
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
     </row>
-    <row r="30" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="30" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="37" t="s">
         <v>4</v>
       </c>
@@ -3641,7 +3653,7 @@
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
     </row>
-    <row r="31" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="31" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37" t="s">
         <v>5</v>
       </c>
@@ -3720,7 +3732,7 @@
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
     </row>
-    <row r="32" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="32" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="37" t="s">
         <v>6</v>
       </c>
@@ -3799,7 +3811,7 @@
       <c r="AB32" s="8"/>
       <c r="AC32" s="8"/>
     </row>
-    <row r="33" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="33" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="37" t="s">
         <v>7</v>
       </c>
@@ -3878,7 +3890,7 @@
       <c r="AB33" s="8"/>
       <c r="AC33" s="8"/>
     </row>
-    <row r="34" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="34" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="37" t="s">
         <v>8</v>
       </c>
@@ -3957,7 +3969,7 @@
       <c r="AB34" s="8"/>
       <c r="AC34" s="8"/>
     </row>
-    <row r="35" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="35" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="37" t="s">
         <v>10</v>
       </c>
@@ -4036,7 +4048,7 @@
       <c r="AB35" s="8"/>
       <c r="AC35" s="8"/>
     </row>
-    <row r="36" spans="1:42" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="36" spans="1:42" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="34" t="s">
         <v>29</v>
       </c>
@@ -4115,7 +4127,7 @@
       <c r="AB36" s="8"/>
       <c r="AC36" s="8"/>
     </row>
-    <row r="37" spans="1:42" s="9" customFormat="1" ht="6" customHeight="1">
+    <row r="37" spans="1:42" s="9" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="37"/>
       <c r="B37" s="73"/>
       <c r="C37" s="74"/>
@@ -4146,7 +4158,7 @@
       <c r="AB37" s="8"/>
       <c r="AC37" s="8"/>
     </row>
-    <row r="38" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="38" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="37" t="s">
         <v>68</v>
       </c>
@@ -4179,7 +4191,7 @@
       <c r="AB38" s="8"/>
       <c r="AC38" s="8"/>
     </row>
-    <row r="39" spans="1:42" ht="12.5" customHeight="1">
+    <row r="39" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="82" t="s">
         <v>42</v>
       </c>
@@ -4225,7 +4237,7 @@
       <c r="AO39" s="2"/>
       <c r="AP39" s="2"/>
     </row>
-    <row r="40" spans="1:42" ht="12.5" customHeight="1">
+    <row r="40" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="94" t="s">
         <v>67</v>
       </c>
@@ -4271,7 +4283,7 @@
       <c r="AO40" s="2"/>
       <c r="AP40" s="2"/>
     </row>
-    <row r="41" spans="1:42" ht="12.5" customHeight="1">
+    <row r="41" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
         <v>49</v>
       </c>
@@ -4311,7 +4323,7 @@
       <c r="AO41" s="2"/>
       <c r="AP41" s="2"/>
     </row>
-    <row r="42" spans="1:42" ht="12.5" customHeight="1">
+    <row r="42" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="24" t="s">
         <v>50</v>
       </c>
@@ -4351,7 +4363,7 @@
       <c r="AO42" s="2"/>
       <c r="AP42" s="2"/>
     </row>
-    <row r="43" spans="1:42" ht="12.5" customHeight="1">
+    <row r="43" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="86" t="s">
         <v>65</v>
       </c>
@@ -4397,7 +4409,7 @@
       <c r="AO43" s="2"/>
       <c r="AP43" s="2"/>
     </row>
-    <row r="44" spans="1:42" ht="12.5" customHeight="1">
+    <row r="44" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="86" t="s">
         <v>40</v>
       </c>
@@ -4443,7 +4455,7 @@
       <c r="AO44" s="2"/>
       <c r="AP44" s="2"/>
     </row>
-    <row r="45" spans="1:42" ht="12.5" customHeight="1">
+    <row r="45" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="86"/>
       <c r="B45" s="32"/>
       <c r="C45" s="2"/>
@@ -4487,7 +4499,7 @@
       <c r="AO45" s="2"/>
       <c r="AP45" s="2"/>
     </row>
-    <row r="46" spans="1:42" ht="12.5" customHeight="1">
+    <row r="46" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="90" t="s">
         <v>41</v>
       </c>
@@ -4533,7 +4545,7 @@
       <c r="AO46" s="2"/>
       <c r="AP46" s="2"/>
     </row>
-    <row r="47" spans="1:42" ht="12.5" customHeight="1">
+    <row r="47" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="32"/>
       <c r="C47" s="2"/>
@@ -4577,7 +4589,7 @@
       <c r="AO47" s="2"/>
       <c r="AP47" s="2"/>
     </row>
-    <row r="48" spans="1:42" ht="12.5" customHeight="1">
+    <row r="48" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="32"/>
       <c r="C48" s="2"/>
@@ -4621,7 +4633,7 @@
       <c r="AO48" s="2"/>
       <c r="AP48" s="2"/>
     </row>
-    <row r="49" spans="1:42" ht="12.5" customHeight="1">
+    <row r="49" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="32"/>
       <c r="C49" s="2"/>
@@ -4665,7 +4677,7 @@
       <c r="AO49" s="2"/>
       <c r="AP49" s="2"/>
     </row>
-    <row r="50" spans="1:42" ht="12.5" customHeight="1">
+    <row r="50" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="32"/>
       <c r="C50" s="2"/>
@@ -4709,7 +4721,7 @@
       <c r="AO50" s="2"/>
       <c r="AP50" s="2"/>
     </row>
-    <row r="51" spans="1:42" ht="12.5" customHeight="1">
+    <row r="51" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="32"/>
       <c r="C51" s="2"/>
@@ -4753,7 +4765,7 @@
       <c r="AO51" s="2"/>
       <c r="AP51" s="2"/>
     </row>
-    <row r="52" spans="1:42" ht="12.5" customHeight="1">
+    <row r="52" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="32"/>
       <c r="C52" s="2"/>
@@ -4797,7 +4809,7 @@
       <c r="AO52" s="2"/>
       <c r="AP52" s="2"/>
     </row>
-    <row r="53" spans="1:42" ht="12.5" customHeight="1">
+    <row r="53" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="32"/>
       <c r="C53" s="2"/>
@@ -4841,7 +4853,7 @@
       <c r="AO53" s="2"/>
       <c r="AP53" s="2"/>
     </row>
-    <row r="54" spans="1:42" ht="12.5" customHeight="1">
+    <row r="54" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="32"/>
       <c r="C54" s="2"/>
@@ -4885,7 +4897,7 @@
       <c r="AO54" s="2"/>
       <c r="AP54" s="2"/>
     </row>
-    <row r="55" spans="1:42" ht="12.5" customHeight="1">
+    <row r="55" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="32"/>
       <c r="C55" s="2"/>
@@ -4929,7 +4941,7 @@
       <c r="AO55" s="2"/>
       <c r="AP55" s="2"/>
     </row>
-    <row r="56" spans="1:42" ht="12.5" customHeight="1">
+    <row r="56" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="32"/>
       <c r="C56" s="2"/>
@@ -4973,7 +4985,7 @@
       <c r="AO56" s="2"/>
       <c r="AP56" s="2"/>
     </row>
-    <row r="57" spans="1:42" ht="12.5" customHeight="1">
+    <row r="57" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="32"/>
       <c r="C57" s="2"/>
@@ -5017,7 +5029,7 @@
       <c r="AO57" s="2"/>
       <c r="AP57" s="2"/>
     </row>
-    <row r="58" spans="1:42" ht="12.5" customHeight="1">
+    <row r="58" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="32"/>
       <c r="C58" s="2"/>
@@ -5061,7 +5073,7 @@
       <c r="AO58" s="2"/>
       <c r="AP58" s="2"/>
     </row>
-    <row r="59" spans="1:42" ht="12.5" customHeight="1">
+    <row r="59" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="32"/>
       <c r="C59" s="2"/>
@@ -5105,7 +5117,7 @@
       <c r="AO59" s="2"/>
       <c r="AP59" s="2"/>
     </row>
-    <row r="60" spans="1:42" ht="12.5" customHeight="1">
+    <row r="60" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="32"/>
       <c r="C60" s="2"/>
@@ -5149,7 +5161,7 @@
       <c r="AO60" s="2"/>
       <c r="AP60" s="2"/>
     </row>
-    <row r="61" spans="1:42" ht="12.5" customHeight="1">
+    <row r="61" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="32"/>
       <c r="C61" s="2"/>
@@ -5193,7 +5205,7 @@
       <c r="AO61" s="2"/>
       <c r="AP61" s="2"/>
     </row>
-    <row r="62" spans="1:42" ht="12.5" customHeight="1">
+    <row r="62" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="32"/>
       <c r="C62" s="2"/>
@@ -5237,7 +5249,7 @@
       <c r="AO62" s="2"/>
       <c r="AP62" s="2"/>
     </row>
-    <row r="63" spans="1:42" ht="12.5" customHeight="1">
+    <row r="63" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="32"/>
       <c r="C63" s="2"/>
@@ -5281,7 +5293,7 @@
       <c r="AO63" s="2"/>
       <c r="AP63" s="2"/>
     </row>
-    <row r="64" spans="1:42" ht="12.5" customHeight="1">
+    <row r="64" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="32"/>
       <c r="C64" s="2"/>
@@ -5325,7 +5337,7 @@
       <c r="AO64" s="2"/>
       <c r="AP64" s="2"/>
     </row>
-    <row r="65" spans="1:42" ht="12.5" customHeight="1">
+    <row r="65" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="32"/>
       <c r="C65" s="2"/>
@@ -5369,7 +5381,7 @@
       <c r="AO65" s="2"/>
       <c r="AP65" s="2"/>
     </row>
-    <row r="66" spans="1:42" ht="12.5" customHeight="1">
+    <row r="66" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="32"/>
       <c r="C66" s="2"/>
@@ -5413,7 +5425,7 @@
       <c r="AO66" s="2"/>
       <c r="AP66" s="2"/>
     </row>
-    <row r="67" spans="1:42" ht="12.5" customHeight="1">
+    <row r="67" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="32"/>
       <c r="C67" s="2"/>
@@ -5457,7 +5469,7 @@
       <c r="AO67" s="2"/>
       <c r="AP67" s="2"/>
     </row>
-    <row r="68" spans="1:42" ht="12.5" customHeight="1">
+    <row r="68" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="32"/>
       <c r="C68" s="2"/>
@@ -5501,7 +5513,7 @@
       <c r="AO68" s="2"/>
       <c r="AP68" s="2"/>
     </row>
-    <row r="69" spans="1:42" ht="12.5" customHeight="1">
+    <row r="69" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="32"/>
       <c r="C69" s="2"/>
@@ -5545,7 +5557,7 @@
       <c r="AO69" s="2"/>
       <c r="AP69" s="2"/>
     </row>
-    <row r="70" spans="1:42" ht="12.5" customHeight="1">
+    <row r="70" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="32"/>
       <c r="C70" s="2"/>
@@ -5589,7 +5601,7 @@
       <c r="AO70" s="2"/>
       <c r="AP70" s="2"/>
     </row>
-    <row r="71" spans="1:42" ht="12.5" customHeight="1">
+    <row r="71" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="32"/>
       <c r="C71" s="2"/>
@@ -5633,7 +5645,7 @@
       <c r="AO71" s="2"/>
       <c r="AP71" s="2"/>
     </row>
-    <row r="72" spans="1:42" ht="12.5" customHeight="1">
+    <row r="72" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="32"/>
       <c r="C72" s="2"/>
@@ -5677,7 +5689,7 @@
       <c r="AO72" s="2"/>
       <c r="AP72" s="2"/>
     </row>
-    <row r="73" spans="1:42" ht="12.5" customHeight="1">
+    <row r="73" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="32"/>
       <c r="C73" s="2"/>
@@ -5721,7 +5733,7 @@
       <c r="AO73" s="2"/>
       <c r="AP73" s="2"/>
     </row>
-    <row r="74" spans="1:42" ht="12.5" customHeight="1">
+    <row r="74" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="32"/>
       <c r="C74" s="2"/>
@@ -5765,7 +5777,7 @@
       <c r="AO74" s="2"/>
       <c r="AP74" s="2"/>
     </row>
-    <row r="75" spans="1:42" ht="12.5" customHeight="1">
+    <row r="75" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="32"/>
       <c r="C75" s="2"/>
@@ -5809,7 +5821,7 @@
       <c r="AO75" s="2"/>
       <c r="AP75" s="2"/>
     </row>
-    <row r="76" spans="1:42" ht="12.5" customHeight="1">
+    <row r="76" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="32"/>
       <c r="C76" s="2"/>
@@ -5853,7 +5865,7 @@
       <c r="AO76" s="2"/>
       <c r="AP76" s="2"/>
     </row>
-    <row r="77" spans="1:42" ht="12.5" customHeight="1">
+    <row r="77" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="32"/>
       <c r="C77" s="2"/>
@@ -5897,7 +5909,7 @@
       <c r="AO77" s="2"/>
       <c r="AP77" s="2"/>
     </row>
-    <row r="78" spans="1:42" ht="12.5" customHeight="1">
+    <row r="78" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="32"/>
       <c r="C78" s="2"/>
@@ -5941,7 +5953,7 @@
       <c r="AO78" s="2"/>
       <c r="AP78" s="2"/>
     </row>
-    <row r="79" spans="1:42" ht="12.5" customHeight="1">
+    <row r="79" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="32"/>
       <c r="C79" s="2"/>
@@ -5985,7 +5997,7 @@
       <c r="AO79" s="2"/>
       <c r="AP79" s="2"/>
     </row>
-    <row r="80" spans="1:42" ht="12.5" customHeight="1">
+    <row r="80" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="32"/>
       <c r="C80" s="2"/>
@@ -6029,7 +6041,7 @@
       <c r="AO80" s="2"/>
       <c r="AP80" s="2"/>
     </row>
-    <row r="81" spans="1:42" ht="12.5" customHeight="1">
+    <row r="81" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="32"/>
       <c r="C81" s="2"/>
@@ -6073,7 +6085,7 @@
       <c r="AO81" s="2"/>
       <c r="AP81" s="2"/>
     </row>
-    <row r="82" spans="1:42" ht="12.5" customHeight="1">
+    <row r="82" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="32"/>
       <c r="C82" s="2"/>
@@ -6117,7 +6129,7 @@
       <c r="AO82" s="2"/>
       <c r="AP82" s="2"/>
     </row>
-    <row r="83" spans="1:42" ht="12.5" customHeight="1">
+    <row r="83" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="32"/>
       <c r="C83" s="2"/>
@@ -6161,7 +6173,7 @@
       <c r="AO83" s="2"/>
       <c r="AP83" s="2"/>
     </row>
-    <row r="84" spans="1:42" ht="12.5" customHeight="1">
+    <row r="84" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="32"/>
       <c r="C84" s="2"/>
@@ -6205,7 +6217,7 @@
       <c r="AO84" s="2"/>
       <c r="AP84" s="2"/>
     </row>
-    <row r="85" spans="1:42" ht="12.5" customHeight="1">
+    <row r="85" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="32"/>
       <c r="C85" s="2"/>
@@ -6249,7 +6261,7 @@
       <c r="AO85" s="2"/>
       <c r="AP85" s="2"/>
     </row>
-    <row r="86" spans="1:42" ht="12.5" customHeight="1">
+    <row r="86" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="32"/>
       <c r="C86" s="2"/>
@@ -6293,7 +6305,7 @@
       <c r="AO86" s="2"/>
       <c r="AP86" s="2"/>
     </row>
-    <row r="87" spans="1:42" ht="12.5" customHeight="1">
+    <row r="87" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="32"/>
       <c r="C87" s="2"/>
@@ -6337,7 +6349,7 @@
       <c r="AO87" s="2"/>
       <c r="AP87" s="2"/>
     </row>
-    <row r="88" spans="1:42" ht="12.5" customHeight="1">
+    <row r="88" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="32"/>
       <c r="C88" s="2"/>
@@ -6381,7 +6393,7 @@
       <c r="AO88" s="2"/>
       <c r="AP88" s="2"/>
     </row>
-    <row r="89" spans="1:42" ht="12.5" customHeight="1">
+    <row r="89" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -6459,18 +6471,18 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.3984375" defaultRowHeight="12.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" style="33" customWidth="1"/>
-    <col min="3" max="24" width="12.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="33" customWidth="1"/>
+    <col min="3" max="24" width="12.1640625" style="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" customWidth="1"/>
-    <col min="26" max="26" width="10.59765625" style="1" customWidth="1"/>
-    <col min="27" max="40" width="12.3984375" style="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.3984375" style="1"/>
+    <col min="26" max="26" width="10.6640625" style="1" customWidth="1"/>
+    <col min="27" max="40" width="12.33203125" style="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="20" customHeight="1">
+    <row r="1" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
         <v>59</v>
       </c>
@@ -6478,14 +6490,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="2" spans="1:40" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="30"/>
       <c r="X2" s="14"/>
     </row>
-    <row r="3" spans="1:40" ht="50" customHeight="1">
+    <row r="3" spans="1:40" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="49" t="s">
         <v>51</v>
@@ -6535,7 +6547,7 @@
       </c>
       <c r="X3" s="100"/>
     </row>
-    <row r="4" spans="1:40" ht="44.25" customHeight="1">
+    <row r="4" spans="1:40" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="29" t="s">
@@ -6606,7 +6618,7 @@
       </c>
       <c r="Y4" s="17"/>
     </row>
-    <row r="5" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="5" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="71" t="s">
         <v>1</v>
       </c>
@@ -6696,7 +6708,7 @@
       <c r="AM5" s="8"/>
       <c r="AN5" s="8"/>
     </row>
-    <row r="6" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="6" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>23</v>
       </c>
@@ -6786,7 +6798,7 @@
       <c r="AM6" s="8"/>
       <c r="AN6" s="8"/>
     </row>
-    <row r="7" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="7" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
         <v>26</v>
       </c>
@@ -6876,7 +6888,7 @@
       <c r="AM7" s="8"/>
       <c r="AN7" s="8"/>
     </row>
-    <row r="8" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="8" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
         <v>25</v>
       </c>
@@ -6966,7 +6978,7 @@
       <c r="AM8" s="8"/>
       <c r="AN8" s="8"/>
     </row>
-    <row r="9" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="9" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
         <v>24</v>
       </c>
@@ -7056,7 +7068,7 @@
       <c r="AM9" s="8"/>
       <c r="AN9" s="8"/>
     </row>
-    <row r="10" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="10" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>19</v>
       </c>
@@ -7146,7 +7158,7 @@
       <c r="AM10" s="8"/>
       <c r="AN10" s="8"/>
     </row>
-    <row r="11" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="11" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>3</v>
       </c>
@@ -7236,7 +7248,7 @@
       <c r="AM11" s="8"/>
       <c r="AN11" s="8"/>
     </row>
-    <row r="12" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="12" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>27</v>
       </c>
@@ -7326,7 +7338,7 @@
       <c r="AM12" s="8"/>
       <c r="AN12" s="8"/>
     </row>
-    <row r="13" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="13" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>11</v>
       </c>
@@ -7416,7 +7428,7 @@
       <c r="AM13" s="8"/>
       <c r="AN13" s="8"/>
     </row>
-    <row r="14" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="14" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>28</v>
       </c>
@@ -7506,7 +7518,7 @@
       <c r="AM14" s="8"/>
       <c r="AN14" s="8"/>
     </row>
-    <row r="15" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="15" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>18</v>
       </c>
@@ -7596,7 +7608,7 @@
       <c r="AM15" s="8"/>
       <c r="AN15" s="8"/>
     </row>
-    <row r="16" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="16" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>20</v>
       </c>
@@ -7686,7 +7698,7 @@
       <c r="AM16" s="8"/>
       <c r="AN16" s="8"/>
     </row>
-    <row r="17" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="17" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>12</v>
       </c>
@@ -7776,7 +7788,7 @@
       <c r="AM17" s="8"/>
       <c r="AN17" s="8"/>
     </row>
-    <row r="18" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="18" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
         <v>13</v>
       </c>
@@ -7866,7 +7878,7 @@
       <c r="AM18" s="8"/>
       <c r="AN18" s="8"/>
     </row>
-    <row r="19" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="19" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
         <v>16</v>
       </c>
@@ -7956,7 +7968,7 @@
       <c r="AM19" s="8"/>
       <c r="AN19" s="8"/>
     </row>
-    <row r="20" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="20" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
         <v>2</v>
       </c>
@@ -8046,7 +8058,7 @@
       <c r="AM20" s="8"/>
       <c r="AN20" s="8"/>
     </row>
-    <row r="21" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="21" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
         <v>21</v>
       </c>
@@ -8136,7 +8148,7 @@
       <c r="AM21" s="8"/>
       <c r="AN21" s="8"/>
     </row>
-    <row r="22" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="22" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37" t="s">
         <v>9</v>
       </c>
@@ -8226,7 +8238,7 @@
       <c r="AM22" s="8"/>
       <c r="AN22" s="8"/>
     </row>
-    <row r="23" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="23" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="37" t="s">
         <v>14</v>
       </c>
@@ -8316,7 +8328,7 @@
       <c r="AM23" s="8"/>
       <c r="AN23" s="8"/>
     </row>
-    <row r="24" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="24" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="37" t="s">
         <v>30</v>
       </c>
@@ -8406,7 +8418,7 @@
       <c r="AM24" s="8"/>
       <c r="AN24" s="8"/>
     </row>
-    <row r="25" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="25" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37" t="s">
         <v>31</v>
       </c>
@@ -8496,7 +8508,7 @@
       <c r="AM25" s="8"/>
       <c r="AN25" s="8"/>
     </row>
-    <row r="26" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="26" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="37" t="s">
         <v>32</v>
       </c>
@@ -8586,7 +8598,7 @@
       <c r="AM26" s="8"/>
       <c r="AN26" s="8"/>
     </row>
-    <row r="27" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="27" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="37" t="s">
         <v>15</v>
       </c>
@@ -8676,7 +8688,7 @@
       <c r="AM27" s="8"/>
       <c r="AN27" s="8"/>
     </row>
-    <row r="28" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="28" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="37" t="s">
         <v>17</v>
       </c>
@@ -8766,7 +8778,7 @@
       <c r="AM28" s="8"/>
       <c r="AN28" s="8"/>
     </row>
-    <row r="29" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="29" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="37" t="s">
         <v>22</v>
       </c>
@@ -8856,7 +8868,7 @@
       <c r="AM29" s="8"/>
       <c r="AN29" s="8"/>
     </row>
-    <row r="30" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="30" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="37" t="s">
         <v>4</v>
       </c>
@@ -8946,7 +8958,7 @@
       <c r="AM30" s="8"/>
       <c r="AN30" s="8"/>
     </row>
-    <row r="31" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="31" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37" t="s">
         <v>5</v>
       </c>
@@ -9036,7 +9048,7 @@
       <c r="AM31" s="8"/>
       <c r="AN31" s="8"/>
     </row>
-    <row r="32" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="32" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="37" t="s">
         <v>6</v>
       </c>
@@ -9126,7 +9138,7 @@
       <c r="AM32" s="8"/>
       <c r="AN32" s="8"/>
     </row>
-    <row r="33" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="33" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="37" t="s">
         <v>7</v>
       </c>
@@ -9216,7 +9228,7 @@
       <c r="AM33" s="8"/>
       <c r="AN33" s="8"/>
     </row>
-    <row r="34" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="34" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="37" t="s">
         <v>8</v>
       </c>
@@ -9306,7 +9318,7 @@
       <c r="AM34" s="8"/>
       <c r="AN34" s="8"/>
     </row>
-    <row r="35" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="35" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="37" t="s">
         <v>10</v>
       </c>
@@ -9396,7 +9408,7 @@
       <c r="AM35" s="8"/>
       <c r="AN35" s="8"/>
     </row>
-    <row r="36" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="36" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="34" t="s">
         <v>29</v>
       </c>
@@ -9486,7 +9498,7 @@
       <c r="AM36" s="8"/>
       <c r="AN36" s="8"/>
     </row>
-    <row r="37" spans="1:40" s="9" customFormat="1" ht="6" customHeight="1">
+    <row r="37" spans="1:40" s="9" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="78"/>
       <c r="C37" s="42"/>
       <c r="D37" s="79"/>
@@ -9527,7 +9539,7 @@
       <c r="AM37" s="8"/>
       <c r="AN37" s="8"/>
     </row>
-    <row r="38" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="38" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="95" t="s">
         <v>69</v>
       </c>
@@ -9571,7 +9583,7 @@
       <c r="AM38" s="8"/>
       <c r="AN38" s="8"/>
     </row>
-    <row r="39" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="39" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="82" t="s">
         <v>42</v>
       </c>
@@ -9615,7 +9627,7 @@
       <c r="AM39" s="8"/>
       <c r="AN39" s="8"/>
     </row>
-    <row r="40" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="40" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="97" t="s">
         <v>67</v>
       </c>
@@ -9659,7 +9671,7 @@
       <c r="AM40" s="8"/>
       <c r="AN40" s="8"/>
     </row>
-    <row r="41" spans="1:40" ht="12.75" customHeight="1">
+    <row r="41" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
         <v>49</v>
       </c>
@@ -9703,7 +9715,7 @@
       <c r="AM41" s="2"/>
       <c r="AN41" s="2"/>
     </row>
-    <row r="42" spans="1:40" ht="12.75" customHeight="1">
+    <row r="42" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="24" t="s">
         <v>50</v>
       </c>
@@ -9747,7 +9759,7 @@
       <c r="AM42" s="2"/>
       <c r="AN42" s="2"/>
     </row>
-    <row r="43" spans="1:40" ht="12.75" customHeight="1">
+    <row r="43" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="86" t="s">
         <v>65</v>
       </c>
@@ -9787,7 +9799,7 @@
       <c r="AM43" s="2"/>
       <c r="AN43" s="2"/>
     </row>
-    <row r="44" spans="1:40" ht="12.75" customHeight="1">
+    <row r="44" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="86" t="s">
         <v>40</v>
       </c>
@@ -9831,7 +9843,7 @@
       <c r="AM44" s="2"/>
       <c r="AN44" s="2"/>
     </row>
-    <row r="45" spans="1:40" ht="12.5" customHeight="1">
+    <row r="45" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="86"/>
       <c r="B45" s="32"/>
       <c r="C45" s="2"/>
@@ -9873,7 +9885,7 @@
       <c r="AM45" s="2"/>
       <c r="AN45" s="2"/>
     </row>
-    <row r="46" spans="1:40" ht="12.5" customHeight="1">
+    <row r="46" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="90" t="s">
         <v>41</v>
       </c>
@@ -9917,7 +9929,7 @@
       <c r="AM46" s="2"/>
       <c r="AN46" s="2"/>
     </row>
-    <row r="47" spans="1:40" ht="12.5" customHeight="1">
+    <row r="47" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="32"/>
       <c r="C47" s="2"/>
@@ -9959,7 +9971,7 @@
       <c r="AM47" s="2"/>
       <c r="AN47" s="2"/>
     </row>
-    <row r="48" spans="1:40" ht="12.5" customHeight="1">
+    <row r="48" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="32"/>
       <c r="C48" s="2"/>
@@ -10001,7 +10013,7 @@
       <c r="AM48" s="2"/>
       <c r="AN48" s="2"/>
     </row>
-    <row r="49" spans="1:40" ht="12.5" customHeight="1">
+    <row r="49" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="32"/>
       <c r="C49" s="2"/>
@@ -10043,7 +10055,7 @@
       <c r="AM49" s="2"/>
       <c r="AN49" s="2"/>
     </row>
-    <row r="50" spans="1:40" ht="12.5" customHeight="1">
+    <row r="50" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="32"/>
       <c r="C50" s="2"/>
@@ -10085,7 +10097,7 @@
       <c r="AM50" s="2"/>
       <c r="AN50" s="2"/>
     </row>
-    <row r="51" spans="1:40" ht="12.5" customHeight="1">
+    <row r="51" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="32"/>
       <c r="C51" s="2"/>
@@ -10127,7 +10139,7 @@
       <c r="AM51" s="2"/>
       <c r="AN51" s="2"/>
     </row>
-    <row r="52" spans="1:40" ht="12.5" customHeight="1">
+    <row r="52" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="32"/>
       <c r="C52" s="2"/>
@@ -10169,7 +10181,7 @@
       <c r="AM52" s="2"/>
       <c r="AN52" s="2"/>
     </row>
-    <row r="53" spans="1:40" ht="12.5" customHeight="1">
+    <row r="53" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="32"/>
       <c r="C53" s="2"/>
@@ -10211,7 +10223,7 @@
       <c r="AM53" s="2"/>
       <c r="AN53" s="2"/>
     </row>
-    <row r="54" spans="1:40" ht="12.5" customHeight="1">
+    <row r="54" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="32"/>
       <c r="C54" s="2"/>
@@ -10253,7 +10265,7 @@
       <c r="AM54" s="2"/>
       <c r="AN54" s="2"/>
     </row>
-    <row r="55" spans="1:40" ht="12.5" customHeight="1">
+    <row r="55" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="32"/>
       <c r="C55" s="2"/>
@@ -10295,7 +10307,7 @@
       <c r="AM55" s="2"/>
       <c r="AN55" s="2"/>
     </row>
-    <row r="56" spans="1:40" ht="12.5" customHeight="1">
+    <row r="56" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="32"/>
       <c r="C56" s="2"/>
@@ -10337,7 +10349,7 @@
       <c r="AM56" s="2"/>
       <c r="AN56" s="2"/>
     </row>
-    <row r="57" spans="1:40" ht="12.5" customHeight="1">
+    <row r="57" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="32"/>
       <c r="C57" s="2"/>
@@ -10379,7 +10391,7 @@
       <c r="AM57" s="2"/>
       <c r="AN57" s="2"/>
     </row>
-    <row r="58" spans="1:40" ht="12.5" customHeight="1">
+    <row r="58" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="32"/>
       <c r="C58" s="2"/>
@@ -10421,7 +10433,7 @@
       <c r="AM58" s="2"/>
       <c r="AN58" s="2"/>
     </row>
-    <row r="59" spans="1:40" ht="12.5" customHeight="1">
+    <row r="59" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="32"/>
       <c r="C59" s="2"/>
@@ -10463,7 +10475,7 @@
       <c r="AM59" s="2"/>
       <c r="AN59" s="2"/>
     </row>
-    <row r="60" spans="1:40" ht="12.5" customHeight="1">
+    <row r="60" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="32"/>
       <c r="C60" s="2"/>
@@ -10505,7 +10517,7 @@
       <c r="AM60" s="2"/>
       <c r="AN60" s="2"/>
     </row>
-    <row r="61" spans="1:40" ht="12.5" customHeight="1">
+    <row r="61" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="32"/>
       <c r="C61" s="2"/>
@@ -10547,7 +10559,7 @@
       <c r="AM61" s="2"/>
       <c r="AN61" s="2"/>
     </row>
-    <row r="62" spans="1:40" ht="12.5" customHeight="1">
+    <row r="62" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="32"/>
       <c r="C62" s="2"/>
@@ -10589,7 +10601,7 @@
       <c r="AM62" s="2"/>
       <c r="AN62" s="2"/>
     </row>
-    <row r="63" spans="1:40" ht="12.5" customHeight="1">
+    <row r="63" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="32"/>
       <c r="C63" s="2"/>
@@ -10631,7 +10643,7 @@
       <c r="AM63" s="2"/>
       <c r="AN63" s="2"/>
     </row>
-    <row r="64" spans="1:40" ht="12.5" customHeight="1">
+    <row r="64" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="32"/>
       <c r="C64" s="2"/>
@@ -10673,7 +10685,7 @@
       <c r="AM64" s="2"/>
       <c r="AN64" s="2"/>
     </row>
-    <row r="65" spans="1:40" ht="12.5" customHeight="1">
+    <row r="65" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="32"/>
       <c r="C65" s="2"/>
@@ -10715,7 +10727,7 @@
       <c r="AM65" s="2"/>
       <c r="AN65" s="2"/>
     </row>
-    <row r="66" spans="1:40" ht="12.5" customHeight="1">
+    <row r="66" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="32"/>
       <c r="C66" s="2"/>
@@ -10757,7 +10769,7 @@
       <c r="AM66" s="2"/>
       <c r="AN66" s="2"/>
     </row>
-    <row r="67" spans="1:40" ht="12.5" customHeight="1">
+    <row r="67" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="32"/>
       <c r="C67" s="2"/>
@@ -10799,7 +10811,7 @@
       <c r="AM67" s="2"/>
       <c r="AN67" s="2"/>
     </row>
-    <row r="68" spans="1:40" ht="12.5" customHeight="1">
+    <row r="68" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="32"/>
       <c r="C68" s="2"/>
@@ -10841,7 +10853,7 @@
       <c r="AM68" s="2"/>
       <c r="AN68" s="2"/>
     </row>
-    <row r="69" spans="1:40" ht="12.5" customHeight="1">
+    <row r="69" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="32"/>
       <c r="C69" s="2"/>
@@ -10883,7 +10895,7 @@
       <c r="AM69" s="2"/>
       <c r="AN69" s="2"/>
     </row>
-    <row r="70" spans="1:40" ht="12.5" customHeight="1">
+    <row r="70" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="32"/>
       <c r="C70" s="2"/>
@@ -10925,7 +10937,7 @@
       <c r="AM70" s="2"/>
       <c r="AN70" s="2"/>
     </row>
-    <row r="71" spans="1:40" ht="12.5" customHeight="1">
+    <row r="71" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="32"/>
       <c r="C71" s="2"/>
@@ -10967,7 +10979,7 @@
       <c r="AM71" s="2"/>
       <c r="AN71" s="2"/>
     </row>
-    <row r="72" spans="1:40" ht="12.5" customHeight="1">
+    <row r="72" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="32"/>
       <c r="C72" s="2"/>
@@ -11009,7 +11021,7 @@
       <c r="AM72" s="2"/>
       <c r="AN72" s="2"/>
     </row>
-    <row r="73" spans="1:40" ht="12.5" customHeight="1">
+    <row r="73" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="32"/>
       <c r="C73" s="2"/>
@@ -11051,7 +11063,7 @@
       <c r="AM73" s="2"/>
       <c r="AN73" s="2"/>
     </row>
-    <row r="74" spans="1:40" ht="12.5" customHeight="1">
+    <row r="74" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="32"/>
       <c r="C74" s="2"/>
@@ -11093,7 +11105,7 @@
       <c r="AM74" s="2"/>
       <c r="AN74" s="2"/>
     </row>
-    <row r="75" spans="1:40" ht="12.5" customHeight="1">
+    <row r="75" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="32"/>
       <c r="C75" s="2"/>
@@ -11135,7 +11147,7 @@
       <c r="AM75" s="2"/>
       <c r="AN75" s="2"/>
     </row>
-    <row r="76" spans="1:40" ht="12.5" customHeight="1">
+    <row r="76" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="32"/>
       <c r="C76" s="2"/>
@@ -11177,7 +11189,7 @@
       <c r="AM76" s="2"/>
       <c r="AN76" s="2"/>
     </row>
-    <row r="77" spans="1:40" ht="12.5" customHeight="1">
+    <row r="77" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="32"/>
       <c r="C77" s="2"/>
@@ -11219,7 +11231,7 @@
       <c r="AM77" s="2"/>
       <c r="AN77" s="2"/>
     </row>
-    <row r="78" spans="1:40" ht="12.5" customHeight="1">
+    <row r="78" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="32"/>
       <c r="C78" s="2"/>
@@ -11261,7 +11273,7 @@
       <c r="AM78" s="2"/>
       <c r="AN78" s="2"/>
     </row>
-    <row r="79" spans="1:40" ht="12.5" customHeight="1">
+    <row r="79" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="32"/>
       <c r="C79" s="2"/>
@@ -11303,7 +11315,7 @@
       <c r="AM79" s="2"/>
       <c r="AN79" s="2"/>
     </row>
-    <row r="80" spans="1:40" ht="12.5" customHeight="1">
+    <row r="80" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="32"/>
       <c r="C80" s="2"/>
@@ -11345,7 +11357,7 @@
       <c r="AM80" s="2"/>
       <c r="AN80" s="2"/>
     </row>
-    <row r="81" spans="1:40" ht="12.5" customHeight="1">
+    <row r="81" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="32"/>
       <c r="C81" s="2"/>
@@ -11387,7 +11399,7 @@
       <c r="AM81" s="2"/>
       <c r="AN81" s="2"/>
     </row>
-    <row r="82" spans="1:40" ht="12.5" customHeight="1">
+    <row r="82" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="32"/>
       <c r="C82" s="2"/>
@@ -11429,7 +11441,7 @@
       <c r="AM82" s="2"/>
       <c r="AN82" s="2"/>
     </row>
-    <row r="83" spans="1:40" ht="12.5" customHeight="1">
+    <row r="83" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="32"/>
       <c r="C83" s="2"/>
@@ -11471,7 +11483,7 @@
       <c r="AM83" s="2"/>
       <c r="AN83" s="2"/>
     </row>
-    <row r="84" spans="1:40" ht="12.5" customHeight="1">
+    <row r="84" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="32"/>
       <c r="C84" s="2"/>
@@ -11513,7 +11525,7 @@
       <c r="AM84" s="2"/>
       <c r="AN84" s="2"/>
     </row>
-    <row r="85" spans="1:40" ht="12.5" customHeight="1">
+    <row r="85" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="32"/>
       <c r="C85" s="2"/>
@@ -11555,7 +11567,7 @@
       <c r="AM85" s="2"/>
       <c r="AN85" s="2"/>
     </row>
-    <row r="86" spans="1:40" ht="12.5" customHeight="1">
+    <row r="86" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="32"/>
       <c r="C86" s="2"/>
@@ -11597,7 +11609,7 @@
       <c r="AM86" s="2"/>
       <c r="AN86" s="2"/>
     </row>
-    <row r="87" spans="1:40" ht="12.5" customHeight="1">
+    <row r="87" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="32"/>
       <c r="C87" s="2"/>
@@ -11639,7 +11651,7 @@
       <c r="AM87" s="2"/>
       <c r="AN87" s="2"/>
     </row>
-    <row r="88" spans="1:40" ht="12.5" customHeight="1">
+    <row r="88" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="32"/>
       <c r="C88" s="2"/>
@@ -11681,7 +11693,7 @@
       <c r="AM88" s="2"/>
       <c r="AN88" s="2"/>
     </row>
-    <row r="89" spans="1:40" ht="12.5" customHeight="1">
+    <row r="89" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="32"/>
       <c r="C89" s="2"/>
@@ -11723,7 +11735,7 @@
       <c r="AM89" s="2"/>
       <c r="AN89" s="2"/>
     </row>
-    <row r="90" spans="1:40" ht="12.5" customHeight="1">
+    <row r="90" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -11799,18 +11811,18 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.3984375" defaultRowHeight="12.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" style="33" customWidth="1"/>
-    <col min="3" max="24" width="12.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="33" customWidth="1"/>
+    <col min="3" max="24" width="12.1640625" style="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" customWidth="1"/>
-    <col min="26" max="26" width="10.59765625" style="1" customWidth="1"/>
-    <col min="27" max="40" width="12.3984375" style="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.3984375" style="1"/>
+    <col min="26" max="26" width="10.6640625" style="1" customWidth="1"/>
+    <col min="27" max="40" width="12.33203125" style="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="20" customHeight="1">
+    <row r="1" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
         <v>60</v>
       </c>
@@ -11818,14 +11830,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="2" spans="1:40" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="30"/>
       <c r="X2" s="14"/>
     </row>
-    <row r="3" spans="1:40" ht="50" customHeight="1">
+    <row r="3" spans="1:40" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="49" t="s">
         <v>51</v>
@@ -11875,7 +11887,7 @@
       </c>
       <c r="X3" s="100"/>
     </row>
-    <row r="4" spans="1:40" ht="44.25" customHeight="1">
+    <row r="4" spans="1:40" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="29" t="s">
@@ -11946,7 +11958,7 @@
       </c>
       <c r="Y4" s="11"/>
     </row>
-    <row r="5" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="5" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="71" t="s">
         <v>1</v>
       </c>
@@ -12036,7 +12048,7 @@
       <c r="AM5" s="8"/>
       <c r="AN5" s="8"/>
     </row>
-    <row r="6" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="6" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>23</v>
       </c>
@@ -12126,7 +12138,7 @@
       <c r="AM6" s="8"/>
       <c r="AN6" s="8"/>
     </row>
-    <row r="7" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="7" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
         <v>26</v>
       </c>
@@ -12216,7 +12228,7 @@
       <c r="AM7" s="8"/>
       <c r="AN7" s="8"/>
     </row>
-    <row r="8" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="8" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
         <v>25</v>
       </c>
@@ -12306,7 +12318,7 @@
       <c r="AM8" s="8"/>
       <c r="AN8" s="8"/>
     </row>
-    <row r="9" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="9" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
         <v>24</v>
       </c>
@@ -12396,7 +12408,7 @@
       <c r="AM9" s="8"/>
       <c r="AN9" s="8"/>
     </row>
-    <row r="10" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="10" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>19</v>
       </c>
@@ -12486,7 +12498,7 @@
       <c r="AM10" s="8"/>
       <c r="AN10" s="8"/>
     </row>
-    <row r="11" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="11" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>3</v>
       </c>
@@ -12576,7 +12588,7 @@
       <c r="AM11" s="8"/>
       <c r="AN11" s="8"/>
     </row>
-    <row r="12" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="12" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>27</v>
       </c>
@@ -12666,7 +12678,7 @@
       <c r="AM12" s="8"/>
       <c r="AN12" s="8"/>
     </row>
-    <row r="13" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="13" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>11</v>
       </c>
@@ -12756,7 +12768,7 @@
       <c r="AM13" s="8"/>
       <c r="AN13" s="8"/>
     </row>
-    <row r="14" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="14" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>28</v>
       </c>
@@ -12846,7 +12858,7 @@
       <c r="AM14" s="8"/>
       <c r="AN14" s="8"/>
     </row>
-    <row r="15" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="15" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>18</v>
       </c>
@@ -12936,7 +12948,7 @@
       <c r="AM15" s="8"/>
       <c r="AN15" s="8"/>
     </row>
-    <row r="16" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="16" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>20</v>
       </c>
@@ -13026,7 +13038,7 @@
       <c r="AM16" s="8"/>
       <c r="AN16" s="8"/>
     </row>
-    <row r="17" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="17" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>12</v>
       </c>
@@ -13116,7 +13128,7 @@
       <c r="AM17" s="8"/>
       <c r="AN17" s="8"/>
     </row>
-    <row r="18" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="18" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
         <v>13</v>
       </c>
@@ -13206,7 +13218,7 @@
       <c r="AM18" s="8"/>
       <c r="AN18" s="8"/>
     </row>
-    <row r="19" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="19" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
         <v>16</v>
       </c>
@@ -13296,7 +13308,7 @@
       <c r="AM19" s="8"/>
       <c r="AN19" s="8"/>
     </row>
-    <row r="20" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="20" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
         <v>2</v>
       </c>
@@ -13386,7 +13398,7 @@
       <c r="AM20" s="8"/>
       <c r="AN20" s="8"/>
     </row>
-    <row r="21" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="21" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
         <v>21</v>
       </c>
@@ -13476,7 +13488,7 @@
       <c r="AM21" s="8"/>
       <c r="AN21" s="8"/>
     </row>
-    <row r="22" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="22" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37" t="s">
         <v>9</v>
       </c>
@@ -13566,7 +13578,7 @@
       <c r="AM22" s="8"/>
       <c r="AN22" s="8"/>
     </row>
-    <row r="23" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="23" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="37" t="s">
         <v>14</v>
       </c>
@@ -13656,7 +13668,7 @@
       <c r="AM23" s="8"/>
       <c r="AN23" s="8"/>
     </row>
-    <row r="24" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="24" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="37" t="s">
         <v>30</v>
       </c>
@@ -13746,7 +13758,7 @@
       <c r="AM24" s="8"/>
       <c r="AN24" s="8"/>
     </row>
-    <row r="25" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="25" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37" t="s">
         <v>31</v>
       </c>
@@ -13836,7 +13848,7 @@
       <c r="AM25" s="8"/>
       <c r="AN25" s="8"/>
     </row>
-    <row r="26" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="26" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="37" t="s">
         <v>32</v>
       </c>
@@ -13926,7 +13938,7 @@
       <c r="AM26" s="8"/>
       <c r="AN26" s="8"/>
     </row>
-    <row r="27" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="27" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="37" t="s">
         <v>15</v>
       </c>
@@ -14016,7 +14028,7 @@
       <c r="AM27" s="8"/>
       <c r="AN27" s="8"/>
     </row>
-    <row r="28" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="28" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="37" t="s">
         <v>17</v>
       </c>
@@ -14106,7 +14118,7 @@
       <c r="AM28" s="8"/>
       <c r="AN28" s="8"/>
     </row>
-    <row r="29" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="29" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="37" t="s">
         <v>22</v>
       </c>
@@ -14196,7 +14208,7 @@
       <c r="AM29" s="8"/>
       <c r="AN29" s="8"/>
     </row>
-    <row r="30" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="30" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="37" t="s">
         <v>4</v>
       </c>
@@ -14286,7 +14298,7 @@
       <c r="AM30" s="8"/>
       <c r="AN30" s="8"/>
     </row>
-    <row r="31" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="31" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37" t="s">
         <v>5</v>
       </c>
@@ -14376,7 +14388,7 @@
       <c r="AM31" s="8"/>
       <c r="AN31" s="8"/>
     </row>
-    <row r="32" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="32" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="37" t="s">
         <v>6</v>
       </c>
@@ -14466,7 +14478,7 @@
       <c r="AM32" s="8"/>
       <c r="AN32" s="8"/>
     </row>
-    <row r="33" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="33" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="37" t="s">
         <v>7</v>
       </c>
@@ -14556,7 +14568,7 @@
       <c r="AM33" s="8"/>
       <c r="AN33" s="8"/>
     </row>
-    <row r="34" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="34" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="37" t="s">
         <v>8</v>
       </c>
@@ -14646,7 +14658,7 @@
       <c r="AM34" s="8"/>
       <c r="AN34" s="8"/>
     </row>
-    <row r="35" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="35" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="37" t="s">
         <v>10</v>
       </c>
@@ -14736,7 +14748,7 @@
       <c r="AM35" s="8"/>
       <c r="AN35" s="8"/>
     </row>
-    <row r="36" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="36" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="34" t="s">
         <v>29</v>
       </c>
@@ -14826,7 +14838,7 @@
       <c r="AM36" s="8"/>
       <c r="AN36" s="8"/>
     </row>
-    <row r="37" spans="1:40" s="9" customFormat="1" ht="6" customHeight="1">
+    <row r="37" spans="1:40" s="9" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="78"/>
       <c r="C37" s="42"/>
       <c r="D37" s="79"/>
@@ -14867,7 +14879,7 @@
       <c r="AM37" s="8"/>
       <c r="AN37" s="8"/>
     </row>
-    <row r="38" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="38" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="95" t="s">
         <v>69</v>
       </c>
@@ -14911,7 +14923,7 @@
       <c r="AM38" s="8"/>
       <c r="AN38" s="8"/>
     </row>
-    <row r="39" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="39" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="82" t="s">
         <v>42</v>
       </c>
@@ -14955,7 +14967,7 @@
       <c r="AM39" s="8"/>
       <c r="AN39" s="8"/>
     </row>
-    <row r="40" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="40" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="97" t="s">
         <v>67</v>
       </c>
@@ -14999,7 +15011,7 @@
       <c r="AM40" s="8"/>
       <c r="AN40" s="8"/>
     </row>
-    <row r="41" spans="1:40" ht="12.75" customHeight="1">
+    <row r="41" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
         <v>49</v>
       </c>
@@ -15043,7 +15055,7 @@
       <c r="AM41" s="2"/>
       <c r="AN41" s="2"/>
     </row>
-    <row r="42" spans="1:40" ht="12.75" customHeight="1">
+    <row r="42" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="24" t="s">
         <v>50</v>
       </c>
@@ -15087,7 +15099,7 @@
       <c r="AM42" s="2"/>
       <c r="AN42" s="2"/>
     </row>
-    <row r="43" spans="1:40" ht="12.75" customHeight="1">
+    <row r="43" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="86" t="s">
         <v>65</v>
       </c>
@@ -15127,7 +15139,7 @@
       <c r="AM43" s="2"/>
       <c r="AN43" s="2"/>
     </row>
-    <row r="44" spans="1:40" ht="12.75" customHeight="1">
+    <row r="44" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="86" t="s">
         <v>40</v>
       </c>
@@ -15167,7 +15179,7 @@
       <c r="AM44" s="2"/>
       <c r="AN44" s="2"/>
     </row>
-    <row r="45" spans="1:40" ht="12.75" customHeight="1">
+    <row r="45" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="86"/>
       <c r="B45" s="32"/>
       <c r="C45" s="2"/>
@@ -15209,7 +15221,7 @@
       <c r="AM45" s="2"/>
       <c r="AN45" s="2"/>
     </row>
-    <row r="46" spans="1:40" ht="12.5" customHeight="1">
+    <row r="46" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="90" t="s">
         <v>41</v>
       </c>
@@ -15253,7 +15265,7 @@
       <c r="AM46" s="2"/>
       <c r="AN46" s="2"/>
     </row>
-    <row r="47" spans="1:40" ht="12.5" customHeight="1">
+    <row r="47" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="32"/>
       <c r="C47" s="2"/>
@@ -15295,7 +15307,7 @@
       <c r="AM47" s="2"/>
       <c r="AN47" s="2"/>
     </row>
-    <row r="48" spans="1:40" ht="12.5" customHeight="1">
+    <row r="48" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="32"/>
       <c r="C48" s="2"/>
@@ -15337,7 +15349,7 @@
       <c r="AM48" s="2"/>
       <c r="AN48" s="2"/>
     </row>
-    <row r="49" spans="1:40" ht="12.5" customHeight="1">
+    <row r="49" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="32"/>
       <c r="C49" s="2"/>
@@ -15379,7 +15391,7 @@
       <c r="AM49" s="2"/>
       <c r="AN49" s="2"/>
     </row>
-    <row r="50" spans="1:40" ht="12.5" customHeight="1">
+    <row r="50" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="32"/>
       <c r="C50" s="2"/>
@@ -15421,7 +15433,7 @@
       <c r="AM50" s="2"/>
       <c r="AN50" s="2"/>
     </row>
-    <row r="51" spans="1:40" ht="12.5" customHeight="1">
+    <row r="51" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="32"/>
       <c r="C51" s="2"/>
@@ -15463,7 +15475,7 @@
       <c r="AM51" s="2"/>
       <c r="AN51" s="2"/>
     </row>
-    <row r="52" spans="1:40" ht="12.5" customHeight="1">
+    <row r="52" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="32"/>
       <c r="C52" s="2"/>
@@ -15505,7 +15517,7 @@
       <c r="AM52" s="2"/>
       <c r="AN52" s="2"/>
     </row>
-    <row r="53" spans="1:40" ht="12.5" customHeight="1">
+    <row r="53" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="32"/>
       <c r="C53" s="2"/>
@@ -15547,7 +15559,7 @@
       <c r="AM53" s="2"/>
       <c r="AN53" s="2"/>
     </row>
-    <row r="54" spans="1:40" ht="12.5" customHeight="1">
+    <row r="54" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="32"/>
       <c r="C54" s="2"/>
@@ -15589,7 +15601,7 @@
       <c r="AM54" s="2"/>
       <c r="AN54" s="2"/>
     </row>
-    <row r="55" spans="1:40" ht="12.5" customHeight="1">
+    <row r="55" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="32"/>
       <c r="C55" s="2"/>
@@ -15631,7 +15643,7 @@
       <c r="AM55" s="2"/>
       <c r="AN55" s="2"/>
     </row>
-    <row r="56" spans="1:40" ht="12.5" customHeight="1">
+    <row r="56" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="32"/>
       <c r="C56" s="2"/>
@@ -15673,7 +15685,7 @@
       <c r="AM56" s="2"/>
       <c r="AN56" s="2"/>
     </row>
-    <row r="57" spans="1:40" ht="12.5" customHeight="1">
+    <row r="57" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="32"/>
       <c r="C57" s="2"/>
@@ -15715,7 +15727,7 @@
       <c r="AM57" s="2"/>
       <c r="AN57" s="2"/>
     </row>
-    <row r="58" spans="1:40" ht="12.5" customHeight="1">
+    <row r="58" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="32"/>
       <c r="C58" s="2"/>
@@ -15757,7 +15769,7 @@
       <c r="AM58" s="2"/>
       <c r="AN58" s="2"/>
     </row>
-    <row r="59" spans="1:40" ht="12.5" customHeight="1">
+    <row r="59" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="32"/>
       <c r="C59" s="2"/>
@@ -15799,7 +15811,7 @@
       <c r="AM59" s="2"/>
       <c r="AN59" s="2"/>
     </row>
-    <row r="60" spans="1:40" ht="12.5" customHeight="1">
+    <row r="60" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="32"/>
       <c r="C60" s="2"/>
@@ -15841,7 +15853,7 @@
       <c r="AM60" s="2"/>
       <c r="AN60" s="2"/>
     </row>
-    <row r="61" spans="1:40" ht="12.5" customHeight="1">
+    <row r="61" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="32"/>
       <c r="C61" s="2"/>
@@ -15883,7 +15895,7 @@
       <c r="AM61" s="2"/>
       <c r="AN61" s="2"/>
     </row>
-    <row r="62" spans="1:40" ht="12.5" customHeight="1">
+    <row r="62" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="32"/>
       <c r="C62" s="2"/>
@@ -15925,7 +15937,7 @@
       <c r="AM62" s="2"/>
       <c r="AN62" s="2"/>
     </row>
-    <row r="63" spans="1:40" ht="12.5" customHeight="1">
+    <row r="63" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="32"/>
       <c r="C63" s="2"/>
@@ -15967,7 +15979,7 @@
       <c r="AM63" s="2"/>
       <c r="AN63" s="2"/>
     </row>
-    <row r="64" spans="1:40" ht="12.5" customHeight="1">
+    <row r="64" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="32"/>
       <c r="C64" s="2"/>
@@ -16009,7 +16021,7 @@
       <c r="AM64" s="2"/>
       <c r="AN64" s="2"/>
     </row>
-    <row r="65" spans="1:40" ht="12.5" customHeight="1">
+    <row r="65" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="32"/>
       <c r="C65" s="2"/>
@@ -16051,7 +16063,7 @@
       <c r="AM65" s="2"/>
       <c r="AN65" s="2"/>
     </row>
-    <row r="66" spans="1:40" ht="12.5" customHeight="1">
+    <row r="66" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="32"/>
       <c r="C66" s="2"/>
@@ -16093,7 +16105,7 @@
       <c r="AM66" s="2"/>
       <c r="AN66" s="2"/>
     </row>
-    <row r="67" spans="1:40" ht="12.5" customHeight="1">
+    <row r="67" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="32"/>
       <c r="C67" s="2"/>
@@ -16135,7 +16147,7 @@
       <c r="AM67" s="2"/>
       <c r="AN67" s="2"/>
     </row>
-    <row r="68" spans="1:40" ht="12.5" customHeight="1">
+    <row r="68" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="32"/>
       <c r="C68" s="2"/>
@@ -16177,7 +16189,7 @@
       <c r="AM68" s="2"/>
       <c r="AN68" s="2"/>
     </row>
-    <row r="69" spans="1:40" ht="12.5" customHeight="1">
+    <row r="69" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="32"/>
       <c r="C69" s="2"/>
@@ -16219,7 +16231,7 @@
       <c r="AM69" s="2"/>
       <c r="AN69" s="2"/>
     </row>
-    <row r="70" spans="1:40" ht="12.5" customHeight="1">
+    <row r="70" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="32"/>
       <c r="C70" s="2"/>
@@ -16261,7 +16273,7 @@
       <c r="AM70" s="2"/>
       <c r="AN70" s="2"/>
     </row>
-    <row r="71" spans="1:40" ht="12.5" customHeight="1">
+    <row r="71" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="32"/>
       <c r="C71" s="2"/>
@@ -16303,7 +16315,7 @@
       <c r="AM71" s="2"/>
       <c r="AN71" s="2"/>
     </row>
-    <row r="72" spans="1:40" ht="12.5" customHeight="1">
+    <row r="72" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="32"/>
       <c r="C72" s="2"/>
@@ -16345,7 +16357,7 @@
       <c r="AM72" s="2"/>
       <c r="AN72" s="2"/>
     </row>
-    <row r="73" spans="1:40" ht="12.5" customHeight="1">
+    <row r="73" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="32"/>
       <c r="C73" s="2"/>
@@ -16387,7 +16399,7 @@
       <c r="AM73" s="2"/>
       <c r="AN73" s="2"/>
     </row>
-    <row r="74" spans="1:40" ht="12.5" customHeight="1">
+    <row r="74" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="32"/>
       <c r="C74" s="2"/>
@@ -16429,7 +16441,7 @@
       <c r="AM74" s="2"/>
       <c r="AN74" s="2"/>
     </row>
-    <row r="75" spans="1:40" ht="12.5" customHeight="1">
+    <row r="75" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="32"/>
       <c r="C75" s="2"/>
@@ -16471,7 +16483,7 @@
       <c r="AM75" s="2"/>
       <c r="AN75" s="2"/>
     </row>
-    <row r="76" spans="1:40" ht="12.5" customHeight="1">
+    <row r="76" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="32"/>
       <c r="C76" s="2"/>
@@ -16513,7 +16525,7 @@
       <c r="AM76" s="2"/>
       <c r="AN76" s="2"/>
     </row>
-    <row r="77" spans="1:40" ht="12.5" customHeight="1">
+    <row r="77" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="32"/>
       <c r="C77" s="2"/>
@@ -16555,7 +16567,7 @@
       <c r="AM77" s="2"/>
       <c r="AN77" s="2"/>
     </row>
-    <row r="78" spans="1:40" ht="12.5" customHeight="1">
+    <row r="78" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="32"/>
       <c r="C78" s="2"/>
@@ -16597,7 +16609,7 @@
       <c r="AM78" s="2"/>
       <c r="AN78" s="2"/>
     </row>
-    <row r="79" spans="1:40" ht="12.5" customHeight="1">
+    <row r="79" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="32"/>
       <c r="C79" s="2"/>
@@ -16639,7 +16651,7 @@
       <c r="AM79" s="2"/>
       <c r="AN79" s="2"/>
     </row>
-    <row r="80" spans="1:40" ht="12.5" customHeight="1">
+    <row r="80" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="32"/>
       <c r="C80" s="2"/>
@@ -16681,7 +16693,7 @@
       <c r="AM80" s="2"/>
       <c r="AN80" s="2"/>
     </row>
-    <row r="81" spans="1:40" ht="12.5" customHeight="1">
+    <row r="81" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="32"/>
       <c r="C81" s="2"/>
@@ -16723,7 +16735,7 @@
       <c r="AM81" s="2"/>
       <c r="AN81" s="2"/>
     </row>
-    <row r="82" spans="1:40" ht="12.5" customHeight="1">
+    <row r="82" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="32"/>
       <c r="C82" s="2"/>
@@ -16765,7 +16777,7 @@
       <c r="AM82" s="2"/>
       <c r="AN82" s="2"/>
     </row>
-    <row r="83" spans="1:40" ht="12.5" customHeight="1">
+    <row r="83" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="32"/>
       <c r="C83" s="2"/>
@@ -16807,7 +16819,7 @@
       <c r="AM83" s="2"/>
       <c r="AN83" s="2"/>
     </row>
-    <row r="84" spans="1:40" ht="12.5" customHeight="1">
+    <row r="84" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="32"/>
       <c r="C84" s="2"/>
@@ -16849,7 +16861,7 @@
       <c r="AM84" s="2"/>
       <c r="AN84" s="2"/>
     </row>
-    <row r="85" spans="1:40" ht="12.5" customHeight="1">
+    <row r="85" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="32"/>
       <c r="C85" s="2"/>
@@ -16891,7 +16903,7 @@
       <c r="AM85" s="2"/>
       <c r="AN85" s="2"/>
     </row>
-    <row r="86" spans="1:40" ht="12.5" customHeight="1">
+    <row r="86" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="32"/>
       <c r="C86" s="2"/>
@@ -16933,7 +16945,7 @@
       <c r="AM86" s="2"/>
       <c r="AN86" s="2"/>
     </row>
-    <row r="87" spans="1:40" ht="12.5" customHeight="1">
+    <row r="87" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="32"/>
       <c r="C87" s="2"/>
@@ -16975,7 +16987,7 @@
       <c r="AM87" s="2"/>
       <c r="AN87" s="2"/>
     </row>
-    <row r="88" spans="1:40" ht="12.5" customHeight="1">
+    <row r="88" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="32"/>
       <c r="C88" s="2"/>
@@ -17017,7 +17029,7 @@
       <c r="AM88" s="2"/>
       <c r="AN88" s="2"/>
     </row>
-    <row r="89" spans="1:40" ht="12.5" customHeight="1">
+    <row r="89" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="32"/>
       <c r="C89" s="2"/>
@@ -17059,7 +17071,7 @@
       <c r="AM89" s="2"/>
       <c r="AN89" s="2"/>
     </row>
-    <row r="90" spans="1:40" ht="12.5" customHeight="1">
+    <row r="90" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="32"/>
       <c r="C90" s="2"/>
@@ -17101,7 +17113,7 @@
       <c r="AM90" s="2"/>
       <c r="AN90" s="2"/>
     </row>
-    <row r="91" spans="1:40" ht="12.5" customHeight="1">
+    <row r="91" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -17177,19 +17189,19 @@
       <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.3984375" defaultRowHeight="12.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" style="33" customWidth="1"/>
-    <col min="3" max="25" width="12.19921875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="9.3984375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="12.19921875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="10.59765625" style="1" customWidth="1"/>
-    <col min="29" max="42" width="12.3984375" style="1" customWidth="1"/>
-    <col min="43" max="16384" width="9.3984375" style="1"/>
+    <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="33" customWidth="1"/>
+    <col min="3" max="25" width="12.1640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9.33203125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.1640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10.6640625" style="1" customWidth="1"/>
+    <col min="29" max="42" width="12.33203125" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="20" customHeight="1">
+    <row r="1" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
         <v>62</v>
       </c>
@@ -17197,7 +17209,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="2" spans="1:29" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
         <v>52</v>
       </c>
@@ -17206,7 +17218,7 @@
       <c r="O2" s="13"/>
       <c r="X2" s="14"/>
     </row>
-    <row r="3" spans="1:29" ht="50" customHeight="1">
+    <row r="3" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="50" t="s">
         <v>51</v>
@@ -17256,7 +17268,7 @@
       </c>
       <c r="X3" s="100"/>
     </row>
-    <row r="4" spans="1:29" s="9" customFormat="1" ht="44.25" customHeight="1">
+    <row r="4" spans="1:29" s="9" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="29" t="s">
@@ -17326,7 +17338,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="5" spans="1:29" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="71" t="s">
         <v>1</v>
       </c>
@@ -17405,7 +17417,7 @@
       <c r="AB5" s="8"/>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="6" spans="1:29" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>23</v>
       </c>
@@ -17484,7 +17496,7 @@
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
     </row>
-    <row r="7" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="7" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
         <v>26</v>
       </c>
@@ -17563,7 +17575,7 @@
       <c r="AB7" s="8"/>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="8" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
         <v>25</v>
       </c>
@@ -17642,7 +17654,7 @@
       <c r="AB8" s="8"/>
       <c r="AC8" s="8"/>
     </row>
-    <row r="9" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="9" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
         <v>24</v>
       </c>
@@ -17721,7 +17733,7 @@
       <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="10" spans="1:29" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>19</v>
       </c>
@@ -17800,7 +17812,7 @@
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
     </row>
-    <row r="11" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="11" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>3</v>
       </c>
@@ -17879,7 +17891,7 @@
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="12" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>27</v>
       </c>
@@ -17958,7 +17970,7 @@
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
     </row>
-    <row r="13" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="13" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>11</v>
       </c>
@@ -18037,7 +18049,7 @@
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="14" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>28</v>
       </c>
@@ -18116,7 +18128,7 @@
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
     </row>
-    <row r="15" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="15" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>18</v>
       </c>
@@ -18195,7 +18207,7 @@
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="16" spans="1:29" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>20</v>
       </c>
@@ -18274,7 +18286,7 @@
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
     </row>
-    <row r="17" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="17" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>12</v>
       </c>
@@ -18353,7 +18365,7 @@
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="18" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
         <v>13</v>
       </c>
@@ -18432,7 +18444,7 @@
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
     </row>
-    <row r="19" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="19" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
         <v>16</v>
       </c>
@@ -18511,7 +18523,7 @@
       <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="20" spans="1:29" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
         <v>2</v>
       </c>
@@ -18590,7 +18602,7 @@
       <c r="AB20" s="8"/>
       <c r="AC20" s="8"/>
     </row>
-    <row r="21" spans="1:29" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="21" spans="1:29" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
         <v>21</v>
       </c>
@@ -18669,7 +18681,7 @@
       <c r="AB21" s="8"/>
       <c r="AC21" s="8"/>
     </row>
-    <row r="22" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="22" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37" t="s">
         <v>9</v>
       </c>
@@ -18748,7 +18760,7 @@
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
     </row>
-    <row r="23" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="23" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="37" t="s">
         <v>14</v>
       </c>
@@ -18827,7 +18839,7 @@
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="24" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="37" t="s">
         <v>30</v>
       </c>
@@ -18906,7 +18918,7 @@
       <c r="AB24" s="8"/>
       <c r="AC24" s="8"/>
     </row>
-    <row r="25" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="25" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37" t="s">
         <v>31</v>
       </c>
@@ -18985,7 +18997,7 @@
       <c r="AB25" s="8"/>
       <c r="AC25" s="8"/>
     </row>
-    <row r="26" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="26" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="37" t="s">
         <v>32</v>
       </c>
@@ -19064,7 +19076,7 @@
       <c r="AB26" s="8"/>
       <c r="AC26" s="8"/>
     </row>
-    <row r="27" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="27" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="37" t="s">
         <v>15</v>
       </c>
@@ -19143,7 +19155,7 @@
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
     </row>
-    <row r="28" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="28" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="37" t="s">
         <v>17</v>
       </c>
@@ -19222,7 +19234,7 @@
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
     </row>
-    <row r="29" spans="1:29" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="29" spans="1:29" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="37" t="s">
         <v>22</v>
       </c>
@@ -19301,7 +19313,7 @@
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
     </row>
-    <row r="30" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="30" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="37" t="s">
         <v>4</v>
       </c>
@@ -19380,7 +19392,7 @@
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
     </row>
-    <row r="31" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="31" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37" t="s">
         <v>5</v>
       </c>
@@ -19459,7 +19471,7 @@
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
     </row>
-    <row r="32" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="32" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="37" t="s">
         <v>6</v>
       </c>
@@ -19538,7 +19550,7 @@
       <c r="AB32" s="8"/>
       <c r="AC32" s="8"/>
     </row>
-    <row r="33" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="33" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="37" t="s">
         <v>7</v>
       </c>
@@ -19617,7 +19629,7 @@
       <c r="AB33" s="8"/>
       <c r="AC33" s="8"/>
     </row>
-    <row r="34" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="34" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="37" t="s">
         <v>8</v>
       </c>
@@ -19696,7 +19708,7 @@
       <c r="AB34" s="8"/>
       <c r="AC34" s="8"/>
     </row>
-    <row r="35" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="35" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="37" t="s">
         <v>10</v>
       </c>
@@ -19775,7 +19787,7 @@
       <c r="AB35" s="8"/>
       <c r="AC35" s="8"/>
     </row>
-    <row r="36" spans="1:42" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="36" spans="1:42" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="34" t="s">
         <v>29</v>
       </c>
@@ -19854,7 +19866,7 @@
       <c r="AB36" s="8"/>
       <c r="AC36" s="8"/>
     </row>
-    <row r="37" spans="1:42" s="9" customFormat="1" ht="6" customHeight="1">
+    <row r="37" spans="1:42" s="9" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="37"/>
       <c r="B37" s="73"/>
       <c r="C37" s="74"/>
@@ -19885,7 +19897,7 @@
       <c r="AB37" s="8"/>
       <c r="AC37" s="8"/>
     </row>
-    <row r="38" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="38" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="96" t="s">
         <v>69</v>
       </c>
@@ -19918,7 +19930,7 @@
       <c r="AB38" s="8"/>
       <c r="AC38" s="8"/>
     </row>
-    <row r="39" spans="1:42" ht="12.5" customHeight="1">
+    <row r="39" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="82" t="s">
         <v>42</v>
       </c>
@@ -19964,7 +19976,7 @@
       <c r="AO39" s="2"/>
       <c r="AP39" s="2"/>
     </row>
-    <row r="40" spans="1:42" ht="12.5" customHeight="1">
+    <row r="40" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="94" t="s">
         <v>67</v>
       </c>
@@ -20010,7 +20022,7 @@
       <c r="AO40" s="2"/>
       <c r="AP40" s="2"/>
     </row>
-    <row r="41" spans="1:42" ht="12.5" customHeight="1">
+    <row r="41" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
         <v>49</v>
       </c>
@@ -20050,7 +20062,7 @@
       <c r="AO41" s="2"/>
       <c r="AP41" s="2"/>
     </row>
-    <row r="42" spans="1:42" ht="12.5" customHeight="1">
+    <row r="42" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="24" t="s">
         <v>50</v>
       </c>
@@ -20090,7 +20102,7 @@
       <c r="AO42" s="2"/>
       <c r="AP42" s="2"/>
     </row>
-    <row r="43" spans="1:42" ht="12.5" customHeight="1">
+    <row r="43" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="86" t="s">
         <v>65</v>
       </c>
@@ -20136,7 +20148,7 @@
       <c r="AO43" s="2"/>
       <c r="AP43" s="2"/>
     </row>
-    <row r="44" spans="1:42" ht="12.5" customHeight="1">
+    <row r="44" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="86" t="s">
         <v>40</v>
       </c>
@@ -20182,7 +20194,7 @@
       <c r="AO44" s="2"/>
       <c r="AP44" s="2"/>
     </row>
-    <row r="45" spans="1:42" ht="12.5" customHeight="1">
+    <row r="45" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="86"/>
       <c r="B45" s="32"/>
       <c r="C45" s="2"/>
@@ -20226,7 +20238,7 @@
       <c r="AO45" s="2"/>
       <c r="AP45" s="2"/>
     </row>
-    <row r="46" spans="1:42" ht="12.5" customHeight="1">
+    <row r="46" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="90" t="s">
         <v>41</v>
       </c>
@@ -20272,7 +20284,7 @@
       <c r="AO46" s="2"/>
       <c r="AP46" s="2"/>
     </row>
-    <row r="47" spans="1:42" ht="12.5" customHeight="1">
+    <row r="47" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="32"/>
       <c r="C47" s="2"/>
@@ -20316,7 +20328,7 @@
       <c r="AO47" s="2"/>
       <c r="AP47" s="2"/>
     </row>
-    <row r="48" spans="1:42" ht="12.5" customHeight="1">
+    <row r="48" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="32"/>
       <c r="C48" s="2"/>
@@ -20360,7 +20372,7 @@
       <c r="AO48" s="2"/>
       <c r="AP48" s="2"/>
     </row>
-    <row r="49" spans="1:42" ht="12.5" customHeight="1">
+    <row r="49" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="32"/>
       <c r="C49" s="2"/>
@@ -20404,7 +20416,7 @@
       <c r="AO49" s="2"/>
       <c r="AP49" s="2"/>
     </row>
-    <row r="50" spans="1:42" ht="12.5" customHeight="1">
+    <row r="50" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="32"/>
       <c r="C50" s="2"/>
@@ -20448,7 +20460,7 @@
       <c r="AO50" s="2"/>
       <c r="AP50" s="2"/>
     </row>
-    <row r="51" spans="1:42" ht="12.5" customHeight="1">
+    <row r="51" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="32"/>
       <c r="C51" s="2"/>
@@ -20492,7 +20504,7 @@
       <c r="AO51" s="2"/>
       <c r="AP51" s="2"/>
     </row>
-    <row r="52" spans="1:42" ht="12.5" customHeight="1">
+    <row r="52" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="32"/>
       <c r="C52" s="2"/>
@@ -20536,7 +20548,7 @@
       <c r="AO52" s="2"/>
       <c r="AP52" s="2"/>
     </row>
-    <row r="53" spans="1:42" ht="12.5" customHeight="1">
+    <row r="53" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="32"/>
       <c r="C53" s="2"/>
@@ -20580,7 +20592,7 @@
       <c r="AO53" s="2"/>
       <c r="AP53" s="2"/>
     </row>
-    <row r="54" spans="1:42" ht="12.5" customHeight="1">
+    <row r="54" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="32"/>
       <c r="C54" s="2"/>
@@ -20624,7 +20636,7 @@
       <c r="AO54" s="2"/>
       <c r="AP54" s="2"/>
     </row>
-    <row r="55" spans="1:42" ht="12.5" customHeight="1">
+    <row r="55" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="32"/>
       <c r="C55" s="2"/>
@@ -20668,7 +20680,7 @@
       <c r="AO55" s="2"/>
       <c r="AP55" s="2"/>
     </row>
-    <row r="56" spans="1:42" ht="12.5" customHeight="1">
+    <row r="56" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="32"/>
       <c r="C56" s="2"/>
@@ -20712,7 +20724,7 @@
       <c r="AO56" s="2"/>
       <c r="AP56" s="2"/>
     </row>
-    <row r="57" spans="1:42" ht="12.5" customHeight="1">
+    <row r="57" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="32"/>
       <c r="C57" s="2"/>
@@ -20756,7 +20768,7 @@
       <c r="AO57" s="2"/>
       <c r="AP57" s="2"/>
     </row>
-    <row r="58" spans="1:42" ht="12.5" customHeight="1">
+    <row r="58" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="32"/>
       <c r="C58" s="2"/>
@@ -20800,7 +20812,7 @@
       <c r="AO58" s="2"/>
       <c r="AP58" s="2"/>
     </row>
-    <row r="59" spans="1:42" ht="12.5" customHeight="1">
+    <row r="59" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="32"/>
       <c r="C59" s="2"/>
@@ -20844,7 +20856,7 @@
       <c r="AO59" s="2"/>
       <c r="AP59" s="2"/>
     </row>
-    <row r="60" spans="1:42" ht="12.5" customHeight="1">
+    <row r="60" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="32"/>
       <c r="C60" s="2"/>
@@ -20888,7 +20900,7 @@
       <c r="AO60" s="2"/>
       <c r="AP60" s="2"/>
     </row>
-    <row r="61" spans="1:42" ht="12.5" customHeight="1">
+    <row r="61" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="32"/>
       <c r="C61" s="2"/>
@@ -20932,7 +20944,7 @@
       <c r="AO61" s="2"/>
       <c r="AP61" s="2"/>
     </row>
-    <row r="62" spans="1:42" ht="12.5" customHeight="1">
+    <row r="62" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="32"/>
       <c r="C62" s="2"/>
@@ -20976,7 +20988,7 @@
       <c r="AO62" s="2"/>
       <c r="AP62" s="2"/>
     </row>
-    <row r="63" spans="1:42" ht="12.5" customHeight="1">
+    <row r="63" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="32"/>
       <c r="C63" s="2"/>
@@ -21020,7 +21032,7 @@
       <c r="AO63" s="2"/>
       <c r="AP63" s="2"/>
     </row>
-    <row r="64" spans="1:42" ht="12.5" customHeight="1">
+    <row r="64" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="32"/>
       <c r="C64" s="2"/>
@@ -21064,7 +21076,7 @@
       <c r="AO64" s="2"/>
       <c r="AP64" s="2"/>
     </row>
-    <row r="65" spans="1:42" ht="12.5" customHeight="1">
+    <row r="65" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="32"/>
       <c r="C65" s="2"/>
@@ -21108,7 +21120,7 @@
       <c r="AO65" s="2"/>
       <c r="AP65" s="2"/>
     </row>
-    <row r="66" spans="1:42" ht="12.5" customHeight="1">
+    <row r="66" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="32"/>
       <c r="C66" s="2"/>
@@ -21152,7 +21164,7 @@
       <c r="AO66" s="2"/>
       <c r="AP66" s="2"/>
     </row>
-    <row r="67" spans="1:42" ht="12.5" customHeight="1">
+    <row r="67" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="32"/>
       <c r="C67" s="2"/>
@@ -21196,7 +21208,7 @@
       <c r="AO67" s="2"/>
       <c r="AP67" s="2"/>
     </row>
-    <row r="68" spans="1:42" ht="12.5" customHeight="1">
+    <row r="68" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="32"/>
       <c r="C68" s="2"/>
@@ -21240,7 +21252,7 @@
       <c r="AO68" s="2"/>
       <c r="AP68" s="2"/>
     </row>
-    <row r="69" spans="1:42" ht="12.5" customHeight="1">
+    <row r="69" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="32"/>
       <c r="C69" s="2"/>
@@ -21284,7 +21296,7 @@
       <c r="AO69" s="2"/>
       <c r="AP69" s="2"/>
     </row>
-    <row r="70" spans="1:42" ht="12.5" customHeight="1">
+    <row r="70" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="32"/>
       <c r="C70" s="2"/>
@@ -21328,7 +21340,7 @@
       <c r="AO70" s="2"/>
       <c r="AP70" s="2"/>
     </row>
-    <row r="71" spans="1:42" ht="12.5" customHeight="1">
+    <row r="71" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="32"/>
       <c r="C71" s="2"/>
@@ -21372,7 +21384,7 @@
       <c r="AO71" s="2"/>
       <c r="AP71" s="2"/>
     </row>
-    <row r="72" spans="1:42" ht="12.5" customHeight="1">
+    <row r="72" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="32"/>
       <c r="C72" s="2"/>
@@ -21416,7 +21428,7 @@
       <c r="AO72" s="2"/>
       <c r="AP72" s="2"/>
     </row>
-    <row r="73" spans="1:42" ht="12.5" customHeight="1">
+    <row r="73" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="32"/>
       <c r="C73" s="2"/>
@@ -21460,7 +21472,7 @@
       <c r="AO73" s="2"/>
       <c r="AP73" s="2"/>
     </row>
-    <row r="74" spans="1:42" ht="12.5" customHeight="1">
+    <row r="74" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="32"/>
       <c r="C74" s="2"/>
@@ -21504,7 +21516,7 @@
       <c r="AO74" s="2"/>
       <c r="AP74" s="2"/>
     </row>
-    <row r="75" spans="1:42" ht="12.5" customHeight="1">
+    <row r="75" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="32"/>
       <c r="C75" s="2"/>
@@ -21548,7 +21560,7 @@
       <c r="AO75" s="2"/>
       <c r="AP75" s="2"/>
     </row>
-    <row r="76" spans="1:42" ht="12.5" customHeight="1">
+    <row r="76" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="32"/>
       <c r="C76" s="2"/>
@@ -21592,7 +21604,7 @@
       <c r="AO76" s="2"/>
       <c r="AP76" s="2"/>
     </row>
-    <row r="77" spans="1:42" ht="12.5" customHeight="1">
+    <row r="77" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="32"/>
       <c r="C77" s="2"/>
@@ -21636,7 +21648,7 @@
       <c r="AO77" s="2"/>
       <c r="AP77" s="2"/>
     </row>
-    <row r="78" spans="1:42" ht="12.5" customHeight="1">
+    <row r="78" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="32"/>
       <c r="C78" s="2"/>
@@ -21680,7 +21692,7 @@
       <c r="AO78" s="2"/>
       <c r="AP78" s="2"/>
     </row>
-    <row r="79" spans="1:42" ht="12.5" customHeight="1">
+    <row r="79" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="32"/>
       <c r="C79" s="2"/>
@@ -21724,7 +21736,7 @@
       <c r="AO79" s="2"/>
       <c r="AP79" s="2"/>
     </row>
-    <row r="80" spans="1:42" ht="12.5" customHeight="1">
+    <row r="80" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="32"/>
       <c r="C80" s="2"/>
@@ -21768,7 +21780,7 @@
       <c r="AO80" s="2"/>
       <c r="AP80" s="2"/>
     </row>
-    <row r="81" spans="1:42" ht="12.5" customHeight="1">
+    <row r="81" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="32"/>
       <c r="C81" s="2"/>
@@ -21812,7 +21824,7 @@
       <c r="AO81" s="2"/>
       <c r="AP81" s="2"/>
     </row>
-    <row r="82" spans="1:42" ht="12.5" customHeight="1">
+    <row r="82" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="32"/>
       <c r="C82" s="2"/>
@@ -21856,7 +21868,7 @@
       <c r="AO82" s="2"/>
       <c r="AP82" s="2"/>
     </row>
-    <row r="83" spans="1:42" ht="12.5" customHeight="1">
+    <row r="83" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="32"/>
       <c r="C83" s="2"/>
@@ -21900,7 +21912,7 @@
       <c r="AO83" s="2"/>
       <c r="AP83" s="2"/>
     </row>
-    <row r="84" spans="1:42" ht="12.5" customHeight="1">
+    <row r="84" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="32"/>
       <c r="C84" s="2"/>
@@ -21944,7 +21956,7 @@
       <c r="AO84" s="2"/>
       <c r="AP84" s="2"/>
     </row>
-    <row r="85" spans="1:42" ht="12.5" customHeight="1">
+    <row r="85" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="32"/>
       <c r="C85" s="2"/>
@@ -21988,7 +22000,7 @@
       <c r="AO85" s="2"/>
       <c r="AP85" s="2"/>
     </row>
-    <row r="86" spans="1:42" ht="12.5" customHeight="1">
+    <row r="86" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="32"/>
       <c r="C86" s="2"/>
@@ -22032,7 +22044,7 @@
       <c r="AO86" s="2"/>
       <c r="AP86" s="2"/>
     </row>
-    <row r="87" spans="1:42" ht="12.5" customHeight="1">
+    <row r="87" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="32"/>
       <c r="C87" s="2"/>
@@ -22076,7 +22088,7 @@
       <c r="AO87" s="2"/>
       <c r="AP87" s="2"/>
     </row>
-    <row r="88" spans="1:42" ht="12.5" customHeight="1">
+    <row r="88" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="32"/>
       <c r="C88" s="2"/>
@@ -22120,7 +22132,7 @@
       <c r="AO88" s="2"/>
       <c r="AP88" s="2"/>
     </row>
-    <row r="89" spans="1:42" ht="12.5" customHeight="1">
+    <row r="89" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -22198,19 +22210,19 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.3984375" defaultRowHeight="12.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" style="33" customWidth="1"/>
-    <col min="3" max="25" width="12.19921875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="9.3984375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="12.19921875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="10.59765625" style="1" customWidth="1"/>
-    <col min="29" max="42" width="12.3984375" style="1" customWidth="1"/>
-    <col min="43" max="16384" width="9.3984375" style="1"/>
+    <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="33" customWidth="1"/>
+    <col min="3" max="25" width="12.1640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9.33203125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.1640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10.6640625" style="1" customWidth="1"/>
+    <col min="29" max="42" width="12.33203125" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="20" customHeight="1">
+    <row r="1" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
         <v>71</v>
       </c>
@@ -22218,7 +22230,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="2" spans="1:29" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
         <v>52</v>
       </c>
@@ -22227,7 +22239,7 @@
       <c r="O2" s="13"/>
       <c r="X2" s="14"/>
     </row>
-    <row r="3" spans="1:29" ht="50" customHeight="1">
+    <row r="3" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="50" t="s">
         <v>51</v>
@@ -22277,7 +22289,7 @@
       </c>
       <c r="X3" s="100"/>
     </row>
-    <row r="4" spans="1:29" s="9" customFormat="1" ht="44.25" customHeight="1">
+    <row r="4" spans="1:29" s="9" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="29" t="s">
@@ -22347,7 +22359,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="5" spans="1:29" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="71" t="s">
         <v>1</v>
       </c>
@@ -22426,7 +22438,7 @@
       <c r="AB5" s="8"/>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="6" spans="1:29" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>23</v>
       </c>
@@ -22505,7 +22517,7 @@
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
     </row>
-    <row r="7" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="7" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
         <v>26</v>
       </c>
@@ -22584,7 +22596,7 @@
       <c r="AB7" s="8"/>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="8" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
         <v>25</v>
       </c>
@@ -22663,7 +22675,7 @@
       <c r="AB8" s="8"/>
       <c r="AC8" s="8"/>
     </row>
-    <row r="9" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="9" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
         <v>24</v>
       </c>
@@ -22742,7 +22754,7 @@
       <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="10" spans="1:29" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>19</v>
       </c>
@@ -22821,7 +22833,7 @@
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
     </row>
-    <row r="11" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="11" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>3</v>
       </c>
@@ -22900,7 +22912,7 @@
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="12" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>27</v>
       </c>
@@ -22979,7 +22991,7 @@
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
     </row>
-    <row r="13" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="13" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>11</v>
       </c>
@@ -23058,7 +23070,7 @@
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="14" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>28</v>
       </c>
@@ -23137,7 +23149,7 @@
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
     </row>
-    <row r="15" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="15" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>18</v>
       </c>
@@ -23216,7 +23228,7 @@
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="16" spans="1:29" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>20</v>
       </c>
@@ -23295,7 +23307,7 @@
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
     </row>
-    <row r="17" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="17" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>12</v>
       </c>
@@ -23374,7 +23386,7 @@
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="18" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
         <v>13</v>
       </c>
@@ -23453,7 +23465,7 @@
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
     </row>
-    <row r="19" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="19" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
         <v>16</v>
       </c>
@@ -23532,7 +23544,7 @@
       <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="20" spans="1:29" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
         <v>2</v>
       </c>
@@ -23611,7 +23623,7 @@
       <c r="AB20" s="8"/>
       <c r="AC20" s="8"/>
     </row>
-    <row r="21" spans="1:29" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="21" spans="1:29" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
         <v>21</v>
       </c>
@@ -23690,7 +23702,7 @@
       <c r="AB21" s="8"/>
       <c r="AC21" s="8"/>
     </row>
-    <row r="22" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="22" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37" t="s">
         <v>9</v>
       </c>
@@ -23769,7 +23781,7 @@
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
     </row>
-    <row r="23" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="23" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="37" t="s">
         <v>14</v>
       </c>
@@ -23848,7 +23860,7 @@
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="24" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="37" t="s">
         <v>30</v>
       </c>
@@ -23927,7 +23939,7 @@
       <c r="AB24" s="8"/>
       <c r="AC24" s="8"/>
     </row>
-    <row r="25" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="25" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37" t="s">
         <v>31</v>
       </c>
@@ -24006,7 +24018,7 @@
       <c r="AB25" s="8"/>
       <c r="AC25" s="8"/>
     </row>
-    <row r="26" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="26" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="37" t="s">
         <v>32</v>
       </c>
@@ -24085,7 +24097,7 @@
       <c r="AB26" s="8"/>
       <c r="AC26" s="8"/>
     </row>
-    <row r="27" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="27" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="37" t="s">
         <v>15</v>
       </c>
@@ -24164,7 +24176,7 @@
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
     </row>
-    <row r="28" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="28" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="37" t="s">
         <v>17</v>
       </c>
@@ -24243,7 +24255,7 @@
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
     </row>
-    <row r="29" spans="1:29" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="29" spans="1:29" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="37" t="s">
         <v>22</v>
       </c>
@@ -24322,7 +24334,7 @@
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
     </row>
-    <row r="30" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="30" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="37" t="s">
         <v>4</v>
       </c>
@@ -24401,7 +24413,7 @@
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
     </row>
-    <row r="31" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="31" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37" t="s">
         <v>5</v>
       </c>
@@ -24480,7 +24492,7 @@
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
     </row>
-    <row r="32" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="32" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="37" t="s">
         <v>6</v>
       </c>
@@ -24559,7 +24571,7 @@
       <c r="AB32" s="8"/>
       <c r="AC32" s="8"/>
     </row>
-    <row r="33" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="33" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="37" t="s">
         <v>7</v>
       </c>
@@ -24638,7 +24650,7 @@
       <c r="AB33" s="8"/>
       <c r="AC33" s="8"/>
     </row>
-    <row r="34" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="34" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="37" t="s">
         <v>8</v>
       </c>
@@ -24717,7 +24729,7 @@
       <c r="AB34" s="8"/>
       <c r="AC34" s="8"/>
     </row>
-    <row r="35" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="35" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="37" t="s">
         <v>10</v>
       </c>
@@ -24796,7 +24808,7 @@
       <c r="AB35" s="8"/>
       <c r="AC35" s="8"/>
     </row>
-    <row r="36" spans="1:42" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="36" spans="1:42" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="34" t="s">
         <v>29</v>
       </c>
@@ -24875,7 +24887,7 @@
       <c r="AB36" s="8"/>
       <c r="AC36" s="8"/>
     </row>
-    <row r="37" spans="1:42" s="9" customFormat="1" ht="6" customHeight="1">
+    <row r="37" spans="1:42" s="9" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="73"/>
       <c r="C37" s="74"/>
       <c r="D37" s="75"/>
@@ -24905,7 +24917,7 @@
       <c r="AB37" s="8"/>
       <c r="AC37" s="8"/>
     </row>
-    <row r="38" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="38" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="95" t="s">
         <v>69</v>
       </c>
@@ -24938,7 +24950,7 @@
       <c r="AB38" s="8"/>
       <c r="AC38" s="8"/>
     </row>
-    <row r="39" spans="1:42" ht="12.5" customHeight="1">
+    <row r="39" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="82" t="s">
         <v>42</v>
       </c>
@@ -24984,7 +24996,7 @@
       <c r="AO39" s="2"/>
       <c r="AP39" s="2"/>
     </row>
-    <row r="40" spans="1:42" ht="12.5" customHeight="1">
+    <row r="40" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="94" t="s">
         <v>67</v>
       </c>
@@ -25030,7 +25042,7 @@
       <c r="AO40" s="2"/>
       <c r="AP40" s="2"/>
     </row>
-    <row r="41" spans="1:42" ht="12.5" customHeight="1">
+    <row r="41" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="92" t="s">
         <v>70</v>
       </c>
@@ -25076,7 +25088,7 @@
       <c r="AO41" s="2"/>
       <c r="AP41" s="2"/>
     </row>
-    <row r="42" spans="1:42" ht="12.5" customHeight="1">
+    <row r="42" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="24" t="s">
         <v>49</v>
       </c>
@@ -25122,7 +25134,7 @@
       <c r="AO42" s="2"/>
       <c r="AP42" s="2"/>
     </row>
-    <row r="43" spans="1:42" ht="12.5" customHeight="1">
+    <row r="43" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="24" t="s">
         <v>50</v>
       </c>
@@ -25168,7 +25180,7 @@
       <c r="AO43" s="2"/>
       <c r="AP43" s="2"/>
     </row>
-    <row r="44" spans="1:42" ht="12.5" customHeight="1">
+    <row r="44" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="86" t="s">
         <v>66</v>
       </c>
@@ -25208,7 +25220,7 @@
       <c r="AO44" s="2"/>
       <c r="AP44" s="2"/>
     </row>
-    <row r="45" spans="1:42" ht="12.5" customHeight="1">
+    <row r="45" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="86" t="s">
         <v>40</v>
       </c>
@@ -25248,7 +25260,7 @@
       <c r="AO45" s="2"/>
       <c r="AP45" s="2"/>
     </row>
-    <row r="46" spans="1:42" ht="12.5" customHeight="1">
+    <row r="46" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="86"/>
       <c r="B46" s="89"/>
       <c r="C46" s="87"/>
@@ -25286,7 +25298,7 @@
       <c r="AO46" s="2"/>
       <c r="AP46" s="2"/>
     </row>
-    <row r="47" spans="1:42" ht="12.5" customHeight="1">
+    <row r="47" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="90" t="s">
         <v>41</v>
       </c>
@@ -25332,7 +25344,7 @@
       <c r="AO47" s="2"/>
       <c r="AP47" s="2"/>
     </row>
-    <row r="48" spans="1:42" ht="12.5" customHeight="1">
+    <row r="48" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="32"/>
       <c r="C48" s="2"/>
@@ -25376,7 +25388,7 @@
       <c r="AO48" s="2"/>
       <c r="AP48" s="2"/>
     </row>
-    <row r="49" spans="1:42" ht="12.5" customHeight="1">
+    <row r="49" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="32"/>
       <c r="C49" s="2"/>
@@ -25420,7 +25432,7 @@
       <c r="AO49" s="2"/>
       <c r="AP49" s="2"/>
     </row>
-    <row r="50" spans="1:42" ht="12.5" customHeight="1">
+    <row r="50" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="32"/>
       <c r="C50" s="2"/>
@@ -25464,7 +25476,7 @@
       <c r="AO50" s="2"/>
       <c r="AP50" s="2"/>
     </row>
-    <row r="51" spans="1:42" ht="12.5" customHeight="1">
+    <row r="51" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="32"/>
       <c r="C51" s="2"/>
@@ -25508,7 +25520,7 @@
       <c r="AO51" s="2"/>
       <c r="AP51" s="2"/>
     </row>
-    <row r="52" spans="1:42" ht="12.5" customHeight="1">
+    <row r="52" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="32"/>
       <c r="C52" s="2"/>
@@ -25552,7 +25564,7 @@
       <c r="AO52" s="2"/>
       <c r="AP52" s="2"/>
     </row>
-    <row r="53" spans="1:42" ht="12.5" customHeight="1">
+    <row r="53" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="32"/>
       <c r="C53" s="2"/>
@@ -25596,7 +25608,7 @@
       <c r="AO53" s="2"/>
       <c r="AP53" s="2"/>
     </row>
-    <row r="54" spans="1:42" ht="12.5" customHeight="1">
+    <row r="54" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="32"/>
       <c r="C54" s="2"/>
@@ -25640,7 +25652,7 @@
       <c r="AO54" s="2"/>
       <c r="AP54" s="2"/>
     </row>
-    <row r="55" spans="1:42" ht="12.5" customHeight="1">
+    <row r="55" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="32"/>
       <c r="C55" s="2"/>
@@ -25684,7 +25696,7 @@
       <c r="AO55" s="2"/>
       <c r="AP55" s="2"/>
     </row>
-    <row r="56" spans="1:42" ht="12.5" customHeight="1">
+    <row r="56" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="32"/>
       <c r="C56" s="2"/>
@@ -25728,7 +25740,7 @@
       <c r="AO56" s="2"/>
       <c r="AP56" s="2"/>
     </row>
-    <row r="57" spans="1:42" ht="12.5" customHeight="1">
+    <row r="57" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="32"/>
       <c r="C57" s="2"/>
@@ -25772,7 +25784,7 @@
       <c r="AO57" s="2"/>
       <c r="AP57" s="2"/>
     </row>
-    <row r="58" spans="1:42" ht="12.5" customHeight="1">
+    <row r="58" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="32"/>
       <c r="C58" s="2"/>
@@ -25816,7 +25828,7 @@
       <c r="AO58" s="2"/>
       <c r="AP58" s="2"/>
     </row>
-    <row r="59" spans="1:42" ht="12.5" customHeight="1">
+    <row r="59" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="32"/>
       <c r="C59" s="2"/>
@@ -25860,7 +25872,7 @@
       <c r="AO59" s="2"/>
       <c r="AP59" s="2"/>
     </row>
-    <row r="60" spans="1:42" ht="12.5" customHeight="1">
+    <row r="60" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="32"/>
       <c r="C60" s="2"/>
@@ -25904,7 +25916,7 @@
       <c r="AO60" s="2"/>
       <c r="AP60" s="2"/>
     </row>
-    <row r="61" spans="1:42" ht="12.5" customHeight="1">
+    <row r="61" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="32"/>
       <c r="C61" s="2"/>
@@ -25948,7 +25960,7 @@
       <c r="AO61" s="2"/>
       <c r="AP61" s="2"/>
     </row>
-    <row r="62" spans="1:42" ht="12.5" customHeight="1">
+    <row r="62" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="32"/>
       <c r="C62" s="2"/>
@@ -25992,7 +26004,7 @@
       <c r="AO62" s="2"/>
       <c r="AP62" s="2"/>
     </row>
-    <row r="63" spans="1:42" ht="12.5" customHeight="1">
+    <row r="63" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="32"/>
       <c r="C63" s="2"/>
@@ -26036,7 +26048,7 @@
       <c r="AO63" s="2"/>
       <c r="AP63" s="2"/>
     </row>
-    <row r="64" spans="1:42" ht="12.5" customHeight="1">
+    <row r="64" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="32"/>
       <c r="C64" s="2"/>
@@ -26080,7 +26092,7 @@
       <c r="AO64" s="2"/>
       <c r="AP64" s="2"/>
     </row>
-    <row r="65" spans="1:42" ht="12.5" customHeight="1">
+    <row r="65" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="32"/>
       <c r="C65" s="2"/>
@@ -26124,7 +26136,7 @@
       <c r="AO65" s="2"/>
       <c r="AP65" s="2"/>
     </row>
-    <row r="66" spans="1:42" ht="12.5" customHeight="1">
+    <row r="66" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="32"/>
       <c r="C66" s="2"/>
@@ -26168,7 +26180,7 @@
       <c r="AO66" s="2"/>
       <c r="AP66" s="2"/>
     </row>
-    <row r="67" spans="1:42" ht="12.5" customHeight="1">
+    <row r="67" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="32"/>
       <c r="C67" s="2"/>
@@ -26212,7 +26224,7 @@
       <c r="AO67" s="2"/>
       <c r="AP67" s="2"/>
     </row>
-    <row r="68" spans="1:42" ht="12.5" customHeight="1">
+    <row r="68" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="32"/>
       <c r="C68" s="2"/>
@@ -26256,7 +26268,7 @@
       <c r="AO68" s="2"/>
       <c r="AP68" s="2"/>
     </row>
-    <row r="69" spans="1:42" ht="12.5" customHeight="1">
+    <row r="69" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="32"/>
       <c r="C69" s="2"/>
@@ -26300,7 +26312,7 @@
       <c r="AO69" s="2"/>
       <c r="AP69" s="2"/>
     </row>
-    <row r="70" spans="1:42" ht="12.5" customHeight="1">
+    <row r="70" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="32"/>
       <c r="C70" s="2"/>
@@ -26344,7 +26356,7 @@
       <c r="AO70" s="2"/>
       <c r="AP70" s="2"/>
     </row>
-    <row r="71" spans="1:42" ht="12.5" customHeight="1">
+    <row r="71" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="32"/>
       <c r="C71" s="2"/>
@@ -26388,7 +26400,7 @@
       <c r="AO71" s="2"/>
       <c r="AP71" s="2"/>
     </row>
-    <row r="72" spans="1:42" ht="12.5" customHeight="1">
+    <row r="72" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="32"/>
       <c r="C72" s="2"/>
@@ -26432,7 +26444,7 @@
       <c r="AO72" s="2"/>
       <c r="AP72" s="2"/>
     </row>
-    <row r="73" spans="1:42" ht="12.5" customHeight="1">
+    <row r="73" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="32"/>
       <c r="C73" s="2"/>
@@ -26476,7 +26488,7 @@
       <c r="AO73" s="2"/>
       <c r="AP73" s="2"/>
     </row>
-    <row r="74" spans="1:42" ht="12.5" customHeight="1">
+    <row r="74" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="32"/>
       <c r="C74" s="2"/>
@@ -26520,7 +26532,7 @@
       <c r="AO74" s="2"/>
       <c r="AP74" s="2"/>
     </row>
-    <row r="75" spans="1:42" ht="12.5" customHeight="1">
+    <row r="75" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="32"/>
       <c r="C75" s="2"/>
@@ -26564,7 +26576,7 @@
       <c r="AO75" s="2"/>
       <c r="AP75" s="2"/>
     </row>
-    <row r="76" spans="1:42" ht="12.5" customHeight="1">
+    <row r="76" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="32"/>
       <c r="C76" s="2"/>
@@ -26608,7 +26620,7 @@
       <c r="AO76" s="2"/>
       <c r="AP76" s="2"/>
     </row>
-    <row r="77" spans="1:42" ht="12.5" customHeight="1">
+    <row r="77" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="32"/>
       <c r="C77" s="2"/>
@@ -26652,7 +26664,7 @@
       <c r="AO77" s="2"/>
       <c r="AP77" s="2"/>
     </row>
-    <row r="78" spans="1:42" ht="12.5" customHeight="1">
+    <row r="78" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="32"/>
       <c r="C78" s="2"/>
@@ -26696,7 +26708,7 @@
       <c r="AO78" s="2"/>
       <c r="AP78" s="2"/>
     </row>
-    <row r="79" spans="1:42" ht="12.5" customHeight="1">
+    <row r="79" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="32"/>
       <c r="C79" s="2"/>
@@ -26740,7 +26752,7 @@
       <c r="AO79" s="2"/>
       <c r="AP79" s="2"/>
     </row>
-    <row r="80" spans="1:42" ht="12.5" customHeight="1">
+    <row r="80" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="32"/>
       <c r="C80" s="2"/>
@@ -26784,7 +26796,7 @@
       <c r="AO80" s="2"/>
       <c r="AP80" s="2"/>
     </row>
-    <row r="81" spans="1:42" ht="12.5" customHeight="1">
+    <row r="81" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="32"/>
       <c r="C81" s="2"/>
@@ -26828,7 +26840,7 @@
       <c r="AO81" s="2"/>
       <c r="AP81" s="2"/>
     </row>
-    <row r="82" spans="1:42" ht="12.5" customHeight="1">
+    <row r="82" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="32"/>
       <c r="C82" s="2"/>
@@ -26872,7 +26884,7 @@
       <c r="AO82" s="2"/>
       <c r="AP82" s="2"/>
     </row>
-    <row r="83" spans="1:42" ht="12.5" customHeight="1">
+    <row r="83" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="32"/>
       <c r="C83" s="2"/>
@@ -26916,7 +26928,7 @@
       <c r="AO83" s="2"/>
       <c r="AP83" s="2"/>
     </row>
-    <row r="84" spans="1:42" ht="12.5" customHeight="1">
+    <row r="84" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="32"/>
       <c r="C84" s="2"/>
@@ -26960,7 +26972,7 @@
       <c r="AO84" s="2"/>
       <c r="AP84" s="2"/>
     </row>
-    <row r="85" spans="1:42" ht="12.5" customHeight="1">
+    <row r="85" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="32"/>
       <c r="C85" s="2"/>
@@ -27004,7 +27016,7 @@
       <c r="AO85" s="2"/>
       <c r="AP85" s="2"/>
     </row>
-    <row r="86" spans="1:42" ht="12.5" customHeight="1">
+    <row r="86" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="32"/>
       <c r="C86" s="2"/>
@@ -27048,7 +27060,7 @@
       <c r="AO86" s="2"/>
       <c r="AP86" s="2"/>
     </row>
-    <row r="87" spans="1:42" ht="12.5" customHeight="1">
+    <row r="87" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="32"/>
       <c r="C87" s="2"/>
@@ -27092,7 +27104,7 @@
       <c r="AO87" s="2"/>
       <c r="AP87" s="2"/>
     </row>
-    <row r="88" spans="1:42" ht="12.5" customHeight="1">
+    <row r="88" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="32"/>
       <c r="C88" s="2"/>
@@ -27136,7 +27148,7 @@
       <c r="AO88" s="2"/>
       <c r="AP88" s="2"/>
     </row>
-    <row r="89" spans="1:42" ht="12.5" customHeight="1">
+    <row r="89" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="32"/>
       <c r="C89" s="2"/>
@@ -27180,7 +27192,7 @@
       <c r="AO89" s="2"/>
       <c r="AP89" s="2"/>
     </row>
-    <row r="90" spans="1:42" ht="12.5" customHeight="1">
+    <row r="90" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="32"/>
       <c r="C90" s="2"/>
@@ -27224,7 +27236,7 @@
       <c r="AO90" s="2"/>
       <c r="AP90" s="2"/>
     </row>
-    <row r="91" spans="1:42" ht="12.5" customHeight="1">
+    <row r="91" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="32"/>
       <c r="C91" s="2"/>
@@ -27268,7 +27280,7 @@
       <c r="AO91" s="2"/>
       <c r="AP91" s="2"/>
     </row>
-    <row r="92" spans="1:42" ht="12.5" customHeight="1">
+    <row r="92" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="32"/>
       <c r="C92" s="2"/>
@@ -27312,7 +27324,7 @@
       <c r="AO92" s="2"/>
       <c r="AP92" s="2"/>
     </row>
-    <row r="93" spans="1:42" ht="12.5" customHeight="1">
+    <row r="93" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -27390,19 +27402,19 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.3984375" defaultRowHeight="12.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" style="33" customWidth="1"/>
-    <col min="3" max="25" width="12.19921875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="9.3984375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="12.19921875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="10.59765625" style="1" customWidth="1"/>
-    <col min="29" max="42" width="12.3984375" style="1" customWidth="1"/>
-    <col min="43" max="16384" width="9.3984375" style="1"/>
+    <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="33" customWidth="1"/>
+    <col min="3" max="25" width="12.1640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9.33203125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.1640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10.6640625" style="1" customWidth="1"/>
+    <col min="29" max="42" width="12.33203125" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="20" customHeight="1">
+    <row r="1" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
         <v>53</v>
       </c>
@@ -27410,7 +27422,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="2" spans="1:29" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
         <v>52</v>
       </c>
@@ -27419,7 +27431,7 @@
       <c r="O2" s="13"/>
       <c r="X2" s="14"/>
     </row>
-    <row r="3" spans="1:29" ht="50" customHeight="1">
+    <row r="3" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="50" t="s">
         <v>51</v>
@@ -27469,7 +27481,7 @@
       </c>
       <c r="X3" s="100"/>
     </row>
-    <row r="4" spans="1:29" s="9" customFormat="1" ht="44.25" customHeight="1">
+    <row r="4" spans="1:29" s="9" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="29" t="s">
@@ -27539,7 +27551,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="5" spans="1:29" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="71" t="s">
         <v>1</v>
       </c>
@@ -27618,7 +27630,7 @@
       <c r="AB5" s="8"/>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="6" spans="1:29" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>23</v>
       </c>
@@ -27697,7 +27709,7 @@
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
     </row>
-    <row r="7" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="7" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
         <v>26</v>
       </c>
@@ -27776,7 +27788,7 @@
       <c r="AB7" s="8"/>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="8" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
         <v>25</v>
       </c>
@@ -27855,7 +27867,7 @@
       <c r="AB8" s="8"/>
       <c r="AC8" s="8"/>
     </row>
-    <row r="9" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="9" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
         <v>24</v>
       </c>
@@ -27934,7 +27946,7 @@
       <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="10" spans="1:29" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>19</v>
       </c>
@@ -28013,7 +28025,7 @@
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
     </row>
-    <row r="11" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="11" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>3</v>
       </c>
@@ -28092,7 +28104,7 @@
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="12" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>27</v>
       </c>
@@ -28171,7 +28183,7 @@
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
     </row>
-    <row r="13" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="13" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>11</v>
       </c>
@@ -28250,7 +28262,7 @@
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="14" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>28</v>
       </c>
@@ -28329,7 +28341,7 @@
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
     </row>
-    <row r="15" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="15" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>18</v>
       </c>
@@ -28408,7 +28420,7 @@
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="16" spans="1:29" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>20</v>
       </c>
@@ -28487,7 +28499,7 @@
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
     </row>
-    <row r="17" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="17" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>12</v>
       </c>
@@ -28566,7 +28578,7 @@
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="18" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
         <v>13</v>
       </c>
@@ -28645,7 +28657,7 @@
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
     </row>
-    <row r="19" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="19" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
         <v>16</v>
       </c>
@@ -28724,7 +28736,7 @@
       <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="20" spans="1:29" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
         <v>2</v>
       </c>
@@ -28803,7 +28815,7 @@
       <c r="AB20" s="8"/>
       <c r="AC20" s="8"/>
     </row>
-    <row r="21" spans="1:29" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="21" spans="1:29" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
         <v>21</v>
       </c>
@@ -28882,7 +28894,7 @@
       <c r="AB21" s="8"/>
       <c r="AC21" s="8"/>
     </row>
-    <row r="22" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="22" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37" t="s">
         <v>9</v>
       </c>
@@ -28961,7 +28973,7 @@
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
     </row>
-    <row r="23" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="23" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="37" t="s">
         <v>14</v>
       </c>
@@ -29040,7 +29052,7 @@
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="24" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="37" t="s">
         <v>30</v>
       </c>
@@ -29119,7 +29131,7 @@
       <c r="AB24" s="8"/>
       <c r="AC24" s="8"/>
     </row>
-    <row r="25" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="25" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37" t="s">
         <v>31</v>
       </c>
@@ -29198,7 +29210,7 @@
       <c r="AB25" s="8"/>
       <c r="AC25" s="8"/>
     </row>
-    <row r="26" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="26" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="37" t="s">
         <v>32</v>
       </c>
@@ -29277,7 +29289,7 @@
       <c r="AB26" s="8"/>
       <c r="AC26" s="8"/>
     </row>
-    <row r="27" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="27" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="37" t="s">
         <v>15</v>
       </c>
@@ -29356,7 +29368,7 @@
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
     </row>
-    <row r="28" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="28" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="37" t="s">
         <v>17</v>
       </c>
@@ -29435,7 +29447,7 @@
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
     </row>
-    <row r="29" spans="1:29" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="29" spans="1:29" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="37" t="s">
         <v>22</v>
       </c>
@@ -29514,7 +29526,7 @@
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
     </row>
-    <row r="30" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="30" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="37" t="s">
         <v>4</v>
       </c>
@@ -29593,7 +29605,7 @@
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
     </row>
-    <row r="31" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="31" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37" t="s">
         <v>5</v>
       </c>
@@ -29672,7 +29684,7 @@
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
     </row>
-    <row r="32" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="32" spans="1:29" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="37" t="s">
         <v>6</v>
       </c>
@@ -29751,7 +29763,7 @@
       <c r="AB32" s="8"/>
       <c r="AC32" s="8"/>
     </row>
-    <row r="33" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="33" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="37" t="s">
         <v>7</v>
       </c>
@@ -29830,7 +29842,7 @@
       <c r="AB33" s="8"/>
       <c r="AC33" s="8"/>
     </row>
-    <row r="34" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="34" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="37" t="s">
         <v>8</v>
       </c>
@@ -29909,7 +29921,7 @@
       <c r="AB34" s="8"/>
       <c r="AC34" s="8"/>
     </row>
-    <row r="35" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="35" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="37" t="s">
         <v>10</v>
       </c>
@@ -29988,7 +30000,7 @@
       <c r="AB35" s="8"/>
       <c r="AC35" s="8"/>
     </row>
-    <row r="36" spans="1:42" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="36" spans="1:42" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="34" t="s">
         <v>29</v>
       </c>
@@ -30067,7 +30079,7 @@
       <c r="AB36" s="8"/>
       <c r="AC36" s="8"/>
     </row>
-    <row r="37" spans="1:42" s="9" customFormat="1" ht="6" customHeight="1">
+    <row r="37" spans="1:42" s="9" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="78"/>
       <c r="C37" s="42"/>
       <c r="D37" s="79"/>
@@ -30097,7 +30109,7 @@
       <c r="AB37" s="8"/>
       <c r="AC37" s="8"/>
     </row>
-    <row r="38" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="38" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="95" t="s">
         <v>69</v>
       </c>
@@ -30130,7 +30142,7 @@
       <c r="AB38" s="8"/>
       <c r="AC38" s="8"/>
     </row>
-    <row r="39" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="39" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="82" t="s">
         <v>42</v>
       </c>
@@ -30163,7 +30175,7 @@
       <c r="AB39" s="8"/>
       <c r="AC39" s="8"/>
     </row>
-    <row r="40" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="40" spans="1:42" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="97" t="s">
         <v>67</v>
       </c>
@@ -30196,7 +30208,7 @@
       <c r="AB40" s="8"/>
       <c r="AC40" s="8"/>
     </row>
-    <row r="41" spans="1:42" ht="12.75" customHeight="1">
+    <row r="41" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
         <v>49</v>
       </c>
@@ -30242,7 +30254,7 @@
       <c r="AO41" s="2"/>
       <c r="AP41" s="2"/>
     </row>
-    <row r="42" spans="1:42" ht="12.75" customHeight="1">
+    <row r="42" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="24" t="s">
         <v>50</v>
       </c>
@@ -30288,7 +30300,7 @@
       <c r="AO42" s="2"/>
       <c r="AP42" s="2"/>
     </row>
-    <row r="43" spans="1:42" ht="12.75" customHeight="1">
+    <row r="43" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="86" t="s">
         <v>65</v>
       </c>
@@ -30328,7 +30340,7 @@
       <c r="AO43" s="2"/>
       <c r="AP43" s="2"/>
     </row>
-    <row r="44" spans="1:42" ht="12.75" customHeight="1">
+    <row r="44" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="86" t="s">
         <v>40</v>
       </c>
@@ -30368,7 +30380,7 @@
       <c r="AO44" s="2"/>
       <c r="AP44" s="2"/>
     </row>
-    <row r="45" spans="1:42" ht="12.75" customHeight="1">
+    <row r="45" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="86"/>
       <c r="B45" s="32"/>
       <c r="C45" s="2"/>
@@ -30412,7 +30424,7 @@
       <c r="AO45" s="2"/>
       <c r="AP45" s="2"/>
     </row>
-    <row r="46" spans="1:42" ht="12.5" customHeight="1">
+    <row r="46" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="90" t="s">
         <v>41</v>
       </c>
@@ -30458,7 +30470,7 @@
       <c r="AO46" s="2"/>
       <c r="AP46" s="2"/>
     </row>
-    <row r="47" spans="1:42" ht="12.5" customHeight="1">
+    <row r="47" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="32"/>
       <c r="C47" s="2"/>
@@ -30502,7 +30514,7 @@
       <c r="AO47" s="2"/>
       <c r="AP47" s="2"/>
     </row>
-    <row r="48" spans="1:42" ht="12.5" customHeight="1">
+    <row r="48" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="32"/>
       <c r="C48" s="2"/>
@@ -30546,7 +30558,7 @@
       <c r="AO48" s="2"/>
       <c r="AP48" s="2"/>
     </row>
-    <row r="49" spans="1:42" ht="12.5" customHeight="1">
+    <row r="49" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="32"/>
       <c r="C49" s="2"/>
@@ -30590,7 +30602,7 @@
       <c r="AO49" s="2"/>
       <c r="AP49" s="2"/>
     </row>
-    <row r="50" spans="1:42" ht="12.5" customHeight="1">
+    <row r="50" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="32"/>
       <c r="C50" s="2"/>
@@ -30634,7 +30646,7 @@
       <c r="AO50" s="2"/>
       <c r="AP50" s="2"/>
     </row>
-    <row r="51" spans="1:42" ht="12.5" customHeight="1">
+    <row r="51" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="32"/>
       <c r="C51" s="2"/>
@@ -30678,7 +30690,7 @@
       <c r="AO51" s="2"/>
       <c r="AP51" s="2"/>
     </row>
-    <row r="52" spans="1:42" ht="12.5" customHeight="1">
+    <row r="52" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="32"/>
       <c r="C52" s="2"/>
@@ -30722,7 +30734,7 @@
       <c r="AO52" s="2"/>
       <c r="AP52" s="2"/>
     </row>
-    <row r="53" spans="1:42" ht="12.5" customHeight="1">
+    <row r="53" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="32"/>
       <c r="C53" s="2"/>
@@ -30766,7 +30778,7 @@
       <c r="AO53" s="2"/>
       <c r="AP53" s="2"/>
     </row>
-    <row r="54" spans="1:42" ht="12.5" customHeight="1">
+    <row r="54" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="32"/>
       <c r="C54" s="2"/>
@@ -30810,7 +30822,7 @@
       <c r="AO54" s="2"/>
       <c r="AP54" s="2"/>
     </row>
-    <row r="55" spans="1:42" ht="12.5" customHeight="1">
+    <row r="55" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="32"/>
       <c r="C55" s="2"/>
@@ -30854,7 +30866,7 @@
       <c r="AO55" s="2"/>
       <c r="AP55" s="2"/>
     </row>
-    <row r="56" spans="1:42" ht="12.5" customHeight="1">
+    <row r="56" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="32"/>
       <c r="C56" s="2"/>
@@ -30898,7 +30910,7 @@
       <c r="AO56" s="2"/>
       <c r="AP56" s="2"/>
     </row>
-    <row r="57" spans="1:42" ht="12.5" customHeight="1">
+    <row r="57" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="32"/>
       <c r="C57" s="2"/>
@@ -30942,7 +30954,7 @@
       <c r="AO57" s="2"/>
       <c r="AP57" s="2"/>
     </row>
-    <row r="58" spans="1:42" ht="12.5" customHeight="1">
+    <row r="58" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="32"/>
       <c r="C58" s="2"/>
@@ -30986,7 +30998,7 @@
       <c r="AO58" s="2"/>
       <c r="AP58" s="2"/>
     </row>
-    <row r="59" spans="1:42" ht="12.5" customHeight="1">
+    <row r="59" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="32"/>
       <c r="C59" s="2"/>
@@ -31030,7 +31042,7 @@
       <c r="AO59" s="2"/>
       <c r="AP59" s="2"/>
     </row>
-    <row r="60" spans="1:42" ht="12.5" customHeight="1">
+    <row r="60" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="32"/>
       <c r="C60" s="2"/>
@@ -31074,7 +31086,7 @@
       <c r="AO60" s="2"/>
       <c r="AP60" s="2"/>
     </row>
-    <row r="61" spans="1:42" ht="12.5" customHeight="1">
+    <row r="61" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="32"/>
       <c r="C61" s="2"/>
@@ -31118,7 +31130,7 @@
       <c r="AO61" s="2"/>
       <c r="AP61" s="2"/>
     </row>
-    <row r="62" spans="1:42" ht="12.5" customHeight="1">
+    <row r="62" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="32"/>
       <c r="C62" s="2"/>
@@ -31162,7 +31174,7 @@
       <c r="AO62" s="2"/>
       <c r="AP62" s="2"/>
     </row>
-    <row r="63" spans="1:42" ht="12.5" customHeight="1">
+    <row r="63" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="32"/>
       <c r="C63" s="2"/>
@@ -31206,7 +31218,7 @@
       <c r="AO63" s="2"/>
       <c r="AP63" s="2"/>
     </row>
-    <row r="64" spans="1:42" ht="12.5" customHeight="1">
+    <row r="64" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="32"/>
       <c r="C64" s="2"/>
@@ -31250,7 +31262,7 @@
       <c r="AO64" s="2"/>
       <c r="AP64" s="2"/>
     </row>
-    <row r="65" spans="1:42" ht="12.5" customHeight="1">
+    <row r="65" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="32"/>
       <c r="C65" s="2"/>
@@ -31294,7 +31306,7 @@
       <c r="AO65" s="2"/>
       <c r="AP65" s="2"/>
     </row>
-    <row r="66" spans="1:42" ht="12.5" customHeight="1">
+    <row r="66" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="32"/>
       <c r="C66" s="2"/>
@@ -31338,7 +31350,7 @@
       <c r="AO66" s="2"/>
       <c r="AP66" s="2"/>
     </row>
-    <row r="67" spans="1:42" ht="12.5" customHeight="1">
+    <row r="67" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="32"/>
       <c r="C67" s="2"/>
@@ -31382,7 +31394,7 @@
       <c r="AO67" s="2"/>
       <c r="AP67" s="2"/>
     </row>
-    <row r="68" spans="1:42" ht="12.5" customHeight="1">
+    <row r="68" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="32"/>
       <c r="C68" s="2"/>
@@ -31426,7 +31438,7 @@
       <c r="AO68" s="2"/>
       <c r="AP68" s="2"/>
     </row>
-    <row r="69" spans="1:42" ht="12.5" customHeight="1">
+    <row r="69" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="32"/>
       <c r="C69" s="2"/>
@@ -31470,7 +31482,7 @@
       <c r="AO69" s="2"/>
       <c r="AP69" s="2"/>
     </row>
-    <row r="70" spans="1:42" ht="12.5" customHeight="1">
+    <row r="70" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="32"/>
       <c r="C70" s="2"/>
@@ -31514,7 +31526,7 @@
       <c r="AO70" s="2"/>
       <c r="AP70" s="2"/>
     </row>
-    <row r="71" spans="1:42" ht="12.5" customHeight="1">
+    <row r="71" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="32"/>
       <c r="C71" s="2"/>
@@ -31558,7 +31570,7 @@
       <c r="AO71" s="2"/>
       <c r="AP71" s="2"/>
     </row>
-    <row r="72" spans="1:42" ht="12.5" customHeight="1">
+    <row r="72" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="32"/>
       <c r="C72" s="2"/>
@@ -31602,7 +31614,7 @@
       <c r="AO72" s="2"/>
       <c r="AP72" s="2"/>
     </row>
-    <row r="73" spans="1:42" ht="12.5" customHeight="1">
+    <row r="73" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="32"/>
       <c r="C73" s="2"/>
@@ -31646,7 +31658,7 @@
       <c r="AO73" s="2"/>
       <c r="AP73" s="2"/>
     </row>
-    <row r="74" spans="1:42" ht="12.5" customHeight="1">
+    <row r="74" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="32"/>
       <c r="C74" s="2"/>
@@ -31690,7 +31702,7 @@
       <c r="AO74" s="2"/>
       <c r="AP74" s="2"/>
     </row>
-    <row r="75" spans="1:42" ht="12.5" customHeight="1">
+    <row r="75" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="32"/>
       <c r="C75" s="2"/>
@@ -31734,7 +31746,7 @@
       <c r="AO75" s="2"/>
       <c r="AP75" s="2"/>
     </row>
-    <row r="76" spans="1:42" ht="12.5" customHeight="1">
+    <row r="76" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="32"/>
       <c r="C76" s="2"/>
@@ -31778,7 +31790,7 @@
       <c r="AO76" s="2"/>
       <c r="AP76" s="2"/>
     </row>
-    <row r="77" spans="1:42" ht="12.5" customHeight="1">
+    <row r="77" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="32"/>
       <c r="C77" s="2"/>
@@ -31822,7 +31834,7 @@
       <c r="AO77" s="2"/>
       <c r="AP77" s="2"/>
     </row>
-    <row r="78" spans="1:42" ht="12.5" customHeight="1">
+    <row r="78" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="32"/>
       <c r="C78" s="2"/>
@@ -31866,7 +31878,7 @@
       <c r="AO78" s="2"/>
       <c r="AP78" s="2"/>
     </row>
-    <row r="79" spans="1:42" ht="12.5" customHeight="1">
+    <row r="79" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="32"/>
       <c r="C79" s="2"/>
@@ -31910,7 +31922,7 @@
       <c r="AO79" s="2"/>
       <c r="AP79" s="2"/>
     </row>
-    <row r="80" spans="1:42" ht="12.5" customHeight="1">
+    <row r="80" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="32"/>
       <c r="C80" s="2"/>
@@ -31954,7 +31966,7 @@
       <c r="AO80" s="2"/>
       <c r="AP80" s="2"/>
     </row>
-    <row r="81" spans="1:42" ht="12.5" customHeight="1">
+    <row r="81" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="32"/>
       <c r="C81" s="2"/>
@@ -31998,7 +32010,7 @@
       <c r="AO81" s="2"/>
       <c r="AP81" s="2"/>
     </row>
-    <row r="82" spans="1:42" ht="12.5" customHeight="1">
+    <row r="82" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="32"/>
       <c r="C82" s="2"/>
@@ -32042,7 +32054,7 @@
       <c r="AO82" s="2"/>
       <c r="AP82" s="2"/>
     </row>
-    <row r="83" spans="1:42" ht="12.5" customHeight="1">
+    <row r="83" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="32"/>
       <c r="C83" s="2"/>
@@ -32086,7 +32098,7 @@
       <c r="AO83" s="2"/>
       <c r="AP83" s="2"/>
     </row>
-    <row r="84" spans="1:42" ht="12.5" customHeight="1">
+    <row r="84" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="32"/>
       <c r="C84" s="2"/>
@@ -32130,7 +32142,7 @@
       <c r="AO84" s="2"/>
       <c r="AP84" s="2"/>
     </row>
-    <row r="85" spans="1:42" ht="12.5" customHeight="1">
+    <row r="85" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="32"/>
       <c r="C85" s="2"/>
@@ -32174,7 +32186,7 @@
       <c r="AO85" s="2"/>
       <c r="AP85" s="2"/>
     </row>
-    <row r="86" spans="1:42" ht="12.5" customHeight="1">
+    <row r="86" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="32"/>
       <c r="C86" s="2"/>
@@ -32218,7 +32230,7 @@
       <c r="AO86" s="2"/>
       <c r="AP86" s="2"/>
     </row>
-    <row r="87" spans="1:42" ht="12.5" customHeight="1">
+    <row r="87" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="32"/>
       <c r="C87" s="2"/>
@@ -32262,7 +32274,7 @@
       <c r="AO87" s="2"/>
       <c r="AP87" s="2"/>
     </row>
-    <row r="88" spans="1:42" ht="12.5" customHeight="1">
+    <row r="88" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="32"/>
       <c r="C88" s="2"/>
@@ -32306,7 +32318,7 @@
       <c r="AO88" s="2"/>
       <c r="AP88" s="2"/>
     </row>
-    <row r="89" spans="1:42" ht="12.5" customHeight="1">
+    <row r="89" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="32"/>
       <c r="C89" s="2"/>
@@ -32350,7 +32362,7 @@
       <c r="AO89" s="2"/>
       <c r="AP89" s="2"/>
     </row>
-    <row r="90" spans="1:42" ht="12.5" customHeight="1">
+    <row r="90" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="32"/>
       <c r="C90" s="2"/>
@@ -32394,7 +32406,7 @@
       <c r="AO90" s="2"/>
       <c r="AP90" s="2"/>
     </row>
-    <row r="91" spans="1:42" ht="12.5" customHeight="1">
+    <row r="91" spans="1:42" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -32472,18 +32484,18 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.3984375" defaultRowHeight="12.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" style="33" customWidth="1"/>
-    <col min="3" max="24" width="12.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="33" customWidth="1"/>
+    <col min="3" max="24" width="12.1640625" style="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" customWidth="1"/>
-    <col min="26" max="26" width="10.59765625" style="1" customWidth="1"/>
-    <col min="27" max="40" width="12.3984375" style="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.3984375" style="1"/>
+    <col min="26" max="26" width="10.6640625" style="1" customWidth="1"/>
+    <col min="27" max="40" width="12.33203125" style="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="20" customHeight="1">
+    <row r="1" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
         <v>54</v>
       </c>
@@ -32491,7 +32503,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="2" spans="1:40" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
         <v>52</v>
       </c>
@@ -32499,7 +32511,7 @@
       <c r="I2" s="13"/>
       <c r="X2" s="14"/>
     </row>
-    <row r="3" spans="1:40" ht="50" customHeight="1">
+    <row r="3" spans="1:40" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="49" t="s">
         <v>51</v>
@@ -32549,7 +32561,7 @@
       </c>
       <c r="X3" s="100"/>
     </row>
-    <row r="4" spans="1:40" ht="44.25" customHeight="1">
+    <row r="4" spans="1:40" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="29" t="s">
@@ -32620,7 +32632,7 @@
       </c>
       <c r="Y4" s="11"/>
     </row>
-    <row r="5" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="5" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="71" t="s">
         <v>1</v>
       </c>
@@ -32710,7 +32722,7 @@
       <c r="AM5" s="8"/>
       <c r="AN5" s="8"/>
     </row>
-    <row r="6" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="6" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>23</v>
       </c>
@@ -32800,7 +32812,7 @@
       <c r="AM6" s="8"/>
       <c r="AN6" s="8"/>
     </row>
-    <row r="7" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="7" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
         <v>26</v>
       </c>
@@ -32890,7 +32902,7 @@
       <c r="AM7" s="8"/>
       <c r="AN7" s="8"/>
     </row>
-    <row r="8" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="8" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
         <v>25</v>
       </c>
@@ -32980,7 +32992,7 @@
       <c r="AM8" s="8"/>
       <c r="AN8" s="8"/>
     </row>
-    <row r="9" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="9" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
         <v>24</v>
       </c>
@@ -33070,7 +33082,7 @@
       <c r="AM9" s="8"/>
       <c r="AN9" s="8"/>
     </row>
-    <row r="10" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="10" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>19</v>
       </c>
@@ -33160,7 +33172,7 @@
       <c r="AM10" s="8"/>
       <c r="AN10" s="8"/>
     </row>
-    <row r="11" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="11" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>3</v>
       </c>
@@ -33250,7 +33262,7 @@
       <c r="AM11" s="8"/>
       <c r="AN11" s="8"/>
     </row>
-    <row r="12" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="12" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>27</v>
       </c>
@@ -33340,7 +33352,7 @@
       <c r="AM12" s="8"/>
       <c r="AN12" s="8"/>
     </row>
-    <row r="13" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="13" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>11</v>
       </c>
@@ -33430,7 +33442,7 @@
       <c r="AM13" s="8"/>
       <c r="AN13" s="8"/>
     </row>
-    <row r="14" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="14" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>28</v>
       </c>
@@ -33520,7 +33532,7 @@
       <c r="AM14" s="8"/>
       <c r="AN14" s="8"/>
     </row>
-    <row r="15" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="15" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>18</v>
       </c>
@@ -33610,7 +33622,7 @@
       <c r="AM15" s="8"/>
       <c r="AN15" s="8"/>
     </row>
-    <row r="16" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="16" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>20</v>
       </c>
@@ -33700,7 +33712,7 @@
       <c r="AM16" s="8"/>
       <c r="AN16" s="8"/>
     </row>
-    <row r="17" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="17" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>12</v>
       </c>
@@ -33790,7 +33802,7 @@
       <c r="AM17" s="8"/>
       <c r="AN17" s="8"/>
     </row>
-    <row r="18" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="18" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
         <v>13</v>
       </c>
@@ -33880,7 +33892,7 @@
       <c r="AM18" s="8"/>
       <c r="AN18" s="8"/>
     </row>
-    <row r="19" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="19" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
         <v>16</v>
       </c>
@@ -33970,7 +33982,7 @@
       <c r="AM19" s="8"/>
       <c r="AN19" s="8"/>
     </row>
-    <row r="20" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="20" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
         <v>2</v>
       </c>
@@ -34060,7 +34072,7 @@
       <c r="AM20" s="8"/>
       <c r="AN20" s="8"/>
     </row>
-    <row r="21" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="21" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
         <v>21</v>
       </c>
@@ -34150,7 +34162,7 @@
       <c r="AM21" s="8"/>
       <c r="AN21" s="8"/>
     </row>
-    <row r="22" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="22" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37" t="s">
         <v>9</v>
       </c>
@@ -34240,7 +34252,7 @@
       <c r="AM22" s="8"/>
       <c r="AN22" s="8"/>
     </row>
-    <row r="23" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="23" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="37" t="s">
         <v>14</v>
       </c>
@@ -34330,7 +34342,7 @@
       <c r="AM23" s="8"/>
       <c r="AN23" s="8"/>
     </row>
-    <row r="24" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="24" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="37" t="s">
         <v>30</v>
       </c>
@@ -34420,7 +34432,7 @@
       <c r="AM24" s="8"/>
       <c r="AN24" s="8"/>
     </row>
-    <row r="25" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="25" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37" t="s">
         <v>31</v>
       </c>
@@ -34510,7 +34522,7 @@
       <c r="AM25" s="8"/>
       <c r="AN25" s="8"/>
     </row>
-    <row r="26" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="26" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="37" t="s">
         <v>32</v>
       </c>
@@ -34600,7 +34612,7 @@
       <c r="AM26" s="8"/>
       <c r="AN26" s="8"/>
     </row>
-    <row r="27" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="27" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="37" t="s">
         <v>15</v>
       </c>
@@ -34690,7 +34702,7 @@
       <c r="AM27" s="8"/>
       <c r="AN27" s="8"/>
     </row>
-    <row r="28" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="28" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="37" t="s">
         <v>17</v>
       </c>
@@ -34780,7 +34792,7 @@
       <c r="AM28" s="8"/>
       <c r="AN28" s="8"/>
     </row>
-    <row r="29" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="29" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="37" t="s">
         <v>22</v>
       </c>
@@ -34870,7 +34882,7 @@
       <c r="AM29" s="8"/>
       <c r="AN29" s="8"/>
     </row>
-    <row r="30" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="30" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="37" t="s">
         <v>4</v>
       </c>
@@ -34960,7 +34972,7 @@
       <c r="AM30" s="8"/>
       <c r="AN30" s="8"/>
     </row>
-    <row r="31" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="31" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37" t="s">
         <v>5</v>
       </c>
@@ -35050,7 +35062,7 @@
       <c r="AM31" s="8"/>
       <c r="AN31" s="8"/>
     </row>
-    <row r="32" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="32" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="37" t="s">
         <v>6</v>
       </c>
@@ -35140,7 +35152,7 @@
       <c r="AM32" s="8"/>
       <c r="AN32" s="8"/>
     </row>
-    <row r="33" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="33" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="37" t="s">
         <v>7</v>
       </c>
@@ -35230,7 +35242,7 @@
       <c r="AM33" s="8"/>
       <c r="AN33" s="8"/>
     </row>
-    <row r="34" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="34" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="37" t="s">
         <v>8</v>
       </c>
@@ -35320,7 +35332,7 @@
       <c r="AM34" s="8"/>
       <c r="AN34" s="8"/>
     </row>
-    <row r="35" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="35" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="37" t="s">
         <v>10</v>
       </c>
@@ -35410,7 +35422,7 @@
       <c r="AM35" s="8"/>
       <c r="AN35" s="8"/>
     </row>
-    <row r="36" spans="1:40" s="37" customFormat="1" ht="20" customHeight="1">
+    <row r="36" spans="1:40" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="34" t="s">
         <v>29</v>
       </c>
@@ -35500,7 +35512,7 @@
       <c r="AM36" s="36"/>
       <c r="AN36" s="36"/>
     </row>
-    <row r="37" spans="1:40" s="37" customFormat="1" ht="6" customHeight="1">
+    <row r="37" spans="1:40" s="37" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="78"/>
       <c r="C37" s="42"/>
       <c r="D37" s="79"/>
@@ -35541,7 +35553,7 @@
       <c r="AM37" s="36"/>
       <c r="AN37" s="36"/>
     </row>
-    <row r="38" spans="1:40" s="37" customFormat="1" ht="12.75" customHeight="1">
+    <row r="38" spans="1:40" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="96" t="s">
         <v>69</v>
       </c>
@@ -35585,7 +35597,7 @@
       <c r="AM38" s="36"/>
       <c r="AN38" s="36"/>
     </row>
-    <row r="39" spans="1:40" s="37" customFormat="1" ht="12.75" customHeight="1">
+    <row r="39" spans="1:40" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="82" t="s">
         <v>42</v>
       </c>
@@ -35629,7 +35641,7 @@
       <c r="AM39" s="36"/>
       <c r="AN39" s="36"/>
     </row>
-    <row r="40" spans="1:40" s="37" customFormat="1" ht="12.75" customHeight="1">
+    <row r="40" spans="1:40" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="97" t="s">
         <v>67</v>
       </c>
@@ -35673,7 +35685,7 @@
       <c r="AM40" s="36"/>
       <c r="AN40" s="36"/>
     </row>
-    <row r="41" spans="1:40" ht="12.75" customHeight="1">
+    <row r="41" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
         <v>49</v>
       </c>
@@ -35717,7 +35729,7 @@
       <c r="AM41" s="2"/>
       <c r="AN41" s="2"/>
     </row>
-    <row r="42" spans="1:40" ht="12.75" customHeight="1">
+    <row r="42" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="24" t="s">
         <v>50</v>
       </c>
@@ -35761,7 +35773,7 @@
       <c r="AM42" s="2"/>
       <c r="AN42" s="2"/>
     </row>
-    <row r="43" spans="1:40" ht="12.75" customHeight="1">
+    <row r="43" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="86" t="s">
         <v>65</v>
       </c>
@@ -35801,7 +35813,7 @@
       <c r="AM43" s="2"/>
       <c r="AN43" s="2"/>
     </row>
-    <row r="44" spans="1:40" ht="12.75" customHeight="1">
+    <row r="44" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="86" t="s">
         <v>40</v>
       </c>
@@ -35841,7 +35853,7 @@
       <c r="AM44" s="2"/>
       <c r="AN44" s="2"/>
     </row>
-    <row r="45" spans="1:40" ht="12.75" customHeight="1">
+    <row r="45" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="86"/>
       <c r="B45" s="32"/>
       <c r="C45" s="2"/>
@@ -35883,7 +35895,7 @@
       <c r="AM45" s="2"/>
       <c r="AN45" s="2"/>
     </row>
-    <row r="46" spans="1:40" ht="12.5" customHeight="1">
+    <row r="46" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="90" t="s">
         <v>41</v>
       </c>
@@ -35927,7 +35939,7 @@
       <c r="AM46" s="2"/>
       <c r="AN46" s="2"/>
     </row>
-    <row r="47" spans="1:40" ht="12.5" customHeight="1">
+    <row r="47" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="32"/>
       <c r="C47" s="2"/>
@@ -35969,7 +35981,7 @@
       <c r="AM47" s="2"/>
       <c r="AN47" s="2"/>
     </row>
-    <row r="48" spans="1:40" ht="12.5" customHeight="1">
+    <row r="48" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="32"/>
       <c r="C48" s="2"/>
@@ -36011,7 +36023,7 @@
       <c r="AM48" s="2"/>
       <c r="AN48" s="2"/>
     </row>
-    <row r="49" spans="1:40" ht="12.5" customHeight="1">
+    <row r="49" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="32"/>
       <c r="C49" s="2"/>
@@ -36053,7 +36065,7 @@
       <c r="AM49" s="2"/>
       <c r="AN49" s="2"/>
     </row>
-    <row r="50" spans="1:40" ht="12.5" customHeight="1">
+    <row r="50" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="32"/>
       <c r="C50" s="2"/>
@@ -36095,7 +36107,7 @@
       <c r="AM50" s="2"/>
       <c r="AN50" s="2"/>
     </row>
-    <row r="51" spans="1:40" ht="12.5" customHeight="1">
+    <row r="51" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="32"/>
       <c r="C51" s="2"/>
@@ -36137,7 +36149,7 @@
       <c r="AM51" s="2"/>
       <c r="AN51" s="2"/>
     </row>
-    <row r="52" spans="1:40" ht="12.5" customHeight="1">
+    <row r="52" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="32"/>
       <c r="C52" s="2"/>
@@ -36179,7 +36191,7 @@
       <c r="AM52" s="2"/>
       <c r="AN52" s="2"/>
     </row>
-    <row r="53" spans="1:40" ht="12.5" customHeight="1">
+    <row r="53" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="32"/>
       <c r="C53" s="2"/>
@@ -36221,7 +36233,7 @@
       <c r="AM53" s="2"/>
       <c r="AN53" s="2"/>
     </row>
-    <row r="54" spans="1:40" ht="12.5" customHeight="1">
+    <row r="54" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="32"/>
       <c r="C54" s="2"/>
@@ -36263,7 +36275,7 @@
       <c r="AM54" s="2"/>
       <c r="AN54" s="2"/>
     </row>
-    <row r="55" spans="1:40" ht="12.5" customHeight="1">
+    <row r="55" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="32"/>
       <c r="C55" s="2"/>
@@ -36305,7 +36317,7 @@
       <c r="AM55" s="2"/>
       <c r="AN55" s="2"/>
     </row>
-    <row r="56" spans="1:40" ht="12.5" customHeight="1">
+    <row r="56" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="32"/>
       <c r="C56" s="2"/>
@@ -36347,7 +36359,7 @@
       <c r="AM56" s="2"/>
       <c r="AN56" s="2"/>
     </row>
-    <row r="57" spans="1:40" ht="12.5" customHeight="1">
+    <row r="57" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="32"/>
       <c r="C57" s="2"/>
@@ -36389,7 +36401,7 @@
       <c r="AM57" s="2"/>
       <c r="AN57" s="2"/>
     </row>
-    <row r="58" spans="1:40" ht="12.5" customHeight="1">
+    <row r="58" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="32"/>
       <c r="C58" s="2"/>
@@ -36431,7 +36443,7 @@
       <c r="AM58" s="2"/>
       <c r="AN58" s="2"/>
     </row>
-    <row r="59" spans="1:40" ht="12.5" customHeight="1">
+    <row r="59" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="32"/>
       <c r="C59" s="2"/>
@@ -36473,7 +36485,7 @@
       <c r="AM59" s="2"/>
       <c r="AN59" s="2"/>
     </row>
-    <row r="60" spans="1:40" ht="12.5" customHeight="1">
+    <row r="60" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="32"/>
       <c r="C60" s="2"/>
@@ -36515,7 +36527,7 @@
       <c r="AM60" s="2"/>
       <c r="AN60" s="2"/>
     </row>
-    <row r="61" spans="1:40" ht="12.5" customHeight="1">
+    <row r="61" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="32"/>
       <c r="C61" s="2"/>
@@ -36557,7 +36569,7 @@
       <c r="AM61" s="2"/>
       <c r="AN61" s="2"/>
     </row>
-    <row r="62" spans="1:40" ht="12.5" customHeight="1">
+    <row r="62" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="32"/>
       <c r="C62" s="2"/>
@@ -36599,7 +36611,7 @@
       <c r="AM62" s="2"/>
       <c r="AN62" s="2"/>
     </row>
-    <row r="63" spans="1:40" ht="12.5" customHeight="1">
+    <row r="63" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="32"/>
       <c r="C63" s="2"/>
@@ -36641,7 +36653,7 @@
       <c r="AM63" s="2"/>
       <c r="AN63" s="2"/>
     </row>
-    <row r="64" spans="1:40" ht="12.5" customHeight="1">
+    <row r="64" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="32"/>
       <c r="C64" s="2"/>
@@ -36683,7 +36695,7 @@
       <c r="AM64" s="2"/>
       <c r="AN64" s="2"/>
     </row>
-    <row r="65" spans="1:40" ht="12.5" customHeight="1">
+    <row r="65" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="32"/>
       <c r="C65" s="2"/>
@@ -36725,7 +36737,7 @@
       <c r="AM65" s="2"/>
       <c r="AN65" s="2"/>
     </row>
-    <row r="66" spans="1:40" ht="12.5" customHeight="1">
+    <row r="66" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="32"/>
       <c r="C66" s="2"/>
@@ -36767,7 +36779,7 @@
       <c r="AM66" s="2"/>
       <c r="AN66" s="2"/>
     </row>
-    <row r="67" spans="1:40" ht="12.5" customHeight="1">
+    <row r="67" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="32"/>
       <c r="C67" s="2"/>
@@ -36809,7 +36821,7 @@
       <c r="AM67" s="2"/>
       <c r="AN67" s="2"/>
     </row>
-    <row r="68" spans="1:40" ht="12.5" customHeight="1">
+    <row r="68" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="32"/>
       <c r="C68" s="2"/>
@@ -36851,7 +36863,7 @@
       <c r="AM68" s="2"/>
       <c r="AN68" s="2"/>
     </row>
-    <row r="69" spans="1:40" ht="12.5" customHeight="1">
+    <row r="69" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="32"/>
       <c r="C69" s="2"/>
@@ -36893,7 +36905,7 @@
       <c r="AM69" s="2"/>
       <c r="AN69" s="2"/>
     </row>
-    <row r="70" spans="1:40" ht="12.5" customHeight="1">
+    <row r="70" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="32"/>
       <c r="C70" s="2"/>
@@ -36935,7 +36947,7 @@
       <c r="AM70" s="2"/>
       <c r="AN70" s="2"/>
     </row>
-    <row r="71" spans="1:40" ht="12.5" customHeight="1">
+    <row r="71" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="32"/>
       <c r="C71" s="2"/>
@@ -36977,7 +36989,7 @@
       <c r="AM71" s="2"/>
       <c r="AN71" s="2"/>
     </row>
-    <row r="72" spans="1:40" ht="12.5" customHeight="1">
+    <row r="72" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="32"/>
       <c r="C72" s="2"/>
@@ -37019,7 +37031,7 @@
       <c r="AM72" s="2"/>
       <c r="AN72" s="2"/>
     </row>
-    <row r="73" spans="1:40" ht="12.5" customHeight="1">
+    <row r="73" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="32"/>
       <c r="C73" s="2"/>
@@ -37061,7 +37073,7 @@
       <c r="AM73" s="2"/>
       <c r="AN73" s="2"/>
     </row>
-    <row r="74" spans="1:40" ht="12.5" customHeight="1">
+    <row r="74" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="32"/>
       <c r="C74" s="2"/>
@@ -37103,7 +37115,7 @@
       <c r="AM74" s="2"/>
       <c r="AN74" s="2"/>
     </row>
-    <row r="75" spans="1:40" ht="12.5" customHeight="1">
+    <row r="75" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="32"/>
       <c r="C75" s="2"/>
@@ -37145,7 +37157,7 @@
       <c r="AM75" s="2"/>
       <c r="AN75" s="2"/>
     </row>
-    <row r="76" spans="1:40" ht="12.5" customHeight="1">
+    <row r="76" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="32"/>
       <c r="C76" s="2"/>
@@ -37187,7 +37199,7 @@
       <c r="AM76" s="2"/>
       <c r="AN76" s="2"/>
     </row>
-    <row r="77" spans="1:40" ht="12.5" customHeight="1">
+    <row r="77" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="32"/>
       <c r="C77" s="2"/>
@@ -37229,7 +37241,7 @@
       <c r="AM77" s="2"/>
       <c r="AN77" s="2"/>
     </row>
-    <row r="78" spans="1:40" ht="12.5" customHeight="1">
+    <row r="78" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="32"/>
       <c r="C78" s="2"/>
@@ -37271,7 +37283,7 @@
       <c r="AM78" s="2"/>
       <c r="AN78" s="2"/>
     </row>
-    <row r="79" spans="1:40" ht="12.5" customHeight="1">
+    <row r="79" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="32"/>
       <c r="C79" s="2"/>
@@ -37313,7 +37325,7 @@
       <c r="AM79" s="2"/>
       <c r="AN79" s="2"/>
     </row>
-    <row r="80" spans="1:40" ht="12.5" customHeight="1">
+    <row r="80" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="32"/>
       <c r="C80" s="2"/>
@@ -37355,7 +37367,7 @@
       <c r="AM80" s="2"/>
       <c r="AN80" s="2"/>
     </row>
-    <row r="81" spans="1:40" ht="12.5" customHeight="1">
+    <row r="81" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="32"/>
       <c r="C81" s="2"/>
@@ -37397,7 +37409,7 @@
       <c r="AM81" s="2"/>
       <c r="AN81" s="2"/>
     </row>
-    <row r="82" spans="1:40" ht="12.5" customHeight="1">
+    <row r="82" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="32"/>
       <c r="C82" s="2"/>
@@ -37439,7 +37451,7 @@
       <c r="AM82" s="2"/>
       <c r="AN82" s="2"/>
     </row>
-    <row r="83" spans="1:40" ht="12.5" customHeight="1">
+    <row r="83" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="32"/>
       <c r="C83" s="2"/>
@@ -37481,7 +37493,7 @@
       <c r="AM83" s="2"/>
       <c r="AN83" s="2"/>
     </row>
-    <row r="84" spans="1:40" ht="12.5" customHeight="1">
+    <row r="84" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="32"/>
       <c r="C84" s="2"/>
@@ -37523,7 +37535,7 @@
       <c r="AM84" s="2"/>
       <c r="AN84" s="2"/>
     </row>
-    <row r="85" spans="1:40" ht="12.5" customHeight="1">
+    <row r="85" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="32"/>
       <c r="C85" s="2"/>
@@ -37565,7 +37577,7 @@
       <c r="AM85" s="2"/>
       <c r="AN85" s="2"/>
     </row>
-    <row r="86" spans="1:40" ht="12.5" customHeight="1">
+    <row r="86" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="32"/>
       <c r="C86" s="2"/>
@@ -37607,7 +37619,7 @@
       <c r="AM86" s="2"/>
       <c r="AN86" s="2"/>
     </row>
-    <row r="87" spans="1:40" ht="12.5" customHeight="1">
+    <row r="87" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="32"/>
       <c r="C87" s="2"/>
@@ -37649,7 +37661,7 @@
       <c r="AM87" s="2"/>
       <c r="AN87" s="2"/>
     </row>
-    <row r="88" spans="1:40" ht="12.5" customHeight="1">
+    <row r="88" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="32"/>
       <c r="C88" s="2"/>
@@ -37691,7 +37703,7 @@
       <c r="AM88" s="2"/>
       <c r="AN88" s="2"/>
     </row>
-    <row r="89" spans="1:40" ht="12.5" customHeight="1">
+    <row r="89" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="32"/>
       <c r="C89" s="2"/>
@@ -37733,7 +37745,7 @@
       <c r="AM89" s="2"/>
       <c r="AN89" s="2"/>
     </row>
-    <row r="90" spans="1:40" ht="12.5" customHeight="1">
+    <row r="90" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="32"/>
       <c r="C90" s="2"/>
@@ -37775,7 +37787,7 @@
       <c r="AM90" s="2"/>
       <c r="AN90" s="2"/>
     </row>
-    <row r="91" spans="1:40" ht="12.5" customHeight="1">
+    <row r="91" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -37851,18 +37863,18 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.3984375" defaultRowHeight="12.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" style="33" customWidth="1"/>
-    <col min="3" max="24" width="12.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="33" customWidth="1"/>
+    <col min="3" max="24" width="12.1640625" style="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" customWidth="1"/>
-    <col min="26" max="26" width="10.59765625" style="1" customWidth="1"/>
-    <col min="27" max="40" width="12.3984375" style="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.3984375" style="1"/>
+    <col min="26" max="26" width="10.6640625" style="1" customWidth="1"/>
+    <col min="27" max="40" width="12.33203125" style="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="20" customHeight="1">
+    <row r="1" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
         <v>55</v>
       </c>
@@ -37870,7 +37882,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="2" spans="1:40" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
         <v>52</v>
       </c>
@@ -37878,7 +37890,7 @@
       <c r="I2" s="13"/>
       <c r="X2" s="14"/>
     </row>
-    <row r="3" spans="1:40" ht="50" customHeight="1">
+    <row r="3" spans="1:40" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="49" t="s">
         <v>51</v>
@@ -37928,7 +37940,7 @@
       </c>
       <c r="X3" s="100"/>
     </row>
-    <row r="4" spans="1:40" ht="44.25" customHeight="1">
+    <row r="4" spans="1:40" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="29" t="s">
@@ -37999,7 +38011,7 @@
       </c>
       <c r="Y4" s="11"/>
     </row>
-    <row r="5" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="5" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="71" t="s">
         <v>1</v>
       </c>
@@ -38089,7 +38101,7 @@
       <c r="AM5" s="8"/>
       <c r="AN5" s="8"/>
     </row>
-    <row r="6" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="6" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>23</v>
       </c>
@@ -38179,7 +38191,7 @@
       <c r="AM6" s="8"/>
       <c r="AN6" s="8"/>
     </row>
-    <row r="7" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="7" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
         <v>26</v>
       </c>
@@ -38269,7 +38281,7 @@
       <c r="AM7" s="8"/>
       <c r="AN7" s="8"/>
     </row>
-    <row r="8" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="8" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
         <v>25</v>
       </c>
@@ -38359,7 +38371,7 @@
       <c r="AM8" s="8"/>
       <c r="AN8" s="8"/>
     </row>
-    <row r="9" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="9" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
         <v>24</v>
       </c>
@@ -38449,7 +38461,7 @@
       <c r="AM9" s="8"/>
       <c r="AN9" s="8"/>
     </row>
-    <row r="10" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="10" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>19</v>
       </c>
@@ -38539,7 +38551,7 @@
       <c r="AM10" s="8"/>
       <c r="AN10" s="8"/>
     </row>
-    <row r="11" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="11" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>3</v>
       </c>
@@ -38629,7 +38641,7 @@
       <c r="AM11" s="8"/>
       <c r="AN11" s="8"/>
     </row>
-    <row r="12" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="12" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>27</v>
       </c>
@@ -38719,7 +38731,7 @@
       <c r="AM12" s="8"/>
       <c r="AN12" s="8"/>
     </row>
-    <row r="13" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="13" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>11</v>
       </c>
@@ -38809,7 +38821,7 @@
       <c r="AM13" s="8"/>
       <c r="AN13" s="8"/>
     </row>
-    <row r="14" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="14" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>28</v>
       </c>
@@ -38899,7 +38911,7 @@
       <c r="AM14" s="8"/>
       <c r="AN14" s="8"/>
     </row>
-    <row r="15" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="15" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>18</v>
       </c>
@@ -38989,7 +39001,7 @@
       <c r="AM15" s="8"/>
       <c r="AN15" s="8"/>
     </row>
-    <row r="16" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="16" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>20</v>
       </c>
@@ -39079,7 +39091,7 @@
       <c r="AM16" s="8"/>
       <c r="AN16" s="8"/>
     </row>
-    <row r="17" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="17" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>12</v>
       </c>
@@ -39169,7 +39181,7 @@
       <c r="AM17" s="8"/>
       <c r="AN17" s="8"/>
     </row>
-    <row r="18" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="18" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
         <v>13</v>
       </c>
@@ -39259,7 +39271,7 @@
       <c r="AM18" s="8"/>
       <c r="AN18" s="8"/>
     </row>
-    <row r="19" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="19" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
         <v>16</v>
       </c>
@@ -39349,7 +39361,7 @@
       <c r="AM19" s="8"/>
       <c r="AN19" s="8"/>
     </row>
-    <row r="20" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="20" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
         <v>2</v>
       </c>
@@ -39439,7 +39451,7 @@
       <c r="AM20" s="8"/>
       <c r="AN20" s="8"/>
     </row>
-    <row r="21" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="21" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
         <v>21</v>
       </c>
@@ -39529,7 +39541,7 @@
       <c r="AM21" s="8"/>
       <c r="AN21" s="8"/>
     </row>
-    <row r="22" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="22" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37" t="s">
         <v>9</v>
       </c>
@@ -39619,7 +39631,7 @@
       <c r="AM22" s="8"/>
       <c r="AN22" s="8"/>
     </row>
-    <row r="23" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="23" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="37" t="s">
         <v>14</v>
       </c>
@@ -39709,7 +39721,7 @@
       <c r="AM23" s="8"/>
       <c r="AN23" s="8"/>
     </row>
-    <row r="24" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="24" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="37" t="s">
         <v>30</v>
       </c>
@@ -39799,7 +39811,7 @@
       <c r="AM24" s="8"/>
       <c r="AN24" s="8"/>
     </row>
-    <row r="25" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="25" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37" t="s">
         <v>31</v>
       </c>
@@ -39889,7 +39901,7 @@
       <c r="AM25" s="8"/>
       <c r="AN25" s="8"/>
     </row>
-    <row r="26" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="26" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="37" t="s">
         <v>32</v>
       </c>
@@ -39979,7 +39991,7 @@
       <c r="AM26" s="8"/>
       <c r="AN26" s="8"/>
     </row>
-    <row r="27" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="27" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="37" t="s">
         <v>15</v>
       </c>
@@ -40069,7 +40081,7 @@
       <c r="AM27" s="8"/>
       <c r="AN27" s="8"/>
     </row>
-    <row r="28" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="28" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="37" t="s">
         <v>17</v>
       </c>
@@ -40159,7 +40171,7 @@
       <c r="AM28" s="8"/>
       <c r="AN28" s="8"/>
     </row>
-    <row r="29" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="29" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="37" t="s">
         <v>22</v>
       </c>
@@ -40249,7 +40261,7 @@
       <c r="AM29" s="8"/>
       <c r="AN29" s="8"/>
     </row>
-    <row r="30" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="30" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="37" t="s">
         <v>4</v>
       </c>
@@ -40339,7 +40351,7 @@
       <c r="AM30" s="8"/>
       <c r="AN30" s="8"/>
     </row>
-    <row r="31" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="31" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37" t="s">
         <v>5</v>
       </c>
@@ -40429,7 +40441,7 @@
       <c r="AM31" s="8"/>
       <c r="AN31" s="8"/>
     </row>
-    <row r="32" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="32" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="37" t="s">
         <v>6</v>
       </c>
@@ -40519,7 +40531,7 @@
       <c r="AM32" s="8"/>
       <c r="AN32" s="8"/>
     </row>
-    <row r="33" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="33" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="37" t="s">
         <v>7</v>
       </c>
@@ -40609,7 +40621,7 @@
       <c r="AM33" s="8"/>
       <c r="AN33" s="8"/>
     </row>
-    <row r="34" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="34" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="37" t="s">
         <v>8</v>
       </c>
@@ -40699,7 +40711,7 @@
       <c r="AM34" s="8"/>
       <c r="AN34" s="8"/>
     </row>
-    <row r="35" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="35" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="37" t="s">
         <v>10</v>
       </c>
@@ -40789,7 +40801,7 @@
       <c r="AM35" s="8"/>
       <c r="AN35" s="8"/>
     </row>
-    <row r="36" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="36" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="34" t="s">
         <v>29</v>
       </c>
@@ -40879,7 +40891,7 @@
       <c r="AM36" s="8"/>
       <c r="AN36" s="8"/>
     </row>
-    <row r="37" spans="1:40" s="9" customFormat="1" ht="6" customHeight="1">
+    <row r="37" spans="1:40" s="9" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="78"/>
       <c r="C37" s="42"/>
       <c r="D37" s="79"/>
@@ -40920,7 +40932,7 @@
       <c r="AM37" s="8"/>
       <c r="AN37" s="8"/>
     </row>
-    <row r="38" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="38" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="95" t="s">
         <v>69</v>
       </c>
@@ -40964,7 +40976,7 @@
       <c r="AM38" s="8"/>
       <c r="AN38" s="8"/>
     </row>
-    <row r="39" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="39" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="82" t="s">
         <v>42</v>
       </c>
@@ -41008,7 +41020,7 @@
       <c r="AM39" s="8"/>
       <c r="AN39" s="8"/>
     </row>
-    <row r="40" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="40" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="97" t="s">
         <v>67</v>
       </c>
@@ -41052,7 +41064,7 @@
       <c r="AM40" s="8"/>
       <c r="AN40" s="8"/>
     </row>
-    <row r="41" spans="1:40" ht="12.75" customHeight="1">
+    <row r="41" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
         <v>49</v>
       </c>
@@ -41096,7 +41108,7 @@
       <c r="AM41" s="2"/>
       <c r="AN41" s="2"/>
     </row>
-    <row r="42" spans="1:40" ht="12.75" customHeight="1">
+    <row r="42" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="24" t="s">
         <v>50</v>
       </c>
@@ -41140,7 +41152,7 @@
       <c r="AM42" s="2"/>
       <c r="AN42" s="2"/>
     </row>
-    <row r="43" spans="1:40" ht="12.75" customHeight="1">
+    <row r="43" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="86" t="s">
         <v>65</v>
       </c>
@@ -41180,7 +41192,7 @@
       <c r="AM43" s="2"/>
       <c r="AN43" s="2"/>
     </row>
-    <row r="44" spans="1:40" ht="12.75" customHeight="1">
+    <row r="44" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="86" t="s">
         <v>40</v>
       </c>
@@ -41220,7 +41232,7 @@
       <c r="AM44" s="2"/>
       <c r="AN44" s="2"/>
     </row>
-    <row r="45" spans="1:40" ht="12.75" customHeight="1">
+    <row r="45" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="86"/>
       <c r="B45" s="32"/>
       <c r="C45" s="5"/>
@@ -41258,7 +41270,7 @@
       <c r="AM45" s="2"/>
       <c r="AN45" s="2"/>
     </row>
-    <row r="46" spans="1:40" ht="12.75" customHeight="1">
+    <row r="46" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="90" t="s">
         <v>41</v>
       </c>
@@ -41302,7 +41314,7 @@
       <c r="AM46" s="2"/>
       <c r="AN46" s="2"/>
     </row>
-    <row r="47" spans="1:40" ht="12.5" customHeight="1">
+    <row r="47" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="32"/>
       <c r="C47" s="2"/>
@@ -41344,7 +41356,7 @@
       <c r="AM47" s="2"/>
       <c r="AN47" s="2"/>
     </row>
-    <row r="48" spans="1:40" ht="12.5" customHeight="1">
+    <row r="48" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="32"/>
       <c r="C48" s="2"/>
@@ -41386,7 +41398,7 @@
       <c r="AM48" s="2"/>
       <c r="AN48" s="2"/>
     </row>
-    <row r="49" spans="1:40" ht="12.5" customHeight="1">
+    <row r="49" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="32"/>
       <c r="C49" s="2"/>
@@ -41428,7 +41440,7 @@
       <c r="AM49" s="2"/>
       <c r="AN49" s="2"/>
     </row>
-    <row r="50" spans="1:40" ht="12.5" customHeight="1">
+    <row r="50" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="32"/>
       <c r="C50" s="2"/>
@@ -41470,7 +41482,7 @@
       <c r="AM50" s="2"/>
       <c r="AN50" s="2"/>
     </row>
-    <row r="51" spans="1:40" ht="12.5" customHeight="1">
+    <row r="51" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="32"/>
       <c r="C51" s="2"/>
@@ -41512,7 +41524,7 @@
       <c r="AM51" s="2"/>
       <c r="AN51" s="2"/>
     </row>
-    <row r="52" spans="1:40" ht="12.5" customHeight="1">
+    <row r="52" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="32"/>
       <c r="C52" s="2"/>
@@ -41554,7 +41566,7 @@
       <c r="AM52" s="2"/>
       <c r="AN52" s="2"/>
     </row>
-    <row r="53" spans="1:40" ht="12.5" customHeight="1">
+    <row r="53" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="32"/>
       <c r="C53" s="2"/>
@@ -41596,7 +41608,7 @@
       <c r="AM53" s="2"/>
       <c r="AN53" s="2"/>
     </row>
-    <row r="54" spans="1:40" ht="12.5" customHeight="1">
+    <row r="54" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="32"/>
       <c r="C54" s="2"/>
@@ -41638,7 +41650,7 @@
       <c r="AM54" s="2"/>
       <c r="AN54" s="2"/>
     </row>
-    <row r="55" spans="1:40" ht="12.5" customHeight="1">
+    <row r="55" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="32"/>
       <c r="C55" s="2"/>
@@ -41680,7 +41692,7 @@
       <c r="AM55" s="2"/>
       <c r="AN55" s="2"/>
     </row>
-    <row r="56" spans="1:40" ht="12.5" customHeight="1">
+    <row r="56" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="32"/>
       <c r="C56" s="2"/>
@@ -41722,7 +41734,7 @@
       <c r="AM56" s="2"/>
       <c r="AN56" s="2"/>
     </row>
-    <row r="57" spans="1:40" ht="12.5" customHeight="1">
+    <row r="57" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="32"/>
       <c r="C57" s="2"/>
@@ -41764,7 +41776,7 @@
       <c r="AM57" s="2"/>
       <c r="AN57" s="2"/>
     </row>
-    <row r="58" spans="1:40" ht="12.5" customHeight="1">
+    <row r="58" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="32"/>
       <c r="C58" s="2"/>
@@ -41806,7 +41818,7 @@
       <c r="AM58" s="2"/>
       <c r="AN58" s="2"/>
     </row>
-    <row r="59" spans="1:40" ht="12.5" customHeight="1">
+    <row r="59" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="32"/>
       <c r="C59" s="2"/>
@@ -41848,7 +41860,7 @@
       <c r="AM59" s="2"/>
       <c r="AN59" s="2"/>
     </row>
-    <row r="60" spans="1:40" ht="12.5" customHeight="1">
+    <row r="60" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="32"/>
       <c r="C60" s="2"/>
@@ -41890,7 +41902,7 @@
       <c r="AM60" s="2"/>
       <c r="AN60" s="2"/>
     </row>
-    <row r="61" spans="1:40" ht="12.5" customHeight="1">
+    <row r="61" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="32"/>
       <c r="C61" s="2"/>
@@ -41932,7 +41944,7 @@
       <c r="AM61" s="2"/>
       <c r="AN61" s="2"/>
     </row>
-    <row r="62" spans="1:40" ht="12.5" customHeight="1">
+    <row r="62" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="32"/>
       <c r="C62" s="2"/>
@@ -41974,7 +41986,7 @@
       <c r="AM62" s="2"/>
       <c r="AN62" s="2"/>
     </row>
-    <row r="63" spans="1:40" ht="12.5" customHeight="1">
+    <row r="63" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="32"/>
       <c r="C63" s="2"/>
@@ -42016,7 +42028,7 @@
       <c r="AM63" s="2"/>
       <c r="AN63" s="2"/>
     </row>
-    <row r="64" spans="1:40" ht="12.5" customHeight="1">
+    <row r="64" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="32"/>
       <c r="C64" s="2"/>
@@ -42058,7 +42070,7 @@
       <c r="AM64" s="2"/>
       <c r="AN64" s="2"/>
     </row>
-    <row r="65" spans="1:40" ht="12.5" customHeight="1">
+    <row r="65" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="32"/>
       <c r="C65" s="2"/>
@@ -42100,7 +42112,7 @@
       <c r="AM65" s="2"/>
       <c r="AN65" s="2"/>
     </row>
-    <row r="66" spans="1:40" ht="12.5" customHeight="1">
+    <row r="66" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="32"/>
       <c r="C66" s="2"/>
@@ -42142,7 +42154,7 @@
       <c r="AM66" s="2"/>
       <c r="AN66" s="2"/>
     </row>
-    <row r="67" spans="1:40" ht="12.5" customHeight="1">
+    <row r="67" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="32"/>
       <c r="C67" s="2"/>
@@ -42184,7 +42196,7 @@
       <c r="AM67" s="2"/>
       <c r="AN67" s="2"/>
     </row>
-    <row r="68" spans="1:40" ht="12.5" customHeight="1">
+    <row r="68" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="32"/>
       <c r="C68" s="2"/>
@@ -42226,7 +42238,7 @@
       <c r="AM68" s="2"/>
       <c r="AN68" s="2"/>
     </row>
-    <row r="69" spans="1:40" ht="12.5" customHeight="1">
+    <row r="69" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="32"/>
       <c r="C69" s="2"/>
@@ -42268,7 +42280,7 @@
       <c r="AM69" s="2"/>
       <c r="AN69" s="2"/>
     </row>
-    <row r="70" spans="1:40" ht="12.5" customHeight="1">
+    <row r="70" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="32"/>
       <c r="C70" s="2"/>
@@ -42310,7 +42322,7 @@
       <c r="AM70" s="2"/>
       <c r="AN70" s="2"/>
     </row>
-    <row r="71" spans="1:40" ht="12.5" customHeight="1">
+    <row r="71" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="32"/>
       <c r="C71" s="2"/>
@@ -42352,7 +42364,7 @@
       <c r="AM71" s="2"/>
       <c r="AN71" s="2"/>
     </row>
-    <row r="72" spans="1:40" ht="12.5" customHeight="1">
+    <row r="72" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="32"/>
       <c r="C72" s="2"/>
@@ -42394,7 +42406,7 @@
       <c r="AM72" s="2"/>
       <c r="AN72" s="2"/>
     </row>
-    <row r="73" spans="1:40" ht="12.5" customHeight="1">
+    <row r="73" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="32"/>
       <c r="C73" s="2"/>
@@ -42436,7 +42448,7 @@
       <c r="AM73" s="2"/>
       <c r="AN73" s="2"/>
     </row>
-    <row r="74" spans="1:40" ht="12.5" customHeight="1">
+    <row r="74" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="32"/>
       <c r="C74" s="2"/>
@@ -42478,7 +42490,7 @@
       <c r="AM74" s="2"/>
       <c r="AN74" s="2"/>
     </row>
-    <row r="75" spans="1:40" ht="12.5" customHeight="1">
+    <row r="75" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="32"/>
       <c r="C75" s="2"/>
@@ -42520,7 +42532,7 @@
       <c r="AM75" s="2"/>
       <c r="AN75" s="2"/>
     </row>
-    <row r="76" spans="1:40" ht="12.5" customHeight="1">
+    <row r="76" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="32"/>
       <c r="C76" s="2"/>
@@ -42562,7 +42574,7 @@
       <c r="AM76" s="2"/>
       <c r="AN76" s="2"/>
     </row>
-    <row r="77" spans="1:40" ht="12.5" customHeight="1">
+    <row r="77" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="32"/>
       <c r="C77" s="2"/>
@@ -42604,7 +42616,7 @@
       <c r="AM77" s="2"/>
       <c r="AN77" s="2"/>
     </row>
-    <row r="78" spans="1:40" ht="12.5" customHeight="1">
+    <row r="78" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="32"/>
       <c r="C78" s="2"/>
@@ -42646,7 +42658,7 @@
       <c r="AM78" s="2"/>
       <c r="AN78" s="2"/>
     </row>
-    <row r="79" spans="1:40" ht="12.5" customHeight="1">
+    <row r="79" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="32"/>
       <c r="C79" s="2"/>
@@ -42688,7 +42700,7 @@
       <c r="AM79" s="2"/>
       <c r="AN79" s="2"/>
     </row>
-    <row r="80" spans="1:40" ht="12.5" customHeight="1">
+    <row r="80" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="32"/>
       <c r="C80" s="2"/>
@@ -42730,7 +42742,7 @@
       <c r="AM80" s="2"/>
       <c r="AN80" s="2"/>
     </row>
-    <row r="81" spans="1:40" ht="12.5" customHeight="1">
+    <row r="81" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="32"/>
       <c r="C81" s="2"/>
@@ -42772,7 +42784,7 @@
       <c r="AM81" s="2"/>
       <c r="AN81" s="2"/>
     </row>
-    <row r="82" spans="1:40" ht="12.5" customHeight="1">
+    <row r="82" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="32"/>
       <c r="C82" s="2"/>
@@ -42814,7 +42826,7 @@
       <c r="AM82" s="2"/>
       <c r="AN82" s="2"/>
     </row>
-    <row r="83" spans="1:40" ht="12.5" customHeight="1">
+    <row r="83" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="32"/>
       <c r="C83" s="2"/>
@@ -42856,7 +42868,7 @@
       <c r="AM83" s="2"/>
       <c r="AN83" s="2"/>
     </row>
-    <row r="84" spans="1:40" ht="12.5" customHeight="1">
+    <row r="84" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="32"/>
       <c r="C84" s="2"/>
@@ -42898,7 +42910,7 @@
       <c r="AM84" s="2"/>
       <c r="AN84" s="2"/>
     </row>
-    <row r="85" spans="1:40" ht="12.5" customHeight="1">
+    <row r="85" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="32"/>
       <c r="C85" s="2"/>
@@ -42940,7 +42952,7 @@
       <c r="AM85" s="2"/>
       <c r="AN85" s="2"/>
     </row>
-    <row r="86" spans="1:40" ht="12.5" customHeight="1">
+    <row r="86" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="32"/>
       <c r="C86" s="2"/>
@@ -42982,7 +42994,7 @@
       <c r="AM86" s="2"/>
       <c r="AN86" s="2"/>
     </row>
-    <row r="87" spans="1:40" ht="12.5" customHeight="1">
+    <row r="87" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="32"/>
       <c r="C87" s="2"/>
@@ -43024,7 +43036,7 @@
       <c r="AM87" s="2"/>
       <c r="AN87" s="2"/>
     </row>
-    <row r="88" spans="1:40" ht="12.5" customHeight="1">
+    <row r="88" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="32"/>
       <c r="C88" s="2"/>
@@ -43066,7 +43078,7 @@
       <c r="AM88" s="2"/>
       <c r="AN88" s="2"/>
     </row>
-    <row r="89" spans="1:40" ht="12.5" customHeight="1">
+    <row r="89" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="32"/>
       <c r="C89" s="2"/>
@@ -43108,7 +43120,7 @@
       <c r="AM89" s="2"/>
       <c r="AN89" s="2"/>
     </row>
-    <row r="90" spans="1:40" ht="12.5" customHeight="1">
+    <row r="90" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="32"/>
       <c r="C90" s="2"/>
@@ -43150,7 +43162,7 @@
       <c r="AM90" s="2"/>
       <c r="AN90" s="2"/>
     </row>
-    <row r="91" spans="1:40" ht="12.5" customHeight="1">
+    <row r="91" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="32"/>
       <c r="C91" s="2"/>
@@ -43192,7 +43204,7 @@
       <c r="AM91" s="2"/>
       <c r="AN91" s="2"/>
     </row>
-    <row r="92" spans="1:40" ht="12.5" customHeight="1">
+    <row r="92" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -43268,18 +43280,18 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.3984375" defaultRowHeight="12.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" style="33" customWidth="1"/>
-    <col min="3" max="24" width="12.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="33" customWidth="1"/>
+    <col min="3" max="24" width="12.1640625" style="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" customWidth="1"/>
-    <col min="26" max="26" width="10.59765625" style="1" customWidth="1"/>
-    <col min="27" max="40" width="12.3984375" style="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.3984375" style="1"/>
+    <col min="26" max="26" width="10.6640625" style="1" customWidth="1"/>
+    <col min="27" max="40" width="12.33203125" style="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="20" customHeight="1">
+    <row r="1" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
         <v>56</v>
       </c>
@@ -43287,7 +43299,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="2" spans="1:40" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
         <v>52</v>
       </c>
@@ -43295,7 +43307,7 @@
       <c r="I2" s="13"/>
       <c r="X2" s="14"/>
     </row>
-    <row r="3" spans="1:40" ht="50" customHeight="1">
+    <row r="3" spans="1:40" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="49" t="s">
         <v>51</v>
@@ -43345,7 +43357,7 @@
       </c>
       <c r="X3" s="100"/>
     </row>
-    <row r="4" spans="1:40" ht="44.25" customHeight="1">
+    <row r="4" spans="1:40" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="29" t="s">
@@ -43416,7 +43428,7 @@
       </c>
       <c r="Y4" s="11"/>
     </row>
-    <row r="5" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="5" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="71" t="s">
         <v>1</v>
       </c>
@@ -43506,7 +43518,7 @@
       <c r="AM5" s="8"/>
       <c r="AN5" s="8"/>
     </row>
-    <row r="6" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="6" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>23</v>
       </c>
@@ -43596,7 +43608,7 @@
       <c r="AM6" s="8"/>
       <c r="AN6" s="8"/>
     </row>
-    <row r="7" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="7" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
         <v>26</v>
       </c>
@@ -43686,7 +43698,7 @@
       <c r="AM7" s="8"/>
       <c r="AN7" s="8"/>
     </row>
-    <row r="8" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="8" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
         <v>25</v>
       </c>
@@ -43776,7 +43788,7 @@
       <c r="AM8" s="8"/>
       <c r="AN8" s="8"/>
     </row>
-    <row r="9" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="9" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
         <v>24</v>
       </c>
@@ -43866,7 +43878,7 @@
       <c r="AM9" s="8"/>
       <c r="AN9" s="8"/>
     </row>
-    <row r="10" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="10" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>19</v>
       </c>
@@ -43956,7 +43968,7 @@
       <c r="AM10" s="8"/>
       <c r="AN10" s="8"/>
     </row>
-    <row r="11" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="11" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>3</v>
       </c>
@@ -44046,7 +44058,7 @@
       <c r="AM11" s="8"/>
       <c r="AN11" s="8"/>
     </row>
-    <row r="12" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="12" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>27</v>
       </c>
@@ -44136,7 +44148,7 @@
       <c r="AM12" s="8"/>
       <c r="AN12" s="8"/>
     </row>
-    <row r="13" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="13" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>11</v>
       </c>
@@ -44226,7 +44238,7 @@
       <c r="AM13" s="8"/>
       <c r="AN13" s="8"/>
     </row>
-    <row r="14" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="14" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>28</v>
       </c>
@@ -44316,7 +44328,7 @@
       <c r="AM14" s="8"/>
       <c r="AN14" s="8"/>
     </row>
-    <row r="15" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="15" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>18</v>
       </c>
@@ -44406,7 +44418,7 @@
       <c r="AM15" s="8"/>
       <c r="AN15" s="8"/>
     </row>
-    <row r="16" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="16" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>20</v>
       </c>
@@ -44496,7 +44508,7 @@
       <c r="AM16" s="8"/>
       <c r="AN16" s="8"/>
     </row>
-    <row r="17" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="17" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>12</v>
       </c>
@@ -44586,7 +44598,7 @@
       <c r="AM17" s="8"/>
       <c r="AN17" s="8"/>
     </row>
-    <row r="18" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="18" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
         <v>13</v>
       </c>
@@ -44676,7 +44688,7 @@
       <c r="AM18" s="8"/>
       <c r="AN18" s="8"/>
     </row>
-    <row r="19" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="19" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
         <v>16</v>
       </c>
@@ -44766,7 +44778,7 @@
       <c r="AM19" s="8"/>
       <c r="AN19" s="8"/>
     </row>
-    <row r="20" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="20" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
         <v>2</v>
       </c>
@@ -44856,7 +44868,7 @@
       <c r="AM20" s="8"/>
       <c r="AN20" s="8"/>
     </row>
-    <row r="21" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="21" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
         <v>21</v>
       </c>
@@ -44946,7 +44958,7 @@
       <c r="AM21" s="8"/>
       <c r="AN21" s="8"/>
     </row>
-    <row r="22" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="22" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37" t="s">
         <v>9</v>
       </c>
@@ -45036,7 +45048,7 @@
       <c r="AM22" s="8"/>
       <c r="AN22" s="8"/>
     </row>
-    <row r="23" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="23" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="37" t="s">
         <v>14</v>
       </c>
@@ -45126,7 +45138,7 @@
       <c r="AM23" s="8"/>
       <c r="AN23" s="8"/>
     </row>
-    <row r="24" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="24" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="37" t="s">
         <v>30</v>
       </c>
@@ -45216,7 +45228,7 @@
       <c r="AM24" s="8"/>
       <c r="AN24" s="8"/>
     </row>
-    <row r="25" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="25" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37" t="s">
         <v>31</v>
       </c>
@@ -45306,7 +45318,7 @@
       <c r="AM25" s="8"/>
       <c r="AN25" s="8"/>
     </row>
-    <row r="26" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="26" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="37" t="s">
         <v>32</v>
       </c>
@@ -45396,7 +45408,7 @@
       <c r="AM26" s="8"/>
       <c r="AN26" s="8"/>
     </row>
-    <row r="27" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="27" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="37" t="s">
         <v>15</v>
       </c>
@@ -45486,7 +45498,7 @@
       <c r="AM27" s="8"/>
       <c r="AN27" s="8"/>
     </row>
-    <row r="28" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="28" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="37" t="s">
         <v>17</v>
       </c>
@@ -45576,7 +45588,7 @@
       <c r="AM28" s="8"/>
       <c r="AN28" s="8"/>
     </row>
-    <row r="29" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="29" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="37" t="s">
         <v>22</v>
       </c>
@@ -45666,7 +45678,7 @@
       <c r="AM29" s="8"/>
       <c r="AN29" s="8"/>
     </row>
-    <row r="30" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="30" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="37" t="s">
         <v>4</v>
       </c>
@@ -45756,7 +45768,7 @@
       <c r="AM30" s="8"/>
       <c r="AN30" s="8"/>
     </row>
-    <row r="31" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="31" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37" t="s">
         <v>5</v>
       </c>
@@ -45846,7 +45858,7 @@
       <c r="AM31" s="8"/>
       <c r="AN31" s="8"/>
     </row>
-    <row r="32" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="32" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="37" t="s">
         <v>6</v>
       </c>
@@ -45936,7 +45948,7 @@
       <c r="AM32" s="8"/>
       <c r="AN32" s="8"/>
     </row>
-    <row r="33" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="33" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="37" t="s">
         <v>7</v>
       </c>
@@ -46026,7 +46038,7 @@
       <c r="AM33" s="8"/>
       <c r="AN33" s="8"/>
     </row>
-    <row r="34" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="34" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="37" t="s">
         <v>8</v>
       </c>
@@ -46116,7 +46128,7 @@
       <c r="AM34" s="8"/>
       <c r="AN34" s="8"/>
     </row>
-    <row r="35" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="35" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="37" t="s">
         <v>10</v>
       </c>
@@ -46206,7 +46218,7 @@
       <c r="AM35" s="8"/>
       <c r="AN35" s="8"/>
     </row>
-    <row r="36" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="36" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="34" t="s">
         <v>29</v>
       </c>
@@ -46296,7 +46308,7 @@
       <c r="AM36" s="8"/>
       <c r="AN36" s="8"/>
     </row>
-    <row r="37" spans="1:40" s="9" customFormat="1" ht="6" customHeight="1">
+    <row r="37" spans="1:40" s="9" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="78"/>
       <c r="C37" s="42"/>
       <c r="D37" s="79"/>
@@ -46337,7 +46349,7 @@
       <c r="AM37" s="8"/>
       <c r="AN37" s="8"/>
     </row>
-    <row r="38" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="38" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="95" t="s">
         <v>69</v>
       </c>
@@ -46381,7 +46393,7 @@
       <c r="AM38" s="8"/>
       <c r="AN38" s="8"/>
     </row>
-    <row r="39" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="39" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="82" t="s">
         <v>42</v>
       </c>
@@ -46425,7 +46437,7 @@
       <c r="AM39" s="8"/>
       <c r="AN39" s="8"/>
     </row>
-    <row r="40" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="40" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="97" t="s">
         <v>67</v>
       </c>
@@ -46469,7 +46481,7 @@
       <c r="AM40" s="8"/>
       <c r="AN40" s="8"/>
     </row>
-    <row r="41" spans="1:40" ht="12.75" customHeight="1">
+    <row r="41" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
         <v>49</v>
       </c>
@@ -46513,7 +46525,7 @@
       <c r="AM41" s="2"/>
       <c r="AN41" s="2"/>
     </row>
-    <row r="42" spans="1:40" ht="12.75" customHeight="1">
+    <row r="42" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="24" t="s">
         <v>50</v>
       </c>
@@ -46557,7 +46569,7 @@
       <c r="AM42" s="2"/>
       <c r="AN42" s="2"/>
     </row>
-    <row r="43" spans="1:40" ht="12.75" customHeight="1">
+    <row r="43" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="86" t="s">
         <v>65</v>
       </c>
@@ -46597,7 +46609,7 @@
       <c r="AM43" s="2"/>
       <c r="AN43" s="2"/>
     </row>
-    <row r="44" spans="1:40" ht="12.75" customHeight="1">
+    <row r="44" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="86" t="s">
         <v>40</v>
       </c>
@@ -46637,7 +46649,7 @@
       <c r="AM44" s="2"/>
       <c r="AN44" s="2"/>
     </row>
-    <row r="45" spans="1:40" ht="12.75" customHeight="1">
+    <row r="45" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="86"/>
       <c r="B45" s="32"/>
       <c r="C45" s="2"/>
@@ -46679,7 +46691,7 @@
       <c r="AM45" s="2"/>
       <c r="AN45" s="2"/>
     </row>
-    <row r="46" spans="1:40" ht="12.5" customHeight="1">
+    <row r="46" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="90" t="s">
         <v>41</v>
       </c>
@@ -46723,7 +46735,7 @@
       <c r="AM46" s="2"/>
       <c r="AN46" s="2"/>
     </row>
-    <row r="47" spans="1:40" ht="12.5" customHeight="1">
+    <row r="47" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="32"/>
       <c r="C47" s="2"/>
@@ -46765,7 +46777,7 @@
       <c r="AM47" s="2"/>
       <c r="AN47" s="2"/>
     </row>
-    <row r="48" spans="1:40" ht="12.5" customHeight="1">
+    <row r="48" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="32"/>
       <c r="C48" s="2"/>
@@ -46807,7 +46819,7 @@
       <c r="AM48" s="2"/>
       <c r="AN48" s="2"/>
     </row>
-    <row r="49" spans="1:40" ht="12.5" customHeight="1">
+    <row r="49" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="32"/>
       <c r="C49" s="2"/>
@@ -46849,7 +46861,7 @@
       <c r="AM49" s="2"/>
       <c r="AN49" s="2"/>
     </row>
-    <row r="50" spans="1:40" ht="12.5" customHeight="1">
+    <row r="50" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="32"/>
       <c r="C50" s="2"/>
@@ -46891,7 +46903,7 @@
       <c r="AM50" s="2"/>
       <c r="AN50" s="2"/>
     </row>
-    <row r="51" spans="1:40" ht="12.5" customHeight="1">
+    <row r="51" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="32"/>
       <c r="C51" s="2"/>
@@ -46933,7 +46945,7 @@
       <c r="AM51" s="2"/>
       <c r="AN51" s="2"/>
     </row>
-    <row r="52" spans="1:40" ht="12.5" customHeight="1">
+    <row r="52" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="32"/>
       <c r="C52" s="2"/>
@@ -46975,7 +46987,7 @@
       <c r="AM52" s="2"/>
       <c r="AN52" s="2"/>
     </row>
-    <row r="53" spans="1:40" ht="12.5" customHeight="1">
+    <row r="53" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="32"/>
       <c r="C53" s="2"/>
@@ -47017,7 +47029,7 @@
       <c r="AM53" s="2"/>
       <c r="AN53" s="2"/>
     </row>
-    <row r="54" spans="1:40" ht="12.5" customHeight="1">
+    <row r="54" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="32"/>
       <c r="C54" s="2"/>
@@ -47059,7 +47071,7 @@
       <c r="AM54" s="2"/>
       <c r="AN54" s="2"/>
     </row>
-    <row r="55" spans="1:40" ht="12.5" customHeight="1">
+    <row r="55" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="32"/>
       <c r="C55" s="2"/>
@@ -47101,7 +47113,7 @@
       <c r="AM55" s="2"/>
       <c r="AN55" s="2"/>
     </row>
-    <row r="56" spans="1:40" ht="12.5" customHeight="1">
+    <row r="56" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="32"/>
       <c r="C56" s="2"/>
@@ -47143,7 +47155,7 @@
       <c r="AM56" s="2"/>
       <c r="AN56" s="2"/>
     </row>
-    <row r="57" spans="1:40" ht="12.5" customHeight="1">
+    <row r="57" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="32"/>
       <c r="C57" s="2"/>
@@ -47185,7 +47197,7 @@
       <c r="AM57" s="2"/>
       <c r="AN57" s="2"/>
     </row>
-    <row r="58" spans="1:40" ht="12.5" customHeight="1">
+    <row r="58" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="32"/>
       <c r="C58" s="2"/>
@@ -47227,7 +47239,7 @@
       <c r="AM58" s="2"/>
       <c r="AN58" s="2"/>
     </row>
-    <row r="59" spans="1:40" ht="12.5" customHeight="1">
+    <row r="59" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="32"/>
       <c r="C59" s="2"/>
@@ -47269,7 +47281,7 @@
       <c r="AM59" s="2"/>
       <c r="AN59" s="2"/>
     </row>
-    <row r="60" spans="1:40" ht="12.5" customHeight="1">
+    <row r="60" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="32"/>
       <c r="C60" s="2"/>
@@ -47311,7 +47323,7 @@
       <c r="AM60" s="2"/>
       <c r="AN60" s="2"/>
     </row>
-    <row r="61" spans="1:40" ht="12.5" customHeight="1">
+    <row r="61" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="32"/>
       <c r="C61" s="2"/>
@@ -47353,7 +47365,7 @@
       <c r="AM61" s="2"/>
       <c r="AN61" s="2"/>
     </row>
-    <row r="62" spans="1:40" ht="12.5" customHeight="1">
+    <row r="62" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="32"/>
       <c r="C62" s="2"/>
@@ -47395,7 +47407,7 @@
       <c r="AM62" s="2"/>
       <c r="AN62" s="2"/>
     </row>
-    <row r="63" spans="1:40" ht="12.5" customHeight="1">
+    <row r="63" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="32"/>
       <c r="C63" s="2"/>
@@ -47437,7 +47449,7 @@
       <c r="AM63" s="2"/>
       <c r="AN63" s="2"/>
     </row>
-    <row r="64" spans="1:40" ht="12.5" customHeight="1">
+    <row r="64" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="32"/>
       <c r="C64" s="2"/>
@@ -47479,7 +47491,7 @@
       <c r="AM64" s="2"/>
       <c r="AN64" s="2"/>
     </row>
-    <row r="65" spans="1:40" ht="12.5" customHeight="1">
+    <row r="65" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="32"/>
       <c r="C65" s="2"/>
@@ -47521,7 +47533,7 @@
       <c r="AM65" s="2"/>
       <c r="AN65" s="2"/>
     </row>
-    <row r="66" spans="1:40" ht="12.5" customHeight="1">
+    <row r="66" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="32"/>
       <c r="C66" s="2"/>
@@ -47563,7 +47575,7 @@
       <c r="AM66" s="2"/>
       <c r="AN66" s="2"/>
     </row>
-    <row r="67" spans="1:40" ht="12.5" customHeight="1">
+    <row r="67" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="32"/>
       <c r="C67" s="2"/>
@@ -47605,7 +47617,7 @@
       <c r="AM67" s="2"/>
       <c r="AN67" s="2"/>
     </row>
-    <row r="68" spans="1:40" ht="12.5" customHeight="1">
+    <row r="68" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="32"/>
       <c r="C68" s="2"/>
@@ -47647,7 +47659,7 @@
       <c r="AM68" s="2"/>
       <c r="AN68" s="2"/>
     </row>
-    <row r="69" spans="1:40" ht="12.5" customHeight="1">
+    <row r="69" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="32"/>
       <c r="C69" s="2"/>
@@ -47689,7 +47701,7 @@
       <c r="AM69" s="2"/>
       <c r="AN69" s="2"/>
     </row>
-    <row r="70" spans="1:40" ht="12.5" customHeight="1">
+    <row r="70" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="32"/>
       <c r="C70" s="2"/>
@@ -47731,7 +47743,7 @@
       <c r="AM70" s="2"/>
       <c r="AN70" s="2"/>
     </row>
-    <row r="71" spans="1:40" ht="12.5" customHeight="1">
+    <row r="71" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="32"/>
       <c r="C71" s="2"/>
@@ -47773,7 +47785,7 @@
       <c r="AM71" s="2"/>
       <c r="AN71" s="2"/>
     </row>
-    <row r="72" spans="1:40" ht="12.5" customHeight="1">
+    <row r="72" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="32"/>
       <c r="C72" s="2"/>
@@ -47815,7 +47827,7 @@
       <c r="AM72" s="2"/>
       <c r="AN72" s="2"/>
     </row>
-    <row r="73" spans="1:40" ht="12.5" customHeight="1">
+    <row r="73" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="32"/>
       <c r="C73" s="2"/>
@@ -47857,7 +47869,7 @@
       <c r="AM73" s="2"/>
       <c r="AN73" s="2"/>
     </row>
-    <row r="74" spans="1:40" ht="12.5" customHeight="1">
+    <row r="74" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="32"/>
       <c r="C74" s="2"/>
@@ -47899,7 +47911,7 @@
       <c r="AM74" s="2"/>
       <c r="AN74" s="2"/>
     </row>
-    <row r="75" spans="1:40" ht="12.5" customHeight="1">
+    <row r="75" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="32"/>
       <c r="C75" s="2"/>
@@ -47941,7 +47953,7 @@
       <c r="AM75" s="2"/>
       <c r="AN75" s="2"/>
     </row>
-    <row r="76" spans="1:40" ht="12.5" customHeight="1">
+    <row r="76" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="32"/>
       <c r="C76" s="2"/>
@@ -47983,7 +47995,7 @@
       <c r="AM76" s="2"/>
       <c r="AN76" s="2"/>
     </row>
-    <row r="77" spans="1:40" ht="12.5" customHeight="1">
+    <row r="77" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="32"/>
       <c r="C77" s="2"/>
@@ -48025,7 +48037,7 @@
       <c r="AM77" s="2"/>
       <c r="AN77" s="2"/>
     </row>
-    <row r="78" spans="1:40" ht="12.5" customHeight="1">
+    <row r="78" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="32"/>
       <c r="C78" s="2"/>
@@ -48067,7 +48079,7 @@
       <c r="AM78" s="2"/>
       <c r="AN78" s="2"/>
     </row>
-    <row r="79" spans="1:40" ht="12.5" customHeight="1">
+    <row r="79" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="32"/>
       <c r="C79" s="2"/>
@@ -48109,7 +48121,7 @@
       <c r="AM79" s="2"/>
       <c r="AN79" s="2"/>
     </row>
-    <row r="80" spans="1:40" ht="12.5" customHeight="1">
+    <row r="80" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="32"/>
       <c r="C80" s="2"/>
@@ -48151,7 +48163,7 @@
       <c r="AM80" s="2"/>
       <c r="AN80" s="2"/>
     </row>
-    <row r="81" spans="1:40" ht="12.5" customHeight="1">
+    <row r="81" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="32"/>
       <c r="C81" s="2"/>
@@ -48193,7 +48205,7 @@
       <c r="AM81" s="2"/>
       <c r="AN81" s="2"/>
     </row>
-    <row r="82" spans="1:40" ht="12.5" customHeight="1">
+    <row r="82" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="32"/>
       <c r="C82" s="2"/>
@@ -48235,7 +48247,7 @@
       <c r="AM82" s="2"/>
       <c r="AN82" s="2"/>
     </row>
-    <row r="83" spans="1:40" ht="12.5" customHeight="1">
+    <row r="83" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="32"/>
       <c r="C83" s="2"/>
@@ -48277,7 +48289,7 @@
       <c r="AM83" s="2"/>
       <c r="AN83" s="2"/>
     </row>
-    <row r="84" spans="1:40" ht="12.5" customHeight="1">
+    <row r="84" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="32"/>
       <c r="C84" s="2"/>
@@ -48319,7 +48331,7 @@
       <c r="AM84" s="2"/>
       <c r="AN84" s="2"/>
     </row>
-    <row r="85" spans="1:40" ht="12.5" customHeight="1">
+    <row r="85" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="32"/>
       <c r="C85" s="2"/>
@@ -48361,7 +48373,7 @@
       <c r="AM85" s="2"/>
       <c r="AN85" s="2"/>
     </row>
-    <row r="86" spans="1:40" ht="12.5" customHeight="1">
+    <row r="86" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="32"/>
       <c r="C86" s="2"/>
@@ -48403,7 +48415,7 @@
       <c r="AM86" s="2"/>
       <c r="AN86" s="2"/>
     </row>
-    <row r="87" spans="1:40" ht="12.5" customHeight="1">
+    <row r="87" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="32"/>
       <c r="C87" s="2"/>
@@ -48445,7 +48457,7 @@
       <c r="AM87" s="2"/>
       <c r="AN87" s="2"/>
     </row>
-    <row r="88" spans="1:40" ht="12.5" customHeight="1">
+    <row r="88" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="32"/>
       <c r="C88" s="2"/>
@@ -48487,7 +48499,7 @@
       <c r="AM88" s="2"/>
       <c r="AN88" s="2"/>
     </row>
-    <row r="89" spans="1:40" ht="12.5" customHeight="1">
+    <row r="89" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="32"/>
       <c r="C89" s="2"/>
@@ -48529,7 +48541,7 @@
       <c r="AM89" s="2"/>
       <c r="AN89" s="2"/>
     </row>
-    <row r="90" spans="1:40" ht="12.5" customHeight="1">
+    <row r="90" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="32"/>
       <c r="C90" s="2"/>
@@ -48571,7 +48583,7 @@
       <c r="AM90" s="2"/>
       <c r="AN90" s="2"/>
     </row>
-    <row r="91" spans="1:40" ht="12.5" customHeight="1">
+    <row r="91" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -48647,18 +48659,18 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.3984375" defaultRowHeight="12.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" style="33" customWidth="1"/>
-    <col min="3" max="24" width="12.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="33" customWidth="1"/>
+    <col min="3" max="24" width="12.1640625" style="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" customWidth="1"/>
-    <col min="26" max="26" width="10.59765625" style="1" customWidth="1"/>
-    <col min="27" max="40" width="12.3984375" style="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.3984375" style="1"/>
+    <col min="26" max="26" width="10.6640625" style="1" customWidth="1"/>
+    <col min="27" max="40" width="12.33203125" style="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="20" customHeight="1">
+    <row r="1" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
         <v>57</v>
       </c>
@@ -48666,7 +48678,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="2" spans="1:40" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
         <v>52</v>
       </c>
@@ -48674,7 +48686,7 @@
       <c r="I2" s="13"/>
       <c r="X2" s="14"/>
     </row>
-    <row r="3" spans="1:40" ht="50" customHeight="1">
+    <row r="3" spans="1:40" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="49" t="s">
         <v>51</v>
@@ -48724,7 +48736,7 @@
       </c>
       <c r="X3" s="100"/>
     </row>
-    <row r="4" spans="1:40" ht="44.25" customHeight="1">
+    <row r="4" spans="1:40" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="29" t="s">
@@ -48795,7 +48807,7 @@
       </c>
       <c r="Y4" s="11"/>
     </row>
-    <row r="5" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="5" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="71" t="s">
         <v>1</v>
       </c>
@@ -48885,7 +48897,7 @@
       <c r="AM5" s="8"/>
       <c r="AN5" s="8"/>
     </row>
-    <row r="6" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="6" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>23</v>
       </c>
@@ -48975,7 +48987,7 @@
       <c r="AM6" s="8"/>
       <c r="AN6" s="8"/>
     </row>
-    <row r="7" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="7" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
         <v>26</v>
       </c>
@@ -49065,7 +49077,7 @@
       <c r="AM7" s="8"/>
       <c r="AN7" s="8"/>
     </row>
-    <row r="8" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="8" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
         <v>25</v>
       </c>
@@ -49155,7 +49167,7 @@
       <c r="AM8" s="8"/>
       <c r="AN8" s="8"/>
     </row>
-    <row r="9" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="9" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
         <v>24</v>
       </c>
@@ -49245,7 +49257,7 @@
       <c r="AM9" s="8"/>
       <c r="AN9" s="8"/>
     </row>
-    <row r="10" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="10" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>19</v>
       </c>
@@ -49335,7 +49347,7 @@
       <c r="AM10" s="8"/>
       <c r="AN10" s="8"/>
     </row>
-    <row r="11" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="11" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>3</v>
       </c>
@@ -49425,7 +49437,7 @@
       <c r="AM11" s="8"/>
       <c r="AN11" s="8"/>
     </row>
-    <row r="12" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="12" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>27</v>
       </c>
@@ -49515,7 +49527,7 @@
       <c r="AM12" s="8"/>
       <c r="AN12" s="8"/>
     </row>
-    <row r="13" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="13" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>11</v>
       </c>
@@ -49605,7 +49617,7 @@
       <c r="AM13" s="8"/>
       <c r="AN13" s="8"/>
     </row>
-    <row r="14" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="14" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>28</v>
       </c>
@@ -49695,7 +49707,7 @@
       <c r="AM14" s="8"/>
       <c r="AN14" s="8"/>
     </row>
-    <row r="15" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="15" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>18</v>
       </c>
@@ -49785,7 +49797,7 @@
       <c r="AM15" s="8"/>
       <c r="AN15" s="8"/>
     </row>
-    <row r="16" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="16" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>20</v>
       </c>
@@ -49875,7 +49887,7 @@
       <c r="AM16" s="8"/>
       <c r="AN16" s="8"/>
     </row>
-    <row r="17" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="17" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>12</v>
       </c>
@@ -49965,7 +49977,7 @@
       <c r="AM17" s="8"/>
       <c r="AN17" s="8"/>
     </row>
-    <row r="18" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="18" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
         <v>13</v>
       </c>
@@ -50055,7 +50067,7 @@
       <c r="AM18" s="8"/>
       <c r="AN18" s="8"/>
     </row>
-    <row r="19" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="19" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
         <v>16</v>
       </c>
@@ -50145,7 +50157,7 @@
       <c r="AM19" s="8"/>
       <c r="AN19" s="8"/>
     </row>
-    <row r="20" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="20" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
         <v>2</v>
       </c>
@@ -50235,7 +50247,7 @@
       <c r="AM20" s="8"/>
       <c r="AN20" s="8"/>
     </row>
-    <row r="21" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="21" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
         <v>21</v>
       </c>
@@ -50325,7 +50337,7 @@
       <c r="AM21" s="8"/>
       <c r="AN21" s="8"/>
     </row>
-    <row r="22" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="22" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37" t="s">
         <v>9</v>
       </c>
@@ -50415,7 +50427,7 @@
       <c r="AM22" s="8"/>
       <c r="AN22" s="8"/>
     </row>
-    <row r="23" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="23" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="37" t="s">
         <v>14</v>
       </c>
@@ -50505,7 +50517,7 @@
       <c r="AM23" s="8"/>
       <c r="AN23" s="8"/>
     </row>
-    <row r="24" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="24" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="37" t="s">
         <v>30</v>
       </c>
@@ -50595,7 +50607,7 @@
       <c r="AM24" s="8"/>
       <c r="AN24" s="8"/>
     </row>
-    <row r="25" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="25" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37" t="s">
         <v>31</v>
       </c>
@@ -50685,7 +50697,7 @@
       <c r="AM25" s="8"/>
       <c r="AN25" s="8"/>
     </row>
-    <row r="26" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="26" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="37" t="s">
         <v>32</v>
       </c>
@@ -50775,7 +50787,7 @@
       <c r="AM26" s="8"/>
       <c r="AN26" s="8"/>
     </row>
-    <row r="27" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="27" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="37" t="s">
         <v>15</v>
       </c>
@@ -50865,7 +50877,7 @@
       <c r="AM27" s="8"/>
       <c r="AN27" s="8"/>
     </row>
-    <row r="28" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="28" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="37" t="s">
         <v>17</v>
       </c>
@@ -50955,7 +50967,7 @@
       <c r="AM28" s="8"/>
       <c r="AN28" s="8"/>
     </row>
-    <row r="29" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="29" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="37" t="s">
         <v>22</v>
       </c>
@@ -51045,7 +51057,7 @@
       <c r="AM29" s="8"/>
       <c r="AN29" s="8"/>
     </row>
-    <row r="30" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="30" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="37" t="s">
         <v>4</v>
       </c>
@@ -51135,7 +51147,7 @@
       <c r="AM30" s="8"/>
       <c r="AN30" s="8"/>
     </row>
-    <row r="31" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="31" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37" t="s">
         <v>5</v>
       </c>
@@ -51225,7 +51237,7 @@
       <c r="AM31" s="8"/>
       <c r="AN31" s="8"/>
     </row>
-    <row r="32" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="32" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="37" t="s">
         <v>6</v>
       </c>
@@ -51315,7 +51327,7 @@
       <c r="AM32" s="8"/>
       <c r="AN32" s="8"/>
     </row>
-    <row r="33" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="33" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="37" t="s">
         <v>7</v>
       </c>
@@ -51405,7 +51417,7 @@
       <c r="AM33" s="8"/>
       <c r="AN33" s="8"/>
     </row>
-    <row r="34" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="34" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="37" t="s">
         <v>8</v>
       </c>
@@ -51495,7 +51507,7 @@
       <c r="AM34" s="8"/>
       <c r="AN34" s="8"/>
     </row>
-    <row r="35" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="35" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="37" t="s">
         <v>10</v>
       </c>
@@ -51585,7 +51597,7 @@
       <c r="AM35" s="8"/>
       <c r="AN35" s="8"/>
     </row>
-    <row r="36" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="36" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="34" t="s">
         <v>29</v>
       </c>
@@ -51675,7 +51687,7 @@
       <c r="AM36" s="8"/>
       <c r="AN36" s="8"/>
     </row>
-    <row r="37" spans="1:40" s="9" customFormat="1" ht="6" customHeight="1">
+    <row r="37" spans="1:40" s="9" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="78"/>
       <c r="C37" s="42"/>
       <c r="D37" s="79"/>
@@ -51716,7 +51728,7 @@
       <c r="AM37" s="8"/>
       <c r="AN37" s="8"/>
     </row>
-    <row r="38" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="38" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="95" t="s">
         <v>69</v>
       </c>
@@ -51760,7 +51772,7 @@
       <c r="AM38" s="8"/>
       <c r="AN38" s="8"/>
     </row>
-    <row r="39" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="39" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="82" t="s">
         <v>42</v>
       </c>
@@ -51804,7 +51816,7 @@
       <c r="AM39" s="8"/>
       <c r="AN39" s="8"/>
     </row>
-    <row r="40" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="40" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="97" t="s">
         <v>67</v>
       </c>
@@ -51848,7 +51860,7 @@
       <c r="AM40" s="8"/>
       <c r="AN40" s="8"/>
     </row>
-    <row r="41" spans="1:40" ht="12.75" customHeight="1">
+    <row r="41" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
         <v>49</v>
       </c>
@@ -51892,7 +51904,7 @@
       <c r="AM41" s="2"/>
       <c r="AN41" s="2"/>
     </row>
-    <row r="42" spans="1:40" ht="12.75" customHeight="1">
+    <row r="42" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="24" t="s">
         <v>50</v>
       </c>
@@ -51936,7 +51948,7 @@
       <c r="AM42" s="2"/>
       <c r="AN42" s="2"/>
     </row>
-    <row r="43" spans="1:40" ht="12.75" customHeight="1">
+    <row r="43" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="86" t="s">
         <v>65</v>
       </c>
@@ -51976,7 +51988,7 @@
       <c r="AM43" s="2"/>
       <c r="AN43" s="2"/>
     </row>
-    <row r="44" spans="1:40" ht="12.75" customHeight="1">
+    <row r="44" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="86" t="s">
         <v>40</v>
       </c>
@@ -52016,7 +52028,7 @@
       <c r="AM44" s="2"/>
       <c r="AN44" s="2"/>
     </row>
-    <row r="45" spans="1:40" ht="12.75" customHeight="1">
+    <row r="45" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="86"/>
       <c r="B45" s="32"/>
       <c r="C45" s="5"/>
@@ -52054,7 +52066,7 @@
       <c r="AM45" s="2"/>
       <c r="AN45" s="2"/>
     </row>
-    <row r="46" spans="1:40" ht="12.75" customHeight="1">
+    <row r="46" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="90" t="s">
         <v>41</v>
       </c>
@@ -52098,7 +52110,7 @@
       <c r="AM46" s="2"/>
       <c r="AN46" s="2"/>
     </row>
-    <row r="47" spans="1:40" ht="12.5" customHeight="1">
+    <row r="47" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="32"/>
       <c r="C47" s="2"/>
@@ -52140,7 +52152,7 @@
       <c r="AM47" s="2"/>
       <c r="AN47" s="2"/>
     </row>
-    <row r="48" spans="1:40" ht="12.5" customHeight="1">
+    <row r="48" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="32"/>
       <c r="C48" s="2"/>
@@ -52182,7 +52194,7 @@
       <c r="AM48" s="2"/>
       <c r="AN48" s="2"/>
     </row>
-    <row r="49" spans="1:40" ht="12.5" customHeight="1">
+    <row r="49" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="32"/>
       <c r="C49" s="2"/>
@@ -52224,7 +52236,7 @@
       <c r="AM49" s="2"/>
       <c r="AN49" s="2"/>
     </row>
-    <row r="50" spans="1:40" ht="12.5" customHeight="1">
+    <row r="50" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="32"/>
       <c r="C50" s="2"/>
@@ -52266,7 +52278,7 @@
       <c r="AM50" s="2"/>
       <c r="AN50" s="2"/>
     </row>
-    <row r="51" spans="1:40" ht="12.5" customHeight="1">
+    <row r="51" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="32"/>
       <c r="C51" s="2"/>
@@ -52308,7 +52320,7 @@
       <c r="AM51" s="2"/>
       <c r="AN51" s="2"/>
     </row>
-    <row r="52" spans="1:40" ht="12.5" customHeight="1">
+    <row r="52" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="32"/>
       <c r="C52" s="2"/>
@@ -52350,7 +52362,7 @@
       <c r="AM52" s="2"/>
       <c r="AN52" s="2"/>
     </row>
-    <row r="53" spans="1:40" ht="12.5" customHeight="1">
+    <row r="53" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="32"/>
       <c r="C53" s="2"/>
@@ -52392,7 +52404,7 @@
       <c r="AM53" s="2"/>
       <c r="AN53" s="2"/>
     </row>
-    <row r="54" spans="1:40" ht="12.5" customHeight="1">
+    <row r="54" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="32"/>
       <c r="C54" s="2"/>
@@ -52434,7 +52446,7 @@
       <c r="AM54" s="2"/>
       <c r="AN54" s="2"/>
     </row>
-    <row r="55" spans="1:40" ht="12.5" customHeight="1">
+    <row r="55" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="32"/>
       <c r="C55" s="2"/>
@@ -52476,7 +52488,7 @@
       <c r="AM55" s="2"/>
       <c r="AN55" s="2"/>
     </row>
-    <row r="56" spans="1:40" ht="12.5" customHeight="1">
+    <row r="56" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="32"/>
       <c r="C56" s="2"/>
@@ -52518,7 +52530,7 @@
       <c r="AM56" s="2"/>
       <c r="AN56" s="2"/>
     </row>
-    <row r="57" spans="1:40" ht="12.5" customHeight="1">
+    <row r="57" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="32"/>
       <c r="C57" s="2"/>
@@ -52560,7 +52572,7 @@
       <c r="AM57" s="2"/>
       <c r="AN57" s="2"/>
     </row>
-    <row r="58" spans="1:40" ht="12.5" customHeight="1">
+    <row r="58" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="32"/>
       <c r="C58" s="2"/>
@@ -52602,7 +52614,7 @@
       <c r="AM58" s="2"/>
       <c r="AN58" s="2"/>
     </row>
-    <row r="59" spans="1:40" ht="12.5" customHeight="1">
+    <row r="59" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="32"/>
       <c r="C59" s="2"/>
@@ -52644,7 +52656,7 @@
       <c r="AM59" s="2"/>
       <c r="AN59" s="2"/>
     </row>
-    <row r="60" spans="1:40" ht="12.5" customHeight="1">
+    <row r="60" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="32"/>
       <c r="C60" s="2"/>
@@ -52686,7 +52698,7 @@
       <c r="AM60" s="2"/>
       <c r="AN60" s="2"/>
     </row>
-    <row r="61" spans="1:40" ht="12.5" customHeight="1">
+    <row r="61" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="32"/>
       <c r="C61" s="2"/>
@@ -52728,7 +52740,7 @@
       <c r="AM61" s="2"/>
       <c r="AN61" s="2"/>
     </row>
-    <row r="62" spans="1:40" ht="12.5" customHeight="1">
+    <row r="62" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="32"/>
       <c r="C62" s="2"/>
@@ -52770,7 +52782,7 @@
       <c r="AM62" s="2"/>
       <c r="AN62" s="2"/>
     </row>
-    <row r="63" spans="1:40" ht="12.5" customHeight="1">
+    <row r="63" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="32"/>
       <c r="C63" s="2"/>
@@ -52812,7 +52824,7 @@
       <c r="AM63" s="2"/>
       <c r="AN63" s="2"/>
     </row>
-    <row r="64" spans="1:40" ht="12.5" customHeight="1">
+    <row r="64" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="32"/>
       <c r="C64" s="2"/>
@@ -52854,7 +52866,7 @@
       <c r="AM64" s="2"/>
       <c r="AN64" s="2"/>
     </row>
-    <row r="65" spans="1:40" ht="12.5" customHeight="1">
+    <row r="65" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="32"/>
       <c r="C65" s="2"/>
@@ -52896,7 +52908,7 @@
       <c r="AM65" s="2"/>
       <c r="AN65" s="2"/>
     </row>
-    <row r="66" spans="1:40" ht="12.5" customHeight="1">
+    <row r="66" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="32"/>
       <c r="C66" s="2"/>
@@ -52938,7 +52950,7 @@
       <c r="AM66" s="2"/>
       <c r="AN66" s="2"/>
     </row>
-    <row r="67" spans="1:40" ht="12.5" customHeight="1">
+    <row r="67" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="32"/>
       <c r="C67" s="2"/>
@@ -52980,7 +52992,7 @@
       <c r="AM67" s="2"/>
       <c r="AN67" s="2"/>
     </row>
-    <row r="68" spans="1:40" ht="12.5" customHeight="1">
+    <row r="68" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="32"/>
       <c r="C68" s="2"/>
@@ -53022,7 +53034,7 @@
       <c r="AM68" s="2"/>
       <c r="AN68" s="2"/>
     </row>
-    <row r="69" spans="1:40" ht="12.5" customHeight="1">
+    <row r="69" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="32"/>
       <c r="C69" s="2"/>
@@ -53064,7 +53076,7 @@
       <c r="AM69" s="2"/>
       <c r="AN69" s="2"/>
     </row>
-    <row r="70" spans="1:40" ht="12.5" customHeight="1">
+    <row r="70" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="32"/>
       <c r="C70" s="2"/>
@@ -53106,7 +53118,7 @@
       <c r="AM70" s="2"/>
       <c r="AN70" s="2"/>
     </row>
-    <row r="71" spans="1:40" ht="12.5" customHeight="1">
+    <row r="71" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="32"/>
       <c r="C71" s="2"/>
@@ -53148,7 +53160,7 @@
       <c r="AM71" s="2"/>
       <c r="AN71" s="2"/>
     </row>
-    <row r="72" spans="1:40" ht="12.5" customHeight="1">
+    <row r="72" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="32"/>
       <c r="C72" s="2"/>
@@ -53190,7 +53202,7 @@
       <c r="AM72" s="2"/>
       <c r="AN72" s="2"/>
     </row>
-    <row r="73" spans="1:40" ht="12.5" customHeight="1">
+    <row r="73" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="32"/>
       <c r="C73" s="2"/>
@@ -53232,7 +53244,7 @@
       <c r="AM73" s="2"/>
       <c r="AN73" s="2"/>
     </row>
-    <row r="74" spans="1:40" ht="12.5" customHeight="1">
+    <row r="74" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="32"/>
       <c r="C74" s="2"/>
@@ -53274,7 +53286,7 @@
       <c r="AM74" s="2"/>
       <c r="AN74" s="2"/>
     </row>
-    <row r="75" spans="1:40" ht="12.5" customHeight="1">
+    <row r="75" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="32"/>
       <c r="C75" s="2"/>
@@ -53316,7 +53328,7 @@
       <c r="AM75" s="2"/>
       <c r="AN75" s="2"/>
     </row>
-    <row r="76" spans="1:40" ht="12.5" customHeight="1">
+    <row r="76" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="32"/>
       <c r="C76" s="2"/>
@@ -53358,7 +53370,7 @@
       <c r="AM76" s="2"/>
       <c r="AN76" s="2"/>
     </row>
-    <row r="77" spans="1:40" ht="12.5" customHeight="1">
+    <row r="77" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="32"/>
       <c r="C77" s="2"/>
@@ -53400,7 +53412,7 @@
       <c r="AM77" s="2"/>
       <c r="AN77" s="2"/>
     </row>
-    <row r="78" spans="1:40" ht="12.5" customHeight="1">
+    <row r="78" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="32"/>
       <c r="C78" s="2"/>
@@ -53442,7 +53454,7 @@
       <c r="AM78" s="2"/>
       <c r="AN78" s="2"/>
     </row>
-    <row r="79" spans="1:40" ht="12.5" customHeight="1">
+    <row r="79" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="32"/>
       <c r="C79" s="2"/>
@@ -53484,7 +53496,7 @@
       <c r="AM79" s="2"/>
       <c r="AN79" s="2"/>
     </row>
-    <row r="80" spans="1:40" ht="12.5" customHeight="1">
+    <row r="80" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="32"/>
       <c r="C80" s="2"/>
@@ -53526,7 +53538,7 @@
       <c r="AM80" s="2"/>
       <c r="AN80" s="2"/>
     </row>
-    <row r="81" spans="1:40" ht="12.5" customHeight="1">
+    <row r="81" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="32"/>
       <c r="C81" s="2"/>
@@ -53568,7 +53580,7 @@
       <c r="AM81" s="2"/>
       <c r="AN81" s="2"/>
     </row>
-    <row r="82" spans="1:40" ht="12.5" customHeight="1">
+    <row r="82" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="32"/>
       <c r="C82" s="2"/>
@@ -53610,7 +53622,7 @@
       <c r="AM82" s="2"/>
       <c r="AN82" s="2"/>
     </row>
-    <row r="83" spans="1:40" ht="12.5" customHeight="1">
+    <row r="83" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="32"/>
       <c r="C83" s="2"/>
@@ -53652,7 +53664,7 @@
       <c r="AM83" s="2"/>
       <c r="AN83" s="2"/>
     </row>
-    <row r="84" spans="1:40" ht="12.5" customHeight="1">
+    <row r="84" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="32"/>
       <c r="C84" s="2"/>
@@ -53694,7 +53706,7 @@
       <c r="AM84" s="2"/>
       <c r="AN84" s="2"/>
     </row>
-    <row r="85" spans="1:40" ht="12.5" customHeight="1">
+    <row r="85" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="32"/>
       <c r="C85" s="2"/>
@@ -53736,7 +53748,7 @@
       <c r="AM85" s="2"/>
       <c r="AN85" s="2"/>
     </row>
-    <row r="86" spans="1:40" ht="12.5" customHeight="1">
+    <row r="86" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="32"/>
       <c r="C86" s="2"/>
@@ -53778,7 +53790,7 @@
       <c r="AM86" s="2"/>
       <c r="AN86" s="2"/>
     </row>
-    <row r="87" spans="1:40" ht="12.5" customHeight="1">
+    <row r="87" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="32"/>
       <c r="C87" s="2"/>
@@ -53820,7 +53832,7 @@
       <c r="AM87" s="2"/>
       <c r="AN87" s="2"/>
     </row>
-    <row r="88" spans="1:40" ht="12.5" customHeight="1">
+    <row r="88" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="32"/>
       <c r="C88" s="2"/>
@@ -53862,7 +53874,7 @@
       <c r="AM88" s="2"/>
       <c r="AN88" s="2"/>
     </row>
-    <row r="89" spans="1:40" ht="12.5" customHeight="1">
+    <row r="89" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="32"/>
       <c r="C89" s="2"/>
@@ -53904,7 +53916,7 @@
       <c r="AM89" s="2"/>
       <c r="AN89" s="2"/>
     </row>
-    <row r="90" spans="1:40" ht="12.5" customHeight="1">
+    <row r="90" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="32"/>
       <c r="C90" s="2"/>
@@ -53946,7 +53958,7 @@
       <c r="AM90" s="2"/>
       <c r="AN90" s="2"/>
     </row>
-    <row r="91" spans="1:40" ht="12.5" customHeight="1">
+    <row r="91" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="32"/>
       <c r="C91" s="2"/>
@@ -53988,7 +54000,7 @@
       <c r="AM91" s="2"/>
       <c r="AN91" s="2"/>
     </row>
-    <row r="92" spans="1:40" ht="12.5" customHeight="1">
+    <row r="92" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -54064,18 +54076,18 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.3984375" defaultRowHeight="12.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" style="33" customWidth="1"/>
-    <col min="3" max="24" width="12.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="33" customWidth="1"/>
+    <col min="3" max="24" width="12.1640625" style="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" customWidth="1"/>
-    <col min="26" max="26" width="10.59765625" style="1" customWidth="1"/>
-    <col min="27" max="40" width="12.3984375" style="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.3984375" style="1"/>
+    <col min="26" max="26" width="10.6640625" style="1" customWidth="1"/>
+    <col min="27" max="40" width="12.33203125" style="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="20" customHeight="1">
+    <row r="1" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
         <v>58</v>
       </c>
@@ -54083,7 +54095,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="2" spans="1:40" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
         <v>52</v>
       </c>
@@ -54091,7 +54103,7 @@
       <c r="I2" s="13"/>
       <c r="X2" s="14"/>
     </row>
-    <row r="3" spans="1:40" ht="50" customHeight="1">
+    <row r="3" spans="1:40" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="49" t="s">
         <v>51</v>
@@ -54141,7 +54153,7 @@
       </c>
       <c r="X3" s="100"/>
     </row>
-    <row r="4" spans="1:40" ht="44.25" customHeight="1">
+    <row r="4" spans="1:40" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="29" t="s">
@@ -54212,7 +54224,7 @@
       </c>
       <c r="Y4" s="11"/>
     </row>
-    <row r="5" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="5" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="71" t="s">
         <v>1</v>
       </c>
@@ -54302,7 +54314,7 @@
       <c r="AM5" s="8"/>
       <c r="AN5" s="8"/>
     </row>
-    <row r="6" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="6" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>23</v>
       </c>
@@ -54392,7 +54404,7 @@
       <c r="AM6" s="8"/>
       <c r="AN6" s="8"/>
     </row>
-    <row r="7" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="7" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
         <v>26</v>
       </c>
@@ -54482,7 +54494,7 @@
       <c r="AM7" s="8"/>
       <c r="AN7" s="8"/>
     </row>
-    <row r="8" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="8" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
         <v>25</v>
       </c>
@@ -54572,7 +54584,7 @@
       <c r="AM8" s="8"/>
       <c r="AN8" s="8"/>
     </row>
-    <row r="9" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="9" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
         <v>24</v>
       </c>
@@ -54662,7 +54674,7 @@
       <c r="AM9" s="8"/>
       <c r="AN9" s="8"/>
     </row>
-    <row r="10" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="10" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>19</v>
       </c>
@@ -54752,7 +54764,7 @@
       <c r="AM10" s="8"/>
       <c r="AN10" s="8"/>
     </row>
-    <row r="11" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="11" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>3</v>
       </c>
@@ -54842,7 +54854,7 @@
       <c r="AM11" s="8"/>
       <c r="AN11" s="8"/>
     </row>
-    <row r="12" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="12" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>27</v>
       </c>
@@ -54932,7 +54944,7 @@
       <c r="AM12" s="8"/>
       <c r="AN12" s="8"/>
     </row>
-    <row r="13" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="13" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>11</v>
       </c>
@@ -55022,7 +55034,7 @@
       <c r="AM13" s="8"/>
       <c r="AN13" s="8"/>
     </row>
-    <row r="14" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="14" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>28</v>
       </c>
@@ -55112,7 +55124,7 @@
       <c r="AM14" s="8"/>
       <c r="AN14" s="8"/>
     </row>
-    <row r="15" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="15" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>18</v>
       </c>
@@ -55202,7 +55214,7 @@
       <c r="AM15" s="8"/>
       <c r="AN15" s="8"/>
     </row>
-    <row r="16" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="16" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>20</v>
       </c>
@@ -55292,7 +55304,7 @@
       <c r="AM16" s="8"/>
       <c r="AN16" s="8"/>
     </row>
-    <row r="17" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="17" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>12</v>
       </c>
@@ -55382,7 +55394,7 @@
       <c r="AM17" s="8"/>
       <c r="AN17" s="8"/>
     </row>
-    <row r="18" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="18" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
         <v>13</v>
       </c>
@@ -55472,7 +55484,7 @@
       <c r="AM18" s="8"/>
       <c r="AN18" s="8"/>
     </row>
-    <row r="19" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="19" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
         <v>16</v>
       </c>
@@ -55562,7 +55574,7 @@
       <c r="AM19" s="8"/>
       <c r="AN19" s="8"/>
     </row>
-    <row r="20" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="20" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
         <v>2</v>
       </c>
@@ -55652,7 +55664,7 @@
       <c r="AM20" s="8"/>
       <c r="AN20" s="8"/>
     </row>
-    <row r="21" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="21" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
         <v>21</v>
       </c>
@@ -55742,7 +55754,7 @@
       <c r="AM21" s="8"/>
       <c r="AN21" s="8"/>
     </row>
-    <row r="22" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="22" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37" t="s">
         <v>9</v>
       </c>
@@ -55832,7 +55844,7 @@
       <c r="AM22" s="8"/>
       <c r="AN22" s="8"/>
     </row>
-    <row r="23" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="23" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="37" t="s">
         <v>14</v>
       </c>
@@ -55922,7 +55934,7 @@
       <c r="AM23" s="8"/>
       <c r="AN23" s="8"/>
     </row>
-    <row r="24" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="24" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="37" t="s">
         <v>30</v>
       </c>
@@ -56012,7 +56024,7 @@
       <c r="AM24" s="8"/>
       <c r="AN24" s="8"/>
     </row>
-    <row r="25" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="25" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37" t="s">
         <v>31</v>
       </c>
@@ -56102,7 +56114,7 @@
       <c r="AM25" s="8"/>
       <c r="AN25" s="8"/>
     </row>
-    <row r="26" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="26" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="37" t="s">
         <v>32</v>
       </c>
@@ -56192,7 +56204,7 @@
       <c r="AM26" s="8"/>
       <c r="AN26" s="8"/>
     </row>
-    <row r="27" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="27" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="37" t="s">
         <v>15</v>
       </c>
@@ -56282,7 +56294,7 @@
       <c r="AM27" s="8"/>
       <c r="AN27" s="8"/>
     </row>
-    <row r="28" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="28" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="37" t="s">
         <v>17</v>
       </c>
@@ -56372,7 +56384,7 @@
       <c r="AM28" s="8"/>
       <c r="AN28" s="8"/>
     </row>
-    <row r="29" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="29" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="37" t="s">
         <v>22</v>
       </c>
@@ -56462,7 +56474,7 @@
       <c r="AM29" s="8"/>
       <c r="AN29" s="8"/>
     </row>
-    <row r="30" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="30" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="37" t="s">
         <v>4</v>
       </c>
@@ -56552,7 +56564,7 @@
       <c r="AM30" s="8"/>
       <c r="AN30" s="8"/>
     </row>
-    <row r="31" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="31" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37" t="s">
         <v>5</v>
       </c>
@@ -56642,7 +56654,7 @@
       <c r="AM31" s="8"/>
       <c r="AN31" s="8"/>
     </row>
-    <row r="32" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="32" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="37" t="s">
         <v>6</v>
       </c>
@@ -56732,7 +56744,7 @@
       <c r="AM32" s="8"/>
       <c r="AN32" s="8"/>
     </row>
-    <row r="33" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="33" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="37" t="s">
         <v>7</v>
       </c>
@@ -56822,7 +56834,7 @@
       <c r="AM33" s="8"/>
       <c r="AN33" s="8"/>
     </row>
-    <row r="34" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="34" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="37" t="s">
         <v>8</v>
       </c>
@@ -56912,7 +56924,7 @@
       <c r="AM34" s="8"/>
       <c r="AN34" s="8"/>
     </row>
-    <row r="35" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="35" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="37" t="s">
         <v>10</v>
       </c>
@@ -57002,7 +57014,7 @@
       <c r="AM35" s="8"/>
       <c r="AN35" s="8"/>
     </row>
-    <row r="36" spans="1:40" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="36" spans="1:40" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="34" t="s">
         <v>29</v>
       </c>
@@ -57092,7 +57104,7 @@
       <c r="AM36" s="8"/>
       <c r="AN36" s="8"/>
     </row>
-    <row r="37" spans="1:40" s="9" customFormat="1" ht="6" customHeight="1">
+    <row r="37" spans="1:40" s="9" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="78"/>
       <c r="C37" s="42"/>
       <c r="D37" s="79"/>
@@ -57133,7 +57145,7 @@
       <c r="AM37" s="8"/>
       <c r="AN37" s="8"/>
     </row>
-    <row r="38" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="38" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="95" t="s">
         <v>69</v>
       </c>
@@ -57177,7 +57189,7 @@
       <c r="AM38" s="8"/>
       <c r="AN38" s="8"/>
     </row>
-    <row r="39" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="39" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="82" t="s">
         <v>42</v>
       </c>
@@ -57221,7 +57233,7 @@
       <c r="AM39" s="8"/>
       <c r="AN39" s="8"/>
     </row>
-    <row r="40" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="40" spans="1:40" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="97" t="s">
         <v>67</v>
       </c>
@@ -57265,7 +57277,7 @@
       <c r="AM40" s="8"/>
       <c r="AN40" s="8"/>
     </row>
-    <row r="41" spans="1:40" ht="12.75" customHeight="1">
+    <row r="41" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
         <v>49</v>
       </c>
@@ -57309,7 +57321,7 @@
       <c r="AM41" s="2"/>
       <c r="AN41" s="2"/>
     </row>
-    <row r="42" spans="1:40" ht="12.75" customHeight="1">
+    <row r="42" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="24" t="s">
         <v>50</v>
       </c>
@@ -57353,7 +57365,7 @@
       <c r="AM42" s="2"/>
       <c r="AN42" s="2"/>
     </row>
-    <row r="43" spans="1:40" ht="12.75" customHeight="1">
+    <row r="43" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="86" t="s">
         <v>65</v>
       </c>
@@ -57393,7 +57405,7 @@
       <c r="AM43" s="2"/>
       <c r="AN43" s="2"/>
     </row>
-    <row r="44" spans="1:40" ht="12.75" customHeight="1">
+    <row r="44" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="86" t="s">
         <v>40</v>
       </c>
@@ -57433,7 +57445,7 @@
       <c r="AM44" s="2"/>
       <c r="AN44" s="2"/>
     </row>
-    <row r="45" spans="1:40" ht="12.75" customHeight="1">
+    <row r="45" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="86"/>
       <c r="B45" s="32"/>
       <c r="C45" s="2"/>
@@ -57475,7 +57487,7 @@
       <c r="AM45" s="2"/>
       <c r="AN45" s="2"/>
     </row>
-    <row r="46" spans="1:40" ht="12.5" customHeight="1">
+    <row r="46" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="90" t="s">
         <v>41</v>
       </c>
@@ -57519,7 +57531,7 @@
       <c r="AM46" s="2"/>
       <c r="AN46" s="2"/>
     </row>
-    <row r="47" spans="1:40" ht="12.5" customHeight="1">
+    <row r="47" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="32"/>
       <c r="C47" s="2"/>
@@ -57561,7 +57573,7 @@
       <c r="AM47" s="2"/>
       <c r="AN47" s="2"/>
     </row>
-    <row r="48" spans="1:40" ht="12.5" customHeight="1">
+    <row r="48" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="32"/>
       <c r="C48" s="2"/>
@@ -57603,7 +57615,7 @@
       <c r="AM48" s="2"/>
       <c r="AN48" s="2"/>
     </row>
-    <row r="49" spans="1:40" ht="12.5" customHeight="1">
+    <row r="49" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="32"/>
       <c r="C49" s="2"/>
@@ -57645,7 +57657,7 @@
       <c r="AM49" s="2"/>
       <c r="AN49" s="2"/>
     </row>
-    <row r="50" spans="1:40" ht="12.5" customHeight="1">
+    <row r="50" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="32"/>
       <c r="C50" s="2"/>
@@ -57687,7 +57699,7 @@
       <c r="AM50" s="2"/>
       <c r="AN50" s="2"/>
     </row>
-    <row r="51" spans="1:40" ht="12.5" customHeight="1">
+    <row r="51" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="32"/>
       <c r="C51" s="2"/>
@@ -57729,7 +57741,7 @@
       <c r="AM51" s="2"/>
       <c r="AN51" s="2"/>
     </row>
-    <row r="52" spans="1:40" ht="12.5" customHeight="1">
+    <row r="52" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="32"/>
       <c r="C52" s="2"/>
@@ -57771,7 +57783,7 @@
       <c r="AM52" s="2"/>
       <c r="AN52" s="2"/>
     </row>
-    <row r="53" spans="1:40" ht="12.5" customHeight="1">
+    <row r="53" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="32"/>
       <c r="C53" s="2"/>
@@ -57813,7 +57825,7 @@
       <c r="AM53" s="2"/>
       <c r="AN53" s="2"/>
     </row>
-    <row r="54" spans="1:40" ht="12.5" customHeight="1">
+    <row r="54" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="32"/>
       <c r="C54" s="2"/>
@@ -57855,7 +57867,7 @@
       <c r="AM54" s="2"/>
       <c r="AN54" s="2"/>
     </row>
-    <row r="55" spans="1:40" ht="12.5" customHeight="1">
+    <row r="55" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="32"/>
       <c r="C55" s="2"/>
@@ -57897,7 +57909,7 @@
       <c r="AM55" s="2"/>
       <c r="AN55" s="2"/>
     </row>
-    <row r="56" spans="1:40" ht="12.5" customHeight="1">
+    <row r="56" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="32"/>
       <c r="C56" s="2"/>
@@ -57939,7 +57951,7 @@
       <c r="AM56" s="2"/>
       <c r="AN56" s="2"/>
     </row>
-    <row r="57" spans="1:40" ht="12.5" customHeight="1">
+    <row r="57" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="32"/>
       <c r="C57" s="2"/>
@@ -57981,7 +57993,7 @@
       <c r="AM57" s="2"/>
       <c r="AN57" s="2"/>
     </row>
-    <row r="58" spans="1:40" ht="12.5" customHeight="1">
+    <row r="58" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="32"/>
       <c r="C58" s="2"/>
@@ -58023,7 +58035,7 @@
       <c r="AM58" s="2"/>
       <c r="AN58" s="2"/>
     </row>
-    <row r="59" spans="1:40" ht="12.5" customHeight="1">
+    <row r="59" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="32"/>
       <c r="C59" s="2"/>
@@ -58065,7 +58077,7 @@
       <c r="AM59" s="2"/>
       <c r="AN59" s="2"/>
     </row>
-    <row r="60" spans="1:40" ht="12.5" customHeight="1">
+    <row r="60" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="32"/>
       <c r="C60" s="2"/>
@@ -58107,7 +58119,7 @@
       <c r="AM60" s="2"/>
       <c r="AN60" s="2"/>
     </row>
-    <row r="61" spans="1:40" ht="12.5" customHeight="1">
+    <row r="61" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="32"/>
       <c r="C61" s="2"/>
@@ -58149,7 +58161,7 @@
       <c r="AM61" s="2"/>
       <c r="AN61" s="2"/>
     </row>
-    <row r="62" spans="1:40" ht="12.5" customHeight="1">
+    <row r="62" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="32"/>
       <c r="C62" s="2"/>
@@ -58191,7 +58203,7 @@
       <c r="AM62" s="2"/>
       <c r="AN62" s="2"/>
     </row>
-    <row r="63" spans="1:40" ht="12.5" customHeight="1">
+    <row r="63" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="32"/>
       <c r="C63" s="2"/>
@@ -58233,7 +58245,7 @@
       <c r="AM63" s="2"/>
       <c r="AN63" s="2"/>
     </row>
-    <row r="64" spans="1:40" ht="12.5" customHeight="1">
+    <row r="64" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="32"/>
       <c r="C64" s="2"/>
@@ -58275,7 +58287,7 @@
       <c r="AM64" s="2"/>
       <c r="AN64" s="2"/>
     </row>
-    <row r="65" spans="1:40" ht="12.5" customHeight="1">
+    <row r="65" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="32"/>
       <c r="C65" s="2"/>
@@ -58317,7 +58329,7 @@
       <c r="AM65" s="2"/>
       <c r="AN65" s="2"/>
     </row>
-    <row r="66" spans="1:40" ht="12.5" customHeight="1">
+    <row r="66" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="32"/>
       <c r="C66" s="2"/>
@@ -58359,7 +58371,7 @@
       <c r="AM66" s="2"/>
       <c r="AN66" s="2"/>
     </row>
-    <row r="67" spans="1:40" ht="12.5" customHeight="1">
+    <row r="67" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="32"/>
       <c r="C67" s="2"/>
@@ -58401,7 +58413,7 @@
       <c r="AM67" s="2"/>
       <c r="AN67" s="2"/>
     </row>
-    <row r="68" spans="1:40" ht="12.5" customHeight="1">
+    <row r="68" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="32"/>
       <c r="C68" s="2"/>
@@ -58443,7 +58455,7 @@
       <c r="AM68" s="2"/>
       <c r="AN68" s="2"/>
     </row>
-    <row r="69" spans="1:40" ht="12.5" customHeight="1">
+    <row r="69" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="32"/>
       <c r="C69" s="2"/>
@@ -58485,7 +58497,7 @@
       <c r="AM69" s="2"/>
       <c r="AN69" s="2"/>
     </row>
-    <row r="70" spans="1:40" ht="12.5" customHeight="1">
+    <row r="70" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="32"/>
       <c r="C70" s="2"/>
@@ -58527,7 +58539,7 @@
       <c r="AM70" s="2"/>
       <c r="AN70" s="2"/>
     </row>
-    <row r="71" spans="1:40" ht="12.5" customHeight="1">
+    <row r="71" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="32"/>
       <c r="C71" s="2"/>
@@ -58569,7 +58581,7 @@
       <c r="AM71" s="2"/>
       <c r="AN71" s="2"/>
     </row>
-    <row r="72" spans="1:40" ht="12.5" customHeight="1">
+    <row r="72" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="32"/>
       <c r="C72" s="2"/>
@@ -58611,7 +58623,7 @@
       <c r="AM72" s="2"/>
       <c r="AN72" s="2"/>
     </row>
-    <row r="73" spans="1:40" ht="12.5" customHeight="1">
+    <row r="73" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="32"/>
       <c r="C73" s="2"/>
@@ -58653,7 +58665,7 @@
       <c r="AM73" s="2"/>
       <c r="AN73" s="2"/>
     </row>
-    <row r="74" spans="1:40" ht="12.5" customHeight="1">
+    <row r="74" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="32"/>
       <c r="C74" s="2"/>
@@ -58695,7 +58707,7 @@
       <c r="AM74" s="2"/>
       <c r="AN74" s="2"/>
     </row>
-    <row r="75" spans="1:40" ht="12.5" customHeight="1">
+    <row r="75" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="32"/>
       <c r="C75" s="2"/>
@@ -58737,7 +58749,7 @@
       <c r="AM75" s="2"/>
       <c r="AN75" s="2"/>
     </row>
-    <row r="76" spans="1:40" ht="12.5" customHeight="1">
+    <row r="76" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="32"/>
       <c r="C76" s="2"/>
@@ -58779,7 +58791,7 @@
       <c r="AM76" s="2"/>
       <c r="AN76" s="2"/>
     </row>
-    <row r="77" spans="1:40" ht="12.5" customHeight="1">
+    <row r="77" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="32"/>
       <c r="C77" s="2"/>
@@ -58821,7 +58833,7 @@
       <c r="AM77" s="2"/>
       <c r="AN77" s="2"/>
     </row>
-    <row r="78" spans="1:40" ht="12.5" customHeight="1">
+    <row r="78" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="32"/>
       <c r="C78" s="2"/>
@@ -58863,7 +58875,7 @@
       <c r="AM78" s="2"/>
       <c r="AN78" s="2"/>
     </row>
-    <row r="79" spans="1:40" ht="12.5" customHeight="1">
+    <row r="79" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="32"/>
       <c r="C79" s="2"/>
@@ -58905,7 +58917,7 @@
       <c r="AM79" s="2"/>
       <c r="AN79" s="2"/>
     </row>
-    <row r="80" spans="1:40" ht="12.5" customHeight="1">
+    <row r="80" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="32"/>
       <c r="C80" s="2"/>
@@ -58947,7 +58959,7 @@
       <c r="AM80" s="2"/>
       <c r="AN80" s="2"/>
     </row>
-    <row r="81" spans="1:40" ht="12.5" customHeight="1">
+    <row r="81" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="32"/>
       <c r="C81" s="2"/>
@@ -58989,7 +59001,7 @@
       <c r="AM81" s="2"/>
       <c r="AN81" s="2"/>
     </row>
-    <row r="82" spans="1:40" ht="12.5" customHeight="1">
+    <row r="82" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="32"/>
       <c r="C82" s="2"/>
@@ -59031,7 +59043,7 @@
       <c r="AM82" s="2"/>
       <c r="AN82" s="2"/>
     </row>
-    <row r="83" spans="1:40" ht="12.5" customHeight="1">
+    <row r="83" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="32"/>
       <c r="C83" s="2"/>
@@ -59073,7 +59085,7 @@
       <c r="AM83" s="2"/>
       <c r="AN83" s="2"/>
     </row>
-    <row r="84" spans="1:40" ht="12.5" customHeight="1">
+    <row r="84" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="32"/>
       <c r="C84" s="2"/>
@@ -59115,7 +59127,7 @@
       <c r="AM84" s="2"/>
       <c r="AN84" s="2"/>
     </row>
-    <row r="85" spans="1:40" ht="12.5" customHeight="1">
+    <row r="85" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="32"/>
       <c r="C85" s="2"/>
@@ -59157,7 +59169,7 @@
       <c r="AM85" s="2"/>
       <c r="AN85" s="2"/>
     </row>
-    <row r="86" spans="1:40" ht="12.5" customHeight="1">
+    <row r="86" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="32"/>
       <c r="C86" s="2"/>
@@ -59199,7 +59211,7 @@
       <c r="AM86" s="2"/>
       <c r="AN86" s="2"/>
     </row>
-    <row r="87" spans="1:40" ht="12.5" customHeight="1">
+    <row r="87" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="32"/>
       <c r="C87" s="2"/>
@@ -59241,7 +59253,7 @@
       <c r="AM87" s="2"/>
       <c r="AN87" s="2"/>
     </row>
-    <row r="88" spans="1:40" ht="12.5" customHeight="1">
+    <row r="88" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="32"/>
       <c r="C88" s="2"/>
@@ -59283,7 +59295,7 @@
       <c r="AM88" s="2"/>
       <c r="AN88" s="2"/>
     </row>
-    <row r="89" spans="1:40" ht="12.5" customHeight="1">
+    <row r="89" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="32"/>
       <c r="C89" s="2"/>
@@ -59325,7 +59337,7 @@
       <c r="AM89" s="2"/>
       <c r="AN89" s="2"/>
     </row>
-    <row r="90" spans="1:40" ht="12.5" customHeight="1">
+    <row r="90" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="32"/>
       <c r="C90" s="2"/>
@@ -59367,7 +59379,7 @@
       <c r="AM90" s="2"/>
       <c r="AN90" s="2"/>
     </row>
-    <row r="91" spans="1:40" ht="12.5" customHeight="1">
+    <row r="91" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
